--- a/ProjectPony/Results/Experience 2/dp_tunnedAHP_2.xlsx
+++ b/ProjectPony/Results/Experience 2/dp_tunnedAHP_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/TFG_GITT_Joscanege/Bloque III/ProyectoPony/Resultados/Experiencia 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamac\Documents\GitHub\javmunca-GIE-AHP\ProjectPony\Results\Experience 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{7B16B537-8C9A-4727-A18A-484C076F5362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF41CE6B-6BF8-4800-82F5-9705D33E881D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BBF3D9-6F29-40CA-ACD5-2401E8AB9E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="4575" windowWidth="19440" windowHeight="14880" firstSheet="3" activeTab="5" xr2:uid="{3CAB450C-71BC-4FE8-B13A-D8A4907B4A86}"/>
+    <workbookView xWindow="5775" yWindow="0" windowWidth="27090" windowHeight="20880" firstSheet="1" activeTab="6" xr2:uid="{3CAB450C-71BC-4FE8-B13A-D8A4907B4A86}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe Previo" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="674">
   <si>
     <t>Fecha de inicio:</t>
   </si>
@@ -2001,9 +2001,6 @@
     <t>2023-11-23</t>
   </si>
   <si>
-    <t>MITT (Master Ingenieria Telecomunicaciones)</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -2016,9 +2013,6 @@
     <t>Sí, de 0.1 a 0.3 décimas en el examen.</t>
   </si>
   <si>
-    <t>ETSI (Escuela Técnica Superior de Ingeniería de Sevilla)</t>
-  </si>
-  <si>
     <t>1º</t>
   </si>
   <si>
@@ -2086,12 +2080,6 @@
   </si>
   <si>
     <t xml:space="preserve">es adecuado, le daria más duración </t>
-  </si>
-  <si>
-    <t>Francisco Javier Muñoz Calle</t>
-  </si>
-  <si>
-    <t>José Manuel Candilejo Egea</t>
   </si>
   <si>
     <t>10 min</t>
@@ -3394,66 +3382,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3484,20 +3412,80 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3506,7 +3494,100 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3514,56 +3595,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3586,146 +3652,68 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -4788,6 +4776,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4795,7 +4784,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5104,6 +5092,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5111,7 +5100,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5438,6 +5426,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5445,7 +5434,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6254,6 +6242,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6261,7 +6250,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7480,6 +7468,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7487,7 +7476,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8121,6 +8109,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8128,7 +8117,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8467,6 +8455,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8474,7 +8463,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8790,6 +8778,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8797,7 +8786,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -24508,8 +24496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24596,7 +24584,7 @@
         <v>525</v>
       </c>
       <c r="D6" s="199" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E6" s="198"/>
       <c r="F6" s="133"/>
@@ -24634,7 +24622,7 @@
         <v>527</v>
       </c>
       <c r="D8" s="199" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E8" s="198"/>
       <c r="F8" s="133"/>
@@ -24653,7 +24641,7 @@
         <v>528</v>
       </c>
       <c r="D9" s="199" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E9" s="198"/>
       <c r="F9" s="133"/>
@@ -24671,9 +24659,7 @@
       <c r="C10" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="D10" s="199" t="s">
-        <v>649</v>
-      </c>
+      <c r="D10" s="199"/>
       <c r="E10" s="198"/>
       <c r="F10" s="133"/>
       <c r="G10" s="133"/>
@@ -24691,7 +24677,7 @@
         <v>377</v>
       </c>
       <c r="D11" s="199" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E11" s="198"/>
       <c r="F11" s="133"/>
@@ -24709,9 +24695,7 @@
       <c r="C12" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="D12" s="199" t="s">
-        <v>644</v>
-      </c>
+      <c r="D12" s="199"/>
       <c r="E12" s="198"/>
       <c r="F12" s="133"/>
       <c r="G12" s="133"/>
@@ -24729,7 +24713,7 @@
         <v>378</v>
       </c>
       <c r="D13" s="199" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E13" s="198"/>
       <c r="F13" s="133"/>
@@ -24843,7 +24827,7 @@
         <v>533</v>
       </c>
       <c r="D19" s="199" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E19" s="206"/>
       <c r="F19" s="133"/>
@@ -24862,7 +24846,7 @@
         <v>534</v>
       </c>
       <c r="D20" s="199" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E20" s="198"/>
       <c r="F20" s="133"/>
@@ -24881,7 +24865,7 @@
         <v>535</v>
       </c>
       <c r="D21" s="199" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E21" s="198"/>
       <c r="F21" s="133"/>
@@ -24900,7 +24884,7 @@
         <v>536</v>
       </c>
       <c r="D22" s="199" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E22" s="198"/>
       <c r="F22" s="133"/>
@@ -24938,7 +24922,7 @@
         <v>538</v>
       </c>
       <c r="D24" s="199" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E24" s="198"/>
       <c r="F24" s="133"/>
@@ -24957,7 +24941,7 @@
         <v>381</v>
       </c>
       <c r="D25" s="199" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E25" s="198"/>
       <c r="F25" s="133"/>
@@ -28557,7 +28541,7 @@
         <v>542</v>
       </c>
       <c r="E7" s="205" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F7" s="205" t="s">
         <v>542</v>
@@ -28584,16 +28568,16 @@
         <v>377</v>
       </c>
       <c r="D8" s="205" t="s">
+        <v>661</v>
+      </c>
+      <c r="E8" s="205" t="s">
+        <v>652</v>
+      </c>
+      <c r="F8" s="205" t="s">
+        <v>662</v>
+      </c>
+      <c r="G8" s="205" t="s">
         <v>663</v>
-      </c>
-      <c r="E8" s="205" t="s">
-        <v>654</v>
-      </c>
-      <c r="F8" s="205" t="s">
-        <v>664</v>
-      </c>
-      <c r="G8" s="205" t="s">
-        <v>665</v>
       </c>
       <c r="H8" s="165"/>
       <c r="I8" s="165"/>
@@ -29107,16 +29091,16 @@
         <v>546</v>
       </c>
       <c r="D25" s="205" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E25" s="205" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F25" s="205" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G25" s="205" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H25" s="165"/>
       <c r="I25" s="165"/>
@@ -29596,16 +29580,16 @@
         <v>547</v>
       </c>
       <c r="D41" s="205" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E41" s="205" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F41" s="205" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G41" s="205" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H41" s="165"/>
       <c r="I41" s="165"/>
@@ -29657,16 +29641,16 @@
         <v>629</v>
       </c>
       <c r="D43" s="205" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E43" s="205" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F43" s="205" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G43" s="205" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H43" s="165"/>
       <c r="I43" s="165"/>
@@ -29720,7 +29704,7 @@
         <v>8</v>
       </c>
       <c r="E45" s="205" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F45" s="205">
         <v>8</v>
@@ -29747,16 +29731,16 @@
         <v>497</v>
       </c>
       <c r="D46" s="205" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="E46" s="205" t="s">
+        <v>658</v>
+      </c>
+      <c r="F46" s="205" t="s">
+        <v>659</v>
+      </c>
+      <c r="G46" s="205" t="s">
         <v>660</v>
-      </c>
-      <c r="F46" s="205" t="s">
-        <v>661</v>
-      </c>
-      <c r="G46" s="205" t="s">
-        <v>662</v>
       </c>
       <c r="H46" s="165"/>
       <c r="I46" s="165"/>
@@ -29777,16 +29761,16 @@
         <v>498</v>
       </c>
       <c r="D47" s="205" t="s">
+        <v>667</v>
+      </c>
+      <c r="E47" s="205" t="s">
+        <v>670</v>
+      </c>
+      <c r="F47" s="205" t="s">
         <v>669</v>
       </c>
-      <c r="E47" s="205" t="s">
-        <v>672</v>
-      </c>
-      <c r="F47" s="205" t="s">
-        <v>671</v>
-      </c>
       <c r="G47" s="205" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H47" s="165"/>
       <c r="M47" s="165"/>
@@ -30136,7 +30120,7 @@
         <v>554</v>
       </c>
       <c r="D4" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E4" s="163"/>
     </row>
@@ -30162,7 +30146,7 @@
         <v>557</v>
       </c>
       <c r="D6" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E6" s="163"/>
       <c r="F6" s="165"/>
@@ -30189,7 +30173,7 @@
         <v>560</v>
       </c>
       <c r="D8" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E8" s="163"/>
       <c r="F8" s="165"/>
@@ -30216,7 +30200,7 @@
         <v>562</v>
       </c>
       <c r="D10" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E10" s="163"/>
       <c r="F10" s="165"/>
@@ -30243,7 +30227,7 @@
         <v>564</v>
       </c>
       <c r="D12" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E12" s="163"/>
       <c r="F12" s="165"/>
@@ -30270,7 +30254,7 @@
         <v>567</v>
       </c>
       <c r="D14" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E14" s="163"/>
       <c r="F14" s="165"/>
@@ -30296,7 +30280,7 @@
         <v>570</v>
       </c>
       <c r="D16" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F16" s="165"/>
     </row>
@@ -30321,7 +30305,7 @@
         <v>573</v>
       </c>
       <c r="D18" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F18" s="165"/>
     </row>
@@ -30346,7 +30330,7 @@
         <v>576</v>
       </c>
       <c r="D20" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F20" s="165"/>
     </row>
@@ -30371,7 +30355,7 @@
         <v>579</v>
       </c>
       <c r="D22" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F22" s="165"/>
     </row>
@@ -30396,7 +30380,7 @@
         <v>582</v>
       </c>
       <c r="D24" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F24" s="165"/>
     </row>
@@ -30421,7 +30405,7 @@
         <v>585</v>
       </c>
       <c r="D26" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F26" s="165"/>
     </row>
@@ -30446,7 +30430,7 @@
         <v>588</v>
       </c>
       <c r="D28" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F28" s="165"/>
     </row>
@@ -30471,7 +30455,7 @@
         <v>590</v>
       </c>
       <c r="D30" s="207" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F30" s="165"/>
     </row>
@@ -30561,11 +30545,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -30576,6 +30555,11 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33315,7 +33299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74037A00-03DB-435A-8270-394BB5D409E9}">
   <dimension ref="A2:W367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D199" workbookViewId="0">
+    <sheetView topLeftCell="D199" workbookViewId="0">
       <selection activeCell="J208" sqref="J208"/>
     </sheetView>
   </sheetViews>
@@ -33344,14 +33328,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="230" t="s">
+      <c r="A2" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="230"/>
-      <c r="C2" s="230"/>
-      <c r="D2" s="230"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="230"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3" s="24" t="s">
@@ -33359,7 +33343,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="226" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="211" t="s">
@@ -33383,7 +33367,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="231"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="211"/>
       <c r="D5" s="17" t="s">
         <v>48</v>
@@ -33413,7 +33397,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="231"/>
+      <c r="B6" s="226"/>
       <c r="C6" s="211"/>
       <c r="D6" s="17" t="s">
         <v>55</v>
@@ -33439,7 +33423,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="231"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="211" t="s">
         <v>54</v>
       </c>
@@ -33455,7 +33439,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="231"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="211"/>
       <c r="D8" s="17" t="s">
         <v>48</v>
@@ -33469,7 +33453,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="231"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="211"/>
       <c r="D9" s="17" t="s">
         <v>55</v>
@@ -33480,7 +33464,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="226" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="211" t="s">
@@ -33495,7 +33479,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="231"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="211"/>
       <c r="D12" s="17" t="s">
         <v>48</v>
@@ -33506,7 +33490,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="231"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="211"/>
       <c r="D13" s="17" t="s">
         <v>55</v>
@@ -33517,7 +33501,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="231"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="211" t="s">
         <v>54</v>
       </c>
@@ -33530,7 +33514,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="231"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="211"/>
       <c r="D15" s="17" t="s">
         <v>48</v>
@@ -33541,7 +33525,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="231"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="211"/>
       <c r="D16" s="17" t="s">
         <v>55</v>
@@ -33789,16 +33773,16 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
-      <c r="H44" s="219" t="e">
+      <c r="H44" s="227" t="e">
         <f>"t "&amp;IF(H35&gt;I41,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I35&gt;J41,LOWER(I29),LOWER(I28))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="220"/>
-      <c r="J44" s="220"/>
-      <c r="K44" s="220"/>
-      <c r="L44" s="220"/>
-      <c r="M44" s="220"/>
-      <c r="N44" s="221"/>
+      <c r="I44" s="228"/>
+      <c r="J44" s="228"/>
+      <c r="K44" s="228"/>
+      <c r="L44" s="228"/>
+      <c r="M44" s="228"/>
+      <c r="N44" s="229"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -33958,27 +33942,27 @@
     </row>
     <row r="63" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="22"/>
-      <c r="H63" s="213" t="str">
+      <c r="H63" s="230" t="str">
         <f>"t "&amp;IF(I54&gt;J60,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I54&gt;J60,LOWER(I49),LOWER(I48))</f>
         <v>t &gt; valor crítico, por lo tanto se acepta la hipótesis alternativa: ha habido cambios positivos en los resultados academicos</v>
       </c>
-      <c r="I63" s="214"/>
-      <c r="J63" s="214"/>
-      <c r="K63" s="214"/>
-      <c r="L63" s="214"/>
-      <c r="M63" s="214"/>
-      <c r="N63" s="215"/>
+      <c r="I63" s="231"/>
+      <c r="J63" s="231"/>
+      <c r="K63" s="231"/>
+      <c r="L63" s="231"/>
+      <c r="M63" s="231"/>
+      <c r="N63" s="232"/>
       <c r="O63" s="23"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="22"/>
-      <c r="H64" s="216"/>
-      <c r="I64" s="217"/>
-      <c r="J64" s="217"/>
-      <c r="K64" s="217"/>
-      <c r="L64" s="217"/>
-      <c r="M64" s="217"/>
-      <c r="N64" s="218"/>
+      <c r="H64" s="233"/>
+      <c r="I64" s="234"/>
+      <c r="J64" s="234"/>
+      <c r="K64" s="234"/>
+      <c r="L64" s="234"/>
+      <c r="M64" s="234"/>
+      <c r="N64" s="235"/>
       <c r="O64" s="23"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34154,16 +34138,16 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="22"/>
-      <c r="H84" s="219" t="e">
+      <c r="H84" s="227" t="e">
         <f>"t "&amp;IF(H75&gt;I81,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I75&gt;J81,LOWER(I69),LOWER(I68))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="220"/>
-      <c r="J84" s="220"/>
-      <c r="K84" s="220"/>
-      <c r="L84" s="220"/>
-      <c r="M84" s="220"/>
-      <c r="N84" s="221"/>
+      <c r="I84" s="228"/>
+      <c r="J84" s="228"/>
+      <c r="K84" s="228"/>
+      <c r="L84" s="228"/>
+      <c r="M84" s="228"/>
+      <c r="N84" s="229"/>
       <c r="O84" s="23"/>
     </row>
     <row r="85" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34323,27 +34307,27 @@
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="22"/>
-      <c r="H103" s="213" t="str">
+      <c r="H103" s="230" t="str">
         <f>"t "&amp;IF(I94&gt;J100,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I94&gt;J100,LOWER(I89),LOWER(I88))</f>
         <v>t &gt; valor crítico, por lo tanto se acepta la hipótesis alternativa: ha habido cambios positivos en los resultados academicos</v>
       </c>
-      <c r="I103" s="214"/>
-      <c r="J103" s="214"/>
-      <c r="K103" s="214"/>
-      <c r="L103" s="214"/>
-      <c r="M103" s="214"/>
-      <c r="N103" s="215"/>
+      <c r="I103" s="231"/>
+      <c r="J103" s="231"/>
+      <c r="K103" s="231"/>
+      <c r="L103" s="231"/>
+      <c r="M103" s="231"/>
+      <c r="N103" s="232"/>
       <c r="O103" s="23"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B104" s="22"/>
-      <c r="H104" s="216"/>
-      <c r="I104" s="217"/>
-      <c r="J104" s="217"/>
-      <c r="K104" s="217"/>
-      <c r="L104" s="217"/>
-      <c r="M104" s="217"/>
-      <c r="N104" s="218"/>
+      <c r="H104" s="233"/>
+      <c r="I104" s="234"/>
+      <c r="J104" s="234"/>
+      <c r="K104" s="234"/>
+      <c r="L104" s="234"/>
+      <c r="M104" s="234"/>
+      <c r="N104" s="235"/>
       <c r="O104" s="23"/>
     </row>
     <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -34363,14 +34347,14 @@
       <c r="O105" s="28"/>
     </row>
     <row r="107" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A107" s="230" t="s">
+      <c r="A107" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="230"/>
-      <c r="C107" s="230"/>
-      <c r="D107" s="230"/>
-      <c r="E107" s="230"/>
-      <c r="F107" s="230"/>
+      <c r="B107" s="225"/>
+      <c r="C107" s="225"/>
+      <c r="D107" s="225"/>
+      <c r="E107" s="225"/>
+      <c r="F107" s="225"/>
     </row>
     <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="35" t="s">
@@ -35466,14 +35450,14 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="230" t="s">
+      <c r="A156" s="225" t="s">
         <v>121</v>
       </c>
-      <c r="B156" s="230"/>
-      <c r="C156" s="230"/>
-      <c r="D156" s="230"/>
-      <c r="E156" s="230"/>
-      <c r="F156" s="230"/>
+      <c r="B156" s="225"/>
+      <c r="C156" s="225"/>
+      <c r="D156" s="225"/>
+      <c r="E156" s="225"/>
+      <c r="F156" s="225"/>
     </row>
     <row r="158" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="34" t="s">
@@ -35821,13 +35805,13 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B176" s="229" t="s">
+      <c r="B176" s="236" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="229"/>
-      <c r="D176" s="229"/>
-      <c r="E176" s="229"/>
-      <c r="F176" s="229"/>
+      <c r="C176" s="236"/>
+      <c r="D176" s="236"/>
+      <c r="E176" s="236"/>
+      <c r="F176" s="236"/>
     </row>
     <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="34" t="s">
@@ -35862,13 +35846,13 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="212" t="s">
+      <c r="A179" s="239" t="s">
         <v>521</v>
       </c>
-      <c r="B179" s="222" t="s">
+      <c r="B179" s="223" t="s">
         <v>250</v>
       </c>
-      <c r="C179" s="224">
+      <c r="C179" s="222">
         <f>IF($C$184="N/A",M230/(1-M231),M230)</f>
         <v>0.17152621686969177</v>
       </c>
@@ -35891,7 +35875,7 @@
         <f>G179*E179</f>
         <v>0.22982329065473131</v>
       </c>
-      <c r="I179" s="227" cm="1">
+      <c r="I179" s="238" cm="1">
         <f t="array" ref="I179">IF(E183="N/A",SUM(E179:E182*F179:F182),SUM(E179:E183*F179:F183))</f>
         <v>2.9425901326378163</v>
       </c>
@@ -35905,9 +35889,9 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="212"/>
-      <c r="B180" s="222"/>
-      <c r="C180" s="225"/>
+      <c r="A180" s="239"/>
+      <c r="B180" s="223"/>
+      <c r="C180" s="237"/>
       <c r="D180" s="1" t="s">
         <v>136</v>
       </c>
@@ -35927,7 +35911,7 @@
         <f t="shared" ref="H180:H215" si="3">G180*E180</f>
         <v>0</v>
       </c>
-      <c r="I180" s="227"/>
+      <c r="I180" s="238"/>
       <c r="K180" s="51" t="str">
         <f>B184</f>
         <v>Resultados académicos</v>
@@ -35938,9 +35922,9 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="212"/>
-      <c r="B181" s="222"/>
-      <c r="C181" s="225"/>
+      <c r="A181" s="239"/>
+      <c r="B181" s="223"/>
+      <c r="C181" s="237"/>
       <c r="D181" s="1" t="s">
         <v>137</v>
       </c>
@@ -35960,7 +35944,7 @@
         <f t="shared" si="3"/>
         <v>0.11840641420457489</v>
       </c>
-      <c r="I181" s="227"/>
+      <c r="I181" s="238"/>
       <c r="K181" s="51" t="str">
         <f>B186</f>
         <v>Resultados motivacionales</v>
@@ -35971,9 +35955,9 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="212"/>
-      <c r="B182" s="222"/>
-      <c r="C182" s="225"/>
+      <c r="A182" s="239"/>
+      <c r="B182" s="223"/>
+      <c r="C182" s="237"/>
       <c r="D182" s="1" t="s">
         <v>138</v>
       </c>
@@ -35993,7 +35977,7 @@
         <f t="shared" si="3"/>
         <v>0.15650164839014294</v>
       </c>
-      <c r="I182" s="227"/>
+      <c r="I182" s="238"/>
       <c r="K182" s="51" t="s">
         <v>367</v>
       </c>
@@ -36003,9 +35987,9 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="212"/>
-      <c r="B183" s="222"/>
-      <c r="C183" s="225"/>
+      <c r="A183" s="239"/>
+      <c r="B183" s="223"/>
+      <c r="C183" s="237"/>
       <c r="D183" s="1" t="s">
         <v>251</v>
       </c>
@@ -36025,7 +36009,7 @@
         <f>IF(E183="N/A","N/A",G183*E183)</f>
         <v>N/A</v>
       </c>
-      <c r="I183" s="227"/>
+      <c r="I183" s="238"/>
       <c r="K183" s="51" t="str">
         <f>B209</f>
         <v>Diseño del contenido</v>
@@ -36036,11 +36020,11 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="212"/>
-      <c r="B184" s="222" t="s">
+      <c r="A184" s="239"/>
+      <c r="B184" s="223" t="s">
         <v>252</v>
       </c>
-      <c r="C184" s="224" t="str">
+      <c r="C184" s="222" t="str">
         <f>IF(E184="N/A","N/A",M231)</f>
         <v>N/A</v>
       </c>
@@ -36063,7 +36047,7 @@
         <f>IF(G184="N/A","N/A",G184*E184)</f>
         <v>N/A</v>
       </c>
-      <c r="I184" s="227" t="str" cm="1">
+      <c r="I184" s="238" t="str" cm="1">
         <f t="array" ref="I184">IF(H184="N/A","N/A",SUM(E184:E185*F184:F185))</f>
         <v>N/A</v>
       </c>
@@ -36077,9 +36061,9 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="212"/>
-      <c r="B185" s="222"/>
-      <c r="C185" s="225"/>
+      <c r="A185" s="239"/>
+      <c r="B185" s="223"/>
+      <c r="C185" s="237"/>
       <c r="D185" s="1" t="s">
         <v>95</v>
       </c>
@@ -36099,7 +36083,7 @@
         <f>IF(G185="N/A","N/A",G185*E185)</f>
         <v>N/A</v>
       </c>
-      <c r="I185" s="227"/>
+      <c r="I185" s="238"/>
       <c r="K185" s="51" t="str">
         <f>B202</f>
         <v>Diseño técnico</v>
@@ -36110,11 +36094,11 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="212"/>
-      <c r="B186" s="222" t="s">
+      <c r="A186" s="239"/>
+      <c r="B186" s="223" t="s">
         <v>253</v>
       </c>
-      <c r="C186" s="224">
+      <c r="C186" s="222">
         <f>IF($C$184="N/A",M232/(1-M231),M232)</f>
         <v>0.57280901716156574</v>
       </c>
@@ -36137,15 +36121,15 @@
         <f t="shared" si="3"/>
         <v>0.33582928189397898</v>
       </c>
-      <c r="I186" s="227" cm="1">
+      <c r="I186" s="238" cm="1">
         <f t="array" ref="I186">SUM(E186:E194*F186:F194)</f>
         <v>4.1472331237690421</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="212"/>
-      <c r="B187" s="222"/>
-      <c r="C187" s="225"/>
+      <c r="A187" s="239"/>
+      <c r="B187" s="223"/>
+      <c r="C187" s="237"/>
       <c r="D187" s="1" t="s">
         <v>107</v>
       </c>
@@ -36165,13 +36149,13 @@
         <f t="shared" si="3"/>
         <v>0.2346127067292571</v>
       </c>
-      <c r="I187" s="227"/>
+      <c r="I187" s="238"/>
       <c r="K187" s="11"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="212"/>
-      <c r="B188" s="222"/>
-      <c r="C188" s="225"/>
+      <c r="A188" s="239"/>
+      <c r="B188" s="223"/>
+      <c r="C188" s="237"/>
       <c r="D188" s="1" t="s">
         <v>108</v>
       </c>
@@ -36191,13 +36175,13 @@
         <f t="shared" si="3"/>
         <v>0.2072166664887537</v>
       </c>
-      <c r="I188" s="227"/>
+      <c r="I188" s="238"/>
       <c r="K188" s="11"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="212"/>
-      <c r="B189" s="222"/>
-      <c r="C189" s="225"/>
+      <c r="A189" s="239"/>
+      <c r="B189" s="223"/>
+      <c r="C189" s="237"/>
       <c r="D189" s="1" t="s">
         <v>109</v>
       </c>
@@ -36217,13 +36201,13 @@
         <f t="shared" si="3"/>
         <v>0.2917223587522324</v>
       </c>
-      <c r="I189" s="227"/>
+      <c r="I189" s="238"/>
       <c r="K189" s="11"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="212"/>
-      <c r="B190" s="222"/>
-      <c r="C190" s="225"/>
+      <c r="A190" s="239"/>
+      <c r="B190" s="223"/>
+      <c r="C190" s="237"/>
       <c r="D190" s="1" t="s">
         <v>110</v>
       </c>
@@ -36243,13 +36227,13 @@
         <f t="shared" si="3"/>
         <v>0.56278912821745142</v>
       </c>
-      <c r="I190" s="227"/>
+      <c r="I190" s="238"/>
       <c r="K190" s="11"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="212"/>
-      <c r="B191" s="222"/>
-      <c r="C191" s="225"/>
+      <c r="A191" s="239"/>
+      <c r="B191" s="223"/>
+      <c r="C191" s="237"/>
       <c r="D191" s="1" t="s">
         <v>111</v>
       </c>
@@ -36269,13 +36253,13 @@
         <f t="shared" si="3"/>
         <v>0.41770824412152668</v>
       </c>
-      <c r="I191" s="227"/>
+      <c r="I191" s="238"/>
       <c r="K191" s="11"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="212"/>
-      <c r="B192" s="222"/>
-      <c r="C192" s="225"/>
+      <c r="A192" s="239"/>
+      <c r="B192" s="223"/>
+      <c r="C192" s="237"/>
       <c r="D192" s="1" t="s">
         <v>112</v>
       </c>
@@ -36295,13 +36279,13 @@
         <f t="shared" si="3"/>
         <v>7.5854633534656282E-2</v>
       </c>
-      <c r="I192" s="227"/>
+      <c r="I192" s="238"/>
       <c r="K192" s="11"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="212"/>
-      <c r="B193" s="222"/>
-      <c r="C193" s="225"/>
+      <c r="A193" s="239"/>
+      <c r="B193" s="223"/>
+      <c r="C193" s="237"/>
       <c r="D193" s="1" t="s">
         <v>113</v>
       </c>
@@ -36321,13 +36305,13 @@
         <f t="shared" si="3"/>
         <v>0.12230245831935974</v>
       </c>
-      <c r="I193" s="227"/>
+      <c r="I193" s="238"/>
       <c r="K193" s="11"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="212"/>
-      <c r="B194" s="222"/>
-      <c r="C194" s="225"/>
+      <c r="A194" s="239"/>
+      <c r="B194" s="223"/>
+      <c r="C194" s="237"/>
       <c r="D194" s="1" t="s">
         <v>114</v>
       </c>
@@ -36347,15 +36331,15 @@
         <f t="shared" si="3"/>
         <v>0.12753705150881886</v>
       </c>
-      <c r="I194" s="227"/>
+      <c r="I194" s="238"/>
       <c r="K194" s="11"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="212"/>
-      <c r="B195" s="233" t="s">
+      <c r="A195" s="239"/>
+      <c r="B195" s="213" t="s">
         <v>367</v>
       </c>
-      <c r="C195" s="235">
+      <c r="C195" s="215">
         <f>IF($C$184="N/A",M233/(1-M231),M233)</f>
         <v>0.25566476596874216</v>
       </c>
@@ -36378,16 +36362,16 @@
         <f>G195*E195</f>
         <v>0.26006902200194587</v>
       </c>
-      <c r="I195" s="237" cm="1">
+      <c r="I195" s="217" cm="1">
         <f t="array" ref="I195">SUM(E195:E199*F195:F199)</f>
         <v>3.6678475235760901</v>
       </c>
       <c r="K195" s="11"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="212"/>
-      <c r="B196" s="234"/>
-      <c r="C196" s="236"/>
+      <c r="A196" s="239"/>
+      <c r="B196" s="214"/>
+      <c r="C196" s="216"/>
       <c r="D196" s="1" t="s">
         <v>373</v>
       </c>
@@ -36407,13 +36391,13 @@
         <f>G196*E196</f>
         <v>0.22463995163031339</v>
       </c>
-      <c r="I196" s="238"/>
+      <c r="I196" s="218"/>
       <c r="K196" s="11"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="212"/>
-      <c r="B197" s="234"/>
-      <c r="C197" s="236"/>
+      <c r="A197" s="239"/>
+      <c r="B197" s="214"/>
+      <c r="C197" s="216"/>
       <c r="D197" s="1" t="s">
         <v>368</v>
       </c>
@@ -36433,13 +36417,13 @@
         <f t="shared" ref="H197:H199" si="7">G197*E197</f>
         <v>0.11597156119067568</v>
       </c>
-      <c r="I197" s="238"/>
+      <c r="I197" s="218"/>
       <c r="K197" s="11"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="212"/>
-      <c r="B198" s="234"/>
-      <c r="C198" s="236"/>
+      <c r="A198" s="239"/>
+      <c r="B198" s="214"/>
+      <c r="C198" s="216"/>
       <c r="D198" s="1" t="s">
         <v>369</v>
       </c>
@@ -36459,13 +36443,13 @@
         <f t="shared" si="7"/>
         <v>0.17025769736166052</v>
       </c>
-      <c r="I198" s="238"/>
+      <c r="I198" s="218"/>
       <c r="K198" s="11"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="212"/>
-      <c r="B199" s="234"/>
-      <c r="C199" s="236"/>
+      <c r="A199" s="239"/>
+      <c r="B199" s="214"/>
+      <c r="C199" s="216"/>
       <c r="D199" s="143" t="s">
         <v>370</v>
       </c>
@@ -36485,7 +36469,7 @@
         <f t="shared" si="7"/>
         <v>0.16680114653951611</v>
       </c>
-      <c r="I199" s="238"/>
+      <c r="I199" s="218"/>
       <c r="K199" s="11"/>
     </row>
     <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -36518,13 +36502,13 @@
       <c r="K201" s="11"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="212" t="s">
+      <c r="A202" s="239" t="s">
         <v>522</v>
       </c>
-      <c r="B202" s="223" t="s">
+      <c r="B202" s="240" t="s">
         <v>254</v>
       </c>
-      <c r="C202" s="226">
+      <c r="C202" s="241">
         <f>K244</f>
         <v>0.26855961518439536</v>
       </c>
@@ -36547,16 +36531,16 @@
         <f t="shared" si="3"/>
         <v>0.16891581388937713</v>
       </c>
-      <c r="I202" s="228" cm="1">
+      <c r="I202" s="224" cm="1">
         <f t="array" ref="I202">SUM(E202:E208*F202:F208)</f>
         <v>3.9633839834307523</v>
       </c>
       <c r="K202" s="11"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="212"/>
-      <c r="B203" s="222"/>
-      <c r="C203" s="225"/>
+      <c r="A203" s="239"/>
+      <c r="B203" s="223"/>
+      <c r="C203" s="237"/>
       <c r="D203" s="1" t="s">
         <v>103</v>
       </c>
@@ -36576,13 +36560,13 @@
         <f t="shared" si="3"/>
         <v>0.21840847973111327</v>
       </c>
-      <c r="I203" s="227"/>
+      <c r="I203" s="238"/>
       <c r="K203" s="11"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="212"/>
-      <c r="B204" s="222"/>
-      <c r="C204" s="225"/>
+      <c r="A204" s="239"/>
+      <c r="B204" s="223"/>
+      <c r="C204" s="237"/>
       <c r="D204" s="1" t="s">
         <v>104</v>
       </c>
@@ -36602,13 +36586,13 @@
         <f t="shared" si="3"/>
         <v>0.29010665345450798</v>
       </c>
-      <c r="I204" s="227"/>
+      <c r="I204" s="238"/>
       <c r="K204" s="11"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="212"/>
-      <c r="B205" s="222"/>
-      <c r="C205" s="225"/>
+      <c r="A205" s="239"/>
+      <c r="B205" s="223"/>
+      <c r="C205" s="237"/>
       <c r="D205" s="1" t="s">
         <v>139</v>
       </c>
@@ -36628,13 +36612,13 @@
         <f t="shared" si="3"/>
         <v>0.1248175580897647</v>
       </c>
-      <c r="I205" s="227"/>
+      <c r="I205" s="238"/>
       <c r="K205" s="11"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="212"/>
-      <c r="B206" s="222"/>
-      <c r="C206" s="225"/>
+      <c r="A206" s="239"/>
+      <c r="B206" s="223"/>
+      <c r="C206" s="237"/>
       <c r="D206" s="1" t="s">
         <v>141</v>
       </c>
@@ -36654,13 +36638,13 @@
         <f t="shared" si="3"/>
         <v>4.9807704603624686E-2</v>
       </c>
-      <c r="I206" s="227"/>
+      <c r="I206" s="238"/>
       <c r="K206" s="11"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="212"/>
-      <c r="B207" s="222"/>
-      <c r="C207" s="225"/>
+      <c r="A207" s="239"/>
+      <c r="B207" s="223"/>
+      <c r="C207" s="237"/>
       <c r="D207" s="1" t="s">
         <v>142</v>
       </c>
@@ -36680,13 +36664,13 @@
         <f t="shared" si="3"/>
         <v>0.11349706843780361</v>
       </c>
-      <c r="I207" s="227"/>
+      <c r="I207" s="238"/>
       <c r="K207" s="11"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="212"/>
-      <c r="B208" s="222"/>
-      <c r="C208" s="225"/>
+      <c r="A208" s="239"/>
+      <c r="B208" s="223"/>
+      <c r="C208" s="237"/>
       <c r="D208" s="1" t="s">
         <v>143</v>
       </c>
@@ -36706,15 +36690,15 @@
         <f t="shared" si="3"/>
         <v>9.8851599211967456E-2</v>
       </c>
-      <c r="I208" s="227"/>
+      <c r="I208" s="238"/>
       <c r="K208" s="11"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="212"/>
-      <c r="B209" s="222" t="s">
+      <c r="A209" s="239"/>
+      <c r="B209" s="223" t="s">
         <v>255</v>
       </c>
-      <c r="C209" s="224">
+      <c r="C209" s="222">
         <f>K245</f>
         <v>0.38331856056126207</v>
       </c>
@@ -36737,16 +36721,16 @@
         <f t="shared" si="3"/>
         <v>0.58130617272324792</v>
       </c>
-      <c r="I209" s="227" cm="1">
+      <c r="I209" s="238" cm="1">
         <f t="array" ref="I209">SUM(E209:E212*F209:F212)</f>
         <v>3.9584200226161048</v>
       </c>
       <c r="K209" s="11"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="212"/>
-      <c r="B210" s="222"/>
-      <c r="C210" s="225"/>
+      <c r="A210" s="239"/>
+      <c r="B210" s="223"/>
+      <c r="C210" s="237"/>
       <c r="D210" s="1" t="s">
         <v>116</v>
       </c>
@@ -36766,13 +36750,13 @@
         <f t="shared" si="3"/>
         <v>0.38087908608088106</v>
       </c>
-      <c r="I210" s="227"/>
+      <c r="I210" s="238"/>
       <c r="K210" s="11"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="212"/>
-      <c r="B211" s="222"/>
-      <c r="C211" s="225"/>
+      <c r="A211" s="239"/>
+      <c r="B211" s="223"/>
+      <c r="C211" s="237"/>
       <c r="D211" s="1" t="s">
         <v>117</v>
       </c>
@@ -36792,13 +36776,13 @@
         <f t="shared" si="3"/>
         <v>0.46122849517166453</v>
       </c>
-      <c r="I211" s="227"/>
+      <c r="I211" s="238"/>
       <c r="K211" s="11"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="212"/>
-      <c r="B212" s="222"/>
-      <c r="C212" s="225"/>
+      <c r="A212" s="239"/>
+      <c r="B212" s="223"/>
+      <c r="C212" s="237"/>
       <c r="D212" s="1" t="s">
         <v>118</v>
       </c>
@@ -36818,15 +36802,15 @@
         <f t="shared" si="3"/>
         <v>9.3922111190290189E-2</v>
       </c>
-      <c r="I212" s="227"/>
+      <c r="I212" s="238"/>
       <c r="K212" s="11"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="212"/>
-      <c r="B213" s="222" t="s">
+      <c r="A213" s="239"/>
+      <c r="B213" s="223" t="s">
         <v>256</v>
       </c>
-      <c r="C213" s="224">
+      <c r="C213" s="222">
         <f>K246</f>
         <v>0.34812182425434263</v>
       </c>
@@ -36849,16 +36833,16 @@
         <f t="shared" si="3"/>
         <v>0.48119337392477929</v>
       </c>
-      <c r="I213" s="237" cm="1">
+      <c r="I213" s="217" cm="1">
         <f t="array" ref="I213">SUM(E213:E219*F213:F219)</f>
         <v>4.0828173380550528</v>
       </c>
       <c r="K213" s="11"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="212"/>
-      <c r="B214" s="222"/>
-      <c r="C214" s="224"/>
+      <c r="A214" s="239"/>
+      <c r="B214" s="223"/>
+      <c r="C214" s="222"/>
       <c r="D214" s="1" t="s">
         <v>140</v>
       </c>
@@ -36878,13 +36862,13 @@
         <f t="shared" si="3"/>
         <v>0.1982508939938715</v>
       </c>
-      <c r="I214" s="238"/>
+      <c r="I214" s="218"/>
       <c r="K214" s="11"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="212"/>
-      <c r="B215" s="222"/>
-      <c r="C215" s="224"/>
+      <c r="A215" s="239"/>
+      <c r="B215" s="223"/>
+      <c r="C215" s="222"/>
       <c r="D215" s="1" t="s">
         <v>144</v>
       </c>
@@ -36904,13 +36888,13 @@
         <f t="shared" si="3"/>
         <v>0.19295404358201954</v>
       </c>
-      <c r="I215" s="238"/>
+      <c r="I215" s="218"/>
       <c r="K215" s="11"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="212"/>
-      <c r="B216" s="222"/>
-      <c r="C216" s="224"/>
+      <c r="A216" s="239"/>
+      <c r="B216" s="223"/>
+      <c r="C216" s="222"/>
       <c r="D216" s="1" t="s">
         <v>119</v>
       </c>
@@ -36930,13 +36914,13 @@
         <f>G216*E216</f>
         <v>0.23265603460771092</v>
       </c>
-      <c r="I216" s="238"/>
+      <c r="I216" s="218"/>
       <c r="K216" s="11"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="212"/>
-      <c r="B217" s="222"/>
-      <c r="C217" s="224"/>
+      <c r="A217" s="239"/>
+      <c r="B217" s="223"/>
+      <c r="C217" s="222"/>
       <c r="D217" s="1" t="s">
         <v>513</v>
       </c>
@@ -36956,13 +36940,13 @@
         <f t="shared" ref="H217:H219" si="12">G217*E217</f>
         <v>0.16826924664705051</v>
       </c>
-      <c r="I217" s="238"/>
+      <c r="I217" s="218"/>
       <c r="K217" s="11"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="212"/>
-      <c r="B218" s="222"/>
-      <c r="C218" s="224"/>
+      <c r="A218" s="239"/>
+      <c r="B218" s="223"/>
+      <c r="C218" s="222"/>
       <c r="D218" s="1" t="s">
         <v>514</v>
       </c>
@@ -36982,13 +36966,13 @@
         <f t="shared" si="12"/>
         <v>7.2362431922018605E-2</v>
       </c>
-      <c r="I218" s="238"/>
+      <c r="I218" s="218"/>
       <c r="K218" s="11"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="212"/>
-      <c r="B219" s="222"/>
-      <c r="C219" s="224"/>
+      <c r="A219" s="239"/>
+      <c r="B219" s="223"/>
+      <c r="C219" s="222"/>
       <c r="D219" s="1" t="s">
         <v>515</v>
       </c>
@@ -37008,7 +36992,7 @@
         <f t="shared" si="12"/>
         <v>7.5631795143533617E-2</v>
       </c>
-      <c r="I219" s="228"/>
+      <c r="I219" s="224"/>
       <c r="K219" s="11"/>
     </row>
     <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -37136,12 +37120,12 @@
       <c r="F229" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="G229" s="232" t="s">
+      <c r="G229" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="H229" s="232"/>
-      <c r="I229" s="232"/>
-      <c r="J229" s="232"/>
+      <c r="H229" s="212"/>
+      <c r="I229" s="212"/>
+      <c r="J229" s="212"/>
       <c r="K229" s="75" t="s">
         <v>277</v>
       </c>
@@ -37554,11 +37538,11 @@
       <c r="E243" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="F243" s="232" t="s">
+      <c r="F243" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="G243" s="232"/>
-      <c r="H243" s="232"/>
+      <c r="G243" s="212"/>
+      <c r="H243" s="212"/>
       <c r="I243" s="75" t="s">
         <v>277</v>
       </c>
@@ -37880,13 +37864,13 @@
       <c r="G256" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H256" s="239" t="s">
+      <c r="H256" s="219" t="s">
         <v>276</v>
       </c>
-      <c r="I256" s="240"/>
-      <c r="J256" s="240"/>
-      <c r="K256" s="240"/>
-      <c r="L256" s="241"/>
+      <c r="I256" s="220"/>
+      <c r="J256" s="220"/>
+      <c r="K256" s="220"/>
+      <c r="L256" s="221"/>
       <c r="M256" s="75" t="s">
         <v>277</v>
       </c>
@@ -38395,10 +38379,10 @@
       <c r="D272" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="E272" s="239" t="s">
+      <c r="E272" s="219" t="s">
         <v>276</v>
       </c>
-      <c r="F272" s="240"/>
+      <c r="F272" s="220"/>
       <c r="G272" s="75" t="s">
         <v>277</v>
       </c>
@@ -38710,17 +38694,17 @@
       <c r="K285" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="L285" s="232" t="s">
+      <c r="L285" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="M285" s="232"/>
-      <c r="N285" s="232"/>
-      <c r="O285" s="232"/>
-      <c r="P285" s="232"/>
-      <c r="Q285" s="232"/>
-      <c r="R285" s="232"/>
-      <c r="S285" s="232"/>
-      <c r="T285" s="232"/>
+      <c r="M285" s="212"/>
+      <c r="N285" s="212"/>
+      <c r="O285" s="212"/>
+      <c r="P285" s="212"/>
+      <c r="Q285" s="212"/>
+      <c r="R285" s="212"/>
+      <c r="S285" s="212"/>
+      <c r="T285" s="212"/>
       <c r="U285" s="75" t="s">
         <v>277</v>
       </c>
@@ -39785,15 +39769,15 @@
       <c r="I305" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="J305" s="239" t="s">
+      <c r="J305" s="219" t="s">
         <v>276</v>
       </c>
-      <c r="K305" s="240"/>
-      <c r="L305" s="240"/>
-      <c r="M305" s="240"/>
-      <c r="N305" s="240"/>
-      <c r="O305" s="240"/>
-      <c r="P305" s="241"/>
+      <c r="K305" s="220"/>
+      <c r="L305" s="220"/>
+      <c r="M305" s="220"/>
+      <c r="N305" s="220"/>
+      <c r="O305" s="220"/>
+      <c r="P305" s="221"/>
       <c r="Q305" s="75" t="s">
         <v>277</v>
       </c>
@@ -40949,15 +40933,15 @@
       <c r="I338" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="J338" s="239" t="s">
+      <c r="J338" s="219" t="s">
         <v>276</v>
       </c>
-      <c r="K338" s="240"/>
-      <c r="L338" s="240"/>
-      <c r="M338" s="240"/>
-      <c r="N338" s="240"/>
-      <c r="O338" s="240"/>
-      <c r="P338" s="241"/>
+      <c r="K338" s="220"/>
+      <c r="L338" s="220"/>
+      <c r="M338" s="220"/>
+      <c r="N338" s="220"/>
+      <c r="O338" s="220"/>
+      <c r="P338" s="221"/>
       <c r="Q338" s="75" t="s">
         <v>277</v>
       </c>
@@ -41699,13 +41683,13 @@
       <c r="G356" s="72" t="s">
         <v>370</v>
       </c>
-      <c r="H356" s="232" t="s">
+      <c r="H356" s="212" t="s">
         <v>276</v>
       </c>
-      <c r="I356" s="232"/>
-      <c r="J356" s="232"/>
-      <c r="K356" s="232"/>
-      <c r="L356" s="232"/>
+      <c r="I356" s="212"/>
+      <c r="J356" s="212"/>
+      <c r="K356" s="212"/>
+      <c r="L356" s="212"/>
       <c r="M356" s="75" t="s">
         <v>277</v>
       </c>
@@ -42103,6 +42087,37 @@
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A179:A199"/>
+    <mergeCell ref="A202:A219"/>
+    <mergeCell ref="H63:N64"/>
+    <mergeCell ref="H84:N84"/>
+    <mergeCell ref="B186:B194"/>
+    <mergeCell ref="B202:B208"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="C186:C194"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="I186:I194"/>
+    <mergeCell ref="I202:I208"/>
+    <mergeCell ref="I209:I212"/>
+    <mergeCell ref="C209:C212"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H103:N104"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="I179:I183"/>
+    <mergeCell ref="I184:I185"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B11:B16"/>
     <mergeCell ref="H356:L356"/>
     <mergeCell ref="B195:B199"/>
     <mergeCell ref="C195:C199"/>
@@ -42117,37 +42132,6 @@
     <mergeCell ref="F243:H243"/>
     <mergeCell ref="I213:I219"/>
     <mergeCell ref="J305:P305"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H103:N104"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="I179:I183"/>
-    <mergeCell ref="I184:I185"/>
-    <mergeCell ref="A179:A199"/>
-    <mergeCell ref="A202:A219"/>
-    <mergeCell ref="H63:N64"/>
-    <mergeCell ref="H84:N84"/>
-    <mergeCell ref="B186:B194"/>
-    <mergeCell ref="B202:B208"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="C186:C194"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="I186:I194"/>
-    <mergeCell ref="I202:I208"/>
-    <mergeCell ref="I209:I212"/>
-    <mergeCell ref="C209:C212"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42217,8 +42201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B55847A-8B51-4EA0-B2F1-2F7149944867}">
   <dimension ref="A1:U870"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A278" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
-      <selection activeCell="F284" sqref="F284:G304"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="89" zoomScaleNormal="100" zoomScaleSheetLayoutView="89" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42236,20 +42220,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="274" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="295"/>
+      <c r="B1" s="275"/>
+      <c r="C1" s="275"/>
+      <c r="D1" s="275"/>
+      <c r="E1" s="275"/>
+      <c r="F1" s="276"/>
       <c r="G1" s="106" t="s">
         <v>305</v>
       </c>
       <c r="H1" s="98">
         <f ca="1">TODAY()</f>
-        <v>45867</v>
+        <v>45887</v>
       </c>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
@@ -42312,19 +42296,19 @@
       <c r="U3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="256" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306" t="str">
+      <c r="B4" s="253"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253" t="str">
         <f>'Informe Previo'!D4</f>
         <v>Kahoot</v>
       </c>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="310"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="254"/>
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
       <c r="K4" s="95"/>
@@ -42340,17 +42324,17 @@
       <c r="U4" s="95"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="252" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="297"/>
-      <c r="C5" s="297"/>
+      <c r="B5" s="245"/>
+      <c r="C5" s="245"/>
       <c r="D5" s="105" t="str">
         <f>'Informe Previo'!D5</f>
         <v>2023-11-23</v>
       </c>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
       <c r="H5" s="99"/>
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
@@ -42367,19 +42351,19 @@
       <c r="U5" s="95"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="296" t="s">
+      <c r="A6" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="297"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297" t="str">
+      <c r="B6" s="245"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="245">
         <f>'Informe Previo'!D10</f>
-        <v>ETSI (Escuela Técnica Superior de Ingeniería de Sevilla)</v>
-      </c>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="297"/>
-      <c r="H6" s="298"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="255"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
       <c r="K6" s="95"/>
@@ -42395,19 +42379,19 @@
       <c r="U6" s="95"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="296" t="s">
+      <c r="A7" s="252" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="297"/>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297" t="str">
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245" t="str">
         <f>'Informe Previo'!D11&amp;" "&amp;'Informe Previo'!D12</f>
-        <v>1º MITT (Master Ingenieria Telecomunicaciones)</v>
-      </c>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="298"/>
+        <v xml:space="preserve">1º </v>
+      </c>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="255"/>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
@@ -42423,19 +42407,19 @@
       <c r="U7" s="95"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="314" t="s">
+      <c r="A8" s="260" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="307"/>
-      <c r="C8" s="307"/>
-      <c r="D8" s="307" t="str">
+      <c r="B8" s="261"/>
+      <c r="C8" s="261"/>
+      <c r="D8" s="261" t="str">
         <f>'Informe Previo'!D13</f>
         <v>Integración de servicios y sistemas</v>
       </c>
-      <c r="E8" s="307"/>
-      <c r="F8" s="307"/>
-      <c r="G8" s="307"/>
-      <c r="H8" s="308"/>
+      <c r="E8" s="261"/>
+      <c r="F8" s="261"/>
+      <c r="G8" s="261"/>
+      <c r="H8" s="262"/>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
@@ -42451,18 +42435,16 @@
       <c r="U8" s="95"/>
     </row>
     <row r="9" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="315" t="s">
+      <c r="A9" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="316"/>
-      <c r="C9" s="316"/>
-      <c r="D9" s="317" t="s">
-        <v>673</v>
-      </c>
-      <c r="E9" s="317"/>
-      <c r="F9" s="317"/>
-      <c r="G9" s="317"/>
-      <c r="H9" s="318"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="266"/>
       <c r="I9" s="95"/>
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
@@ -42478,18 +42460,16 @@
       <c r="U9" s="95"/>
     </row>
     <row r="10" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="319" t="s">
+      <c r="A10" s="267" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="320"/>
-      <c r="C10" s="320"/>
-      <c r="D10" s="253" t="s">
-        <v>674</v>
-      </c>
-      <c r="E10" s="253"/>
-      <c r="F10" s="253"/>
-      <c r="G10" s="253"/>
-      <c r="H10" s="254"/>
+      <c r="B10" s="268"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="269"/>
+      <c r="E10" s="269"/>
+      <c r="F10" s="269"/>
+      <c r="G10" s="269"/>
+      <c r="H10" s="270"/>
       <c r="I10" s="95"/>
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
@@ -42505,14 +42485,14 @@
       <c r="U10" s="95"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="297"/>
-      <c r="B11" s="297"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="297"/>
-      <c r="G11" s="297"/>
-      <c r="H11" s="297"/>
+      <c r="A11" s="245"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="245"/>
+      <c r="F11" s="245"/>
+      <c r="G11" s="245"/>
+      <c r="H11" s="245"/>
       <c r="I11" s="95"/>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
@@ -42553,19 +42533,19 @@
       <c r="U12" s="95"/>
     </row>
     <row r="13" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="278" t="s">
+      <c r="A13" s="271" t="s">
         <v>623</v>
       </c>
-      <c r="B13" s="279"/>
+      <c r="B13" s="272"/>
       <c r="C13" s="101" t="str">
         <f>'Informe Previo'!D6</f>
         <v>Un día</v>
       </c>
       <c r="D13" s="101"/>
-      <c r="E13" s="278" t="s">
+      <c r="E13" s="271" t="s">
         <v>621</v>
       </c>
-      <c r="F13" s="279"/>
+      <c r="F13" s="272"/>
       <c r="G13" s="101">
         <f>'Informe Previo'!D7</f>
         <v>1</v>
@@ -42595,10 +42575,10 @@
         <v>Sí, de 0.1 a 0.3 décimas en el examen.</v>
       </c>
       <c r="D14" s="176"/>
-      <c r="E14" s="280" t="s">
+      <c r="E14" s="284" t="s">
         <v>620</v>
       </c>
-      <c r="F14" s="281"/>
+      <c r="F14" s="285"/>
       <c r="G14" s="176" t="str">
         <f>'Informe Previo'!D8</f>
         <v>10 min</v>
@@ -42690,19 +42670,19 @@
       <c r="U17" s="95"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="309" t="s">
+      <c r="A18" s="256" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="306"/>
-      <c r="C18" s="306"/>
-      <c r="D18" s="306" t="str">
+      <c r="B18" s="253"/>
+      <c r="C18" s="253"/>
+      <c r="D18" s="253" t="str">
         <f>'Informe Previo'!D20</f>
         <v/>
       </c>
-      <c r="E18" s="306"/>
-      <c r="F18" s="306"/>
-      <c r="G18" s="306"/>
-      <c r="H18" s="310"/>
+      <c r="E18" s="253"/>
+      <c r="F18" s="253"/>
+      <c r="G18" s="253"/>
+      <c r="H18" s="254"/>
       <c r="I18" s="95"/>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
@@ -42718,19 +42698,19 @@
       <c r="U18" s="95"/>
     </row>
     <row r="19" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="311" t="s">
+      <c r="A19" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="312"/>
-      <c r="C19" s="312"/>
-      <c r="D19" s="304" t="str">
+      <c r="B19" s="258"/>
+      <c r="C19" s="258"/>
+      <c r="D19" s="250" t="str">
         <f>'Informe Previo'!D19</f>
         <v>Algunos alumnos no han cursado asignaturas similares en años previos</v>
       </c>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
-      <c r="G19" s="304"/>
-      <c r="H19" s="313"/>
+      <c r="E19" s="250"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
+      <c r="H19" s="259"/>
       <c r="I19" s="95"/>
       <c r="J19" s="95"/>
       <c r="K19" s="95"/>
@@ -42746,13 +42726,13 @@
       <c r="U19" s="95"/>
     </row>
     <row r="20" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="278" t="s">
+      <c r="A20" s="271" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="272" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="279" t="s">
+      <c r="C20" s="272" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="101">
@@ -42760,8 +42740,8 @@
         <v>0</v>
       </c>
       <c r="E20" s="103"/>
-      <c r="F20" s="306"/>
-      <c r="G20" s="306"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="253"/>
       <c r="H20" s="102"/>
       <c r="I20" s="95"/>
       <c r="J20" s="95"/>
@@ -42778,23 +42758,23 @@
       <c r="U20" s="95"/>
     </row>
     <row r="21" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="280" t="s">
+      <c r="A21" s="284" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="281" t="s">
+      <c r="B21" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="281" t="s">
+      <c r="C21" s="285" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="307">
+      <c r="D21" s="261">
         <f>'Informe Previo'!D18</f>
         <v>0</v>
       </c>
-      <c r="E21" s="307"/>
-      <c r="F21" s="307"/>
-      <c r="G21" s="307"/>
-      <c r="H21" s="308"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="261"/>
+      <c r="H21" s="262"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
       <c r="K21" s="95"/>
@@ -42810,13 +42790,13 @@
       <c r="U21" s="95"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="278" t="s">
+      <c r="A22" s="271" t="s">
         <v>311</v>
       </c>
-      <c r="B22" s="279" t="s">
+      <c r="B22" s="272" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="279" t="s">
+      <c r="C22" s="272" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="247" t="str">
@@ -42870,23 +42850,23 @@
       <c r="U23" s="95"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="303" t="s">
+      <c r="A24" s="249" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="304" t="s">
+      <c r="B24" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="304" t="s">
+      <c r="C24" s="250" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="250" t="str">
+      <c r="D24" s="281" t="str">
         <f>IF('Informe Previo'!D24&lt;&gt;"",'Informe Previo'!D24&amp;" h de trabajo en casa/semana","Sin especificar")</f>
         <v>Sin especificar</v>
       </c>
-      <c r="E24" s="250"/>
-      <c r="F24" s="250"/>
-      <c r="G24" s="250"/>
-      <c r="H24" s="251"/>
+      <c r="E24" s="281"/>
+      <c r="F24" s="281"/>
+      <c r="G24" s="281"/>
+      <c r="H24" s="282"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
       <c r="K24" s="95"/>
@@ -42902,23 +42882,23 @@
       <c r="U24" s="95"/>
     </row>
     <row r="25" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="303" t="s">
+      <c r="A25" s="249" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="304" t="s">
+      <c r="B25" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="304" t="s">
+      <c r="C25" s="250" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="250" t="str">
+      <c r="D25" s="281" t="str">
         <f>'Informe Previo'!D25</f>
         <v/>
       </c>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="251"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="282"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
@@ -42934,19 +42914,19 @@
       <c r="U25" s="95"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="296" t="s">
+      <c r="A26" s="252" t="s">
         <v>625</v>
       </c>
-      <c r="B26" s="297"/>
-      <c r="C26" s="297"/>
-      <c r="D26" s="305">
+      <c r="B26" s="245"/>
+      <c r="C26" s="245"/>
+      <c r="D26" s="283">
         <f>'Informe Previo'!D26</f>
         <v>1</v>
       </c>
-      <c r="E26" s="297"/>
-      <c r="F26" s="297"/>
-      <c r="G26" s="297"/>
-      <c r="H26" s="298"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="255"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
       <c r="K26" s="95"/>
@@ -42962,19 +42942,19 @@
       <c r="U26" s="95"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="296" t="s">
+      <c r="A27" s="252" t="s">
         <v>626</v>
       </c>
-      <c r="B27" s="297"/>
-      <c r="C27" s="297"/>
-      <c r="D27" s="297">
+      <c r="B27" s="245"/>
+      <c r="C27" s="245"/>
+      <c r="D27" s="245">
         <f>'Informe Previo'!D27</f>
         <v>8</v>
       </c>
-      <c r="E27" s="297"/>
-      <c r="F27" s="297"/>
-      <c r="G27" s="297"/>
-      <c r="H27" s="298"/>
+      <c r="E27" s="245"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="245"/>
+      <c r="H27" s="255"/>
       <c r="I27" s="95"/>
       <c r="J27" s="95"/>
       <c r="K27" s="95"/>
@@ -42990,19 +42970,19 @@
       <c r="U27" s="95"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="314" t="s">
+      <c r="A28" s="260" t="s">
         <v>627</v>
       </c>
-      <c r="B28" s="307"/>
-      <c r="C28" s="307"/>
-      <c r="D28" s="307">
+      <c r="B28" s="261"/>
+      <c r="C28" s="261"/>
+      <c r="D28" s="261">
         <f>'Informe Previo'!D29</f>
         <v>8</v>
       </c>
-      <c r="E28" s="307"/>
-      <c r="F28" s="307"/>
-      <c r="G28" s="307"/>
-      <c r="H28" s="308"/>
+      <c r="E28" s="261"/>
+      <c r="F28" s="261"/>
+      <c r="G28" s="261"/>
+      <c r="H28" s="262"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
       <c r="K28" s="95"/>
@@ -43018,14 +42998,14 @@
       <c r="U28" s="95"/>
     </row>
     <row r="29" spans="1:21" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="297"/>
-      <c r="B29" s="297"/>
-      <c r="C29" s="297"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="297"/>
-      <c r="F29" s="297"/>
-      <c r="G29" s="297"/>
-      <c r="H29" s="297"/>
+      <c r="A29" s="245"/>
+      <c r="B29" s="245"/>
+      <c r="C29" s="245"/>
+      <c r="D29" s="245"/>
+      <c r="E29" s="245"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="245"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
@@ -43220,18 +43200,18 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
-      <c r="B37" s="299" t="s">
+      <c r="B37" s="277" t="s">
         <v>318</v>
       </c>
-      <c r="C37" s="299"/>
-      <c r="D37" s="300" t="s">
+      <c r="C37" s="277"/>
+      <c r="D37" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="E37" s="300"/>
-      <c r="F37" s="300" t="s">
+      <c r="E37" s="278"/>
+      <c r="F37" s="278" t="s">
         <v>315</v>
       </c>
-      <c r="G37" s="300"/>
+      <c r="G37" s="278"/>
       <c r="H37" s="111"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -43249,8 +43229,8 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
+      <c r="B38" s="277"/>
+      <c r="C38" s="277"/>
       <c r="D38" s="115" t="s">
         <v>47</v>
       </c>
@@ -43280,10 +43260,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
-      <c r="B39" s="301" t="s">
+      <c r="B39" s="279" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="301"/>
+      <c r="C39" s="279"/>
       <c r="D39" s="117" t="str">
         <f>IF(D33="No","N/A",Cálculos!E4)</f>
         <v>N/A</v>
@@ -43317,10 +43297,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
-      <c r="B40" s="301" t="s">
+      <c r="B40" s="279" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="301"/>
+      <c r="C40" s="279"/>
       <c r="D40" s="117" t="str">
         <f>IF(D33="No","N/A",Cálculos!E7)</f>
         <v>N/A</v>
@@ -43377,18 +43357,18 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="299" t="s">
+      <c r="B42" s="277" t="s">
         <v>319</v>
       </c>
-      <c r="C42" s="299"/>
-      <c r="D42" s="300" t="s">
+      <c r="C42" s="277"/>
+      <c r="D42" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="E42" s="300"/>
-      <c r="F42" s="300" t="s">
+      <c r="E42" s="278"/>
+      <c r="F42" s="278" t="s">
         <v>315</v>
       </c>
-      <c r="G42" s="300"/>
+      <c r="G42" s="278"/>
       <c r="H42" s="111"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
@@ -43406,8 +43386,8 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
+      <c r="B43" s="277"/>
+      <c r="C43" s="277"/>
       <c r="D43" s="116" t="s">
         <v>53</v>
       </c>
@@ -43437,7 +43417,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
-      <c r="B44" s="302" t="s">
+      <c r="B44" s="280" t="s">
         <v>316</v>
       </c>
       <c r="C44" s="116" t="s">
@@ -43474,7 +43454,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
-      <c r="B45" s="302"/>
+      <c r="B45" s="280"/>
       <c r="C45" s="116" t="s">
         <v>54</v>
       </c>
@@ -43509,7 +43489,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
-      <c r="B46" s="322" t="s">
+      <c r="B46" s="246" t="s">
         <v>315</v>
       </c>
       <c r="C46" s="116" t="s">
@@ -43546,7 +43526,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
-      <c r="B47" s="322"/>
+      <c r="B47" s="246"/>
       <c r="C47" s="116" t="s">
         <v>54</v>
       </c>
@@ -44066,15 +44046,15 @@
       <c r="U68" s="95"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="321" t="str">
+      <c r="A69" s="273" t="str">
         <f>Cálculos!B111</f>
         <v>Pregunta</v>
       </c>
-      <c r="B69" s="321"/>
-      <c r="C69" s="321"/>
-      <c r="D69" s="321"/>
-      <c r="E69" s="321"/>
-      <c r="F69" s="321"/>
+      <c r="B69" s="273"/>
+      <c r="C69" s="273"/>
+      <c r="D69" s="273"/>
+      <c r="E69" s="273"/>
+      <c r="F69" s="273"/>
       <c r="G69" s="118" t="str">
         <f>Cálculos!C111</f>
         <v>Media</v>
@@ -44101,13 +44081,13 @@
       <c r="A70" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="282" t="s">
+      <c r="B70" s="251" t="s">
         <v>489</v>
       </c>
-      <c r="C70" s="282"/>
-      <c r="D70" s="282"/>
-      <c r="E70" s="282"/>
-      <c r="F70" s="282"/>
+      <c r="C70" s="251"/>
+      <c r="D70" s="251"/>
+      <c r="E70" s="251"/>
+      <c r="F70" s="251"/>
       <c r="G70" s="120">
         <f>Cálculos!C112</f>
         <v>22.5</v>
@@ -44134,15 +44114,15 @@
       <c r="A71" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="283" t="s">
+      <c r="B71" s="290" t="s">
         <v>490</v>
       </c>
-      <c r="C71" s="284"/>
-      <c r="D71" s="284"/>
-      <c r="E71" s="284"/>
-      <c r="F71" s="284"/>
-      <c r="G71" s="284"/>
-      <c r="H71" s="285"/>
+      <c r="C71" s="291"/>
+      <c r="D71" s="291"/>
+      <c r="E71" s="291"/>
+      <c r="F71" s="291"/>
+      <c r="G71" s="291"/>
+      <c r="H71" s="292"/>
       <c r="I71" s="95"/>
       <c r="J71" s="95"/>
       <c r="K71" s="95"/>
@@ -44158,17 +44138,17 @@
       <c r="U71" s="95"/>
     </row>
     <row r="72" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="286" t="str">
+      <c r="A72" s="287" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D6:CY6)</f>
         <v>Española   //   Española   //   Española   //   Española</v>
       </c>
-      <c r="B72" s="287"/>
-      <c r="C72" s="287"/>
-      <c r="D72" s="287"/>
-      <c r="E72" s="287"/>
-      <c r="F72" s="287"/>
-      <c r="G72" s="287"/>
-      <c r="H72" s="288"/>
+      <c r="B72" s="288"/>
+      <c r="C72" s="288"/>
+      <c r="D72" s="288"/>
+      <c r="E72" s="288"/>
+      <c r="F72" s="288"/>
+      <c r="G72" s="288"/>
+      <c r="H72" s="289"/>
       <c r="I72" s="95"/>
       <c r="J72" s="95"/>
       <c r="K72" s="95"/>
@@ -44187,18 +44167,18 @@
       <c r="A73" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="283" t="s">
+      <c r="B73" s="290" t="s">
         <v>491</v>
       </c>
-      <c r="C73" s="284"/>
-      <c r="D73" s="284"/>
-      <c r="E73" s="284"/>
-      <c r="F73" s="284"/>
-      <c r="G73" s="284" t="str">
+      <c r="C73" s="291"/>
+      <c r="D73" s="291"/>
+      <c r="E73" s="291"/>
+      <c r="F73" s="291"/>
+      <c r="G73" s="291" t="str">
         <f>Cálculos!C114</f>
         <v>N/A</v>
       </c>
-      <c r="H73" s="285" t="str">
+      <c r="H73" s="292" t="str">
         <f>Cálculos!D114</f>
         <v>N/A</v>
       </c>
@@ -44217,17 +44197,17 @@
       <c r="U73" s="95"/>
     </row>
     <row r="74" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="286" t="str">
+      <c r="A74" s="287" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D7:CY7)</f>
         <v>Masculino   //   masculino   //   Masculino   //   Masculino</v>
       </c>
-      <c r="B74" s="287"/>
-      <c r="C74" s="287"/>
-      <c r="D74" s="287"/>
-      <c r="E74" s="287"/>
-      <c r="F74" s="287"/>
-      <c r="G74" s="287"/>
-      <c r="H74" s="288"/>
+      <c r="B74" s="288"/>
+      <c r="C74" s="288"/>
+      <c r="D74" s="288"/>
+      <c r="E74" s="288"/>
+      <c r="F74" s="288"/>
+      <c r="G74" s="288"/>
+      <c r="H74" s="289"/>
       <c r="I74" s="95"/>
       <c r="J74" s="95"/>
       <c r="K74" s="95"/>
@@ -44246,18 +44226,18 @@
       <c r="A75" s="183" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="283" t="s">
+      <c r="B75" s="290" t="s">
         <v>377</v>
       </c>
-      <c r="C75" s="284"/>
-      <c r="D75" s="284"/>
-      <c r="E75" s="284"/>
-      <c r="F75" s="284"/>
-      <c r="G75" s="284" t="str">
+      <c r="C75" s="291"/>
+      <c r="D75" s="291"/>
+      <c r="E75" s="291"/>
+      <c r="F75" s="291"/>
+      <c r="G75" s="291" t="str">
         <f>Cálculos!C115</f>
         <v>N/A</v>
       </c>
-      <c r="H75" s="285" t="str">
+      <c r="H75" s="292" t="str">
         <f>Cálculos!D115</f>
         <v>N/A</v>
       </c>
@@ -44276,17 +44256,17 @@
       <c r="U75" s="95"/>
     </row>
     <row r="76" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="286" t="str">
+      <c r="A76" s="287" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D8:CY8)</f>
         <v xml:space="preserve">1º MUIT   //   1o master   //   Primero de Máster   //   1º Master </v>
       </c>
-      <c r="B76" s="287"/>
-      <c r="C76" s="287"/>
-      <c r="D76" s="287"/>
-      <c r="E76" s="287"/>
-      <c r="F76" s="287"/>
-      <c r="G76" s="287"/>
-      <c r="H76" s="288"/>
+      <c r="B76" s="288"/>
+      <c r="C76" s="288"/>
+      <c r="D76" s="288"/>
+      <c r="E76" s="288"/>
+      <c r="F76" s="288"/>
+      <c r="G76" s="288"/>
+      <c r="H76" s="289"/>
       <c r="I76" s="95"/>
       <c r="J76" s="95"/>
       <c r="K76" s="95"/>
@@ -44305,13 +44285,13 @@
       <c r="A77" s="183" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="282" t="s">
+      <c r="B77" s="251" t="s">
         <v>492</v>
       </c>
-      <c r="C77" s="282"/>
-      <c r="D77" s="282"/>
-      <c r="E77" s="282"/>
-      <c r="F77" s="282"/>
+      <c r="C77" s="251"/>
+      <c r="D77" s="251"/>
+      <c r="E77" s="251"/>
+      <c r="F77" s="251"/>
       <c r="G77" s="120">
         <f>Cálculos!C116</f>
         <v>4.25</v>
@@ -44338,13 +44318,13 @@
       <c r="A78" s="183" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="282" t="s">
+      <c r="B78" s="251" t="s">
         <v>322</v>
       </c>
-      <c r="C78" s="282"/>
-      <c r="D78" s="282"/>
-      <c r="E78" s="282"/>
-      <c r="F78" s="282"/>
+      <c r="C78" s="251"/>
+      <c r="D78" s="251"/>
+      <c r="E78" s="251"/>
+      <c r="F78" s="251"/>
       <c r="G78" s="120">
         <f>Cálculos!C117</f>
         <v>4.5</v>
@@ -44371,13 +44351,13 @@
       <c r="A79" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="282" t="s">
+      <c r="B79" s="251" t="s">
         <v>323</v>
       </c>
-      <c r="C79" s="282"/>
-      <c r="D79" s="282"/>
-      <c r="E79" s="282"/>
-      <c r="F79" s="282"/>
+      <c r="C79" s="251"/>
+      <c r="D79" s="251"/>
+      <c r="E79" s="251"/>
+      <c r="F79" s="251"/>
       <c r="G79" s="120">
         <f>Cálculos!C118</f>
         <v>4.25</v>
@@ -44404,13 +44384,13 @@
       <c r="A80" s="183" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="282" t="s">
+      <c r="B80" s="251" t="s">
         <v>543</v>
       </c>
-      <c r="C80" s="282"/>
-      <c r="D80" s="282"/>
-      <c r="E80" s="282"/>
-      <c r="F80" s="282"/>
+      <c r="C80" s="251"/>
+      <c r="D80" s="251"/>
+      <c r="E80" s="251"/>
+      <c r="F80" s="251"/>
       <c r="G80" s="120">
         <f>Cálculos!C119</f>
         <v>4.5</v>
@@ -44437,13 +44417,13 @@
       <c r="A81" s="183" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="282" t="s">
+      <c r="B81" s="251" t="s">
         <v>544</v>
       </c>
-      <c r="C81" s="282"/>
-      <c r="D81" s="282"/>
-      <c r="E81" s="282"/>
-      <c r="F81" s="282"/>
+      <c r="C81" s="251"/>
+      <c r="D81" s="251"/>
+      <c r="E81" s="251"/>
+      <c r="F81" s="251"/>
       <c r="G81" s="120">
         <f>Cálculos!C120</f>
         <v>4.5</v>
@@ -44470,13 +44450,13 @@
       <c r="A82" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="282" t="s">
+      <c r="B82" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="C82" s="282"/>
-      <c r="D82" s="282"/>
-      <c r="E82" s="282"/>
-      <c r="F82" s="282"/>
+      <c r="C82" s="251"/>
+      <c r="D82" s="251"/>
+      <c r="E82" s="251"/>
+      <c r="F82" s="251"/>
       <c r="G82" s="120">
         <f>Cálculos!C121</f>
         <v>4.75</v>
@@ -44503,13 +44483,13 @@
       <c r="A83" s="183" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="282" t="s">
+      <c r="B83" s="251" t="s">
         <v>325</v>
       </c>
-      <c r="C83" s="282"/>
-      <c r="D83" s="282"/>
-      <c r="E83" s="282"/>
-      <c r="F83" s="282"/>
+      <c r="C83" s="251"/>
+      <c r="D83" s="251"/>
+      <c r="E83" s="251"/>
+      <c r="F83" s="251"/>
       <c r="G83" s="120">
         <f>Cálculos!C122</f>
         <v>5</v>
@@ -44536,13 +44516,13 @@
       <c r="A84" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="282" t="s">
+      <c r="B84" s="251" t="s">
         <v>545</v>
       </c>
-      <c r="C84" s="282"/>
-      <c r="D84" s="282"/>
-      <c r="E84" s="282"/>
-      <c r="F84" s="282"/>
+      <c r="C84" s="251"/>
+      <c r="D84" s="251"/>
+      <c r="E84" s="251"/>
+      <c r="F84" s="251"/>
       <c r="G84" s="120">
         <f>Cálculos!C123</f>
         <v>4</v>
@@ -44569,13 +44549,13 @@
       <c r="A85" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="282" t="s">
+      <c r="B85" s="251" t="s">
         <v>326</v>
       </c>
-      <c r="C85" s="282"/>
-      <c r="D85" s="282"/>
-      <c r="E85" s="282"/>
-      <c r="F85" s="282"/>
+      <c r="C85" s="251"/>
+      <c r="D85" s="251"/>
+      <c r="E85" s="251"/>
+      <c r="F85" s="251"/>
       <c r="G85" s="120">
         <f>Cálculos!C124</f>
         <v>4.5</v>
@@ -44602,13 +44582,13 @@
       <c r="A86" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="282" t="s">
+      <c r="B86" s="251" t="s">
         <v>327</v>
       </c>
-      <c r="C86" s="282"/>
-      <c r="D86" s="282"/>
-      <c r="E86" s="282"/>
-      <c r="F86" s="282"/>
+      <c r="C86" s="251"/>
+      <c r="D86" s="251"/>
+      <c r="E86" s="251"/>
+      <c r="F86" s="251"/>
       <c r="G86" s="120">
         <f>Cálculos!C125</f>
         <v>4.5</v>
@@ -44635,13 +44615,13 @@
       <c r="A87" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="282" t="s">
+      <c r="B87" s="251" t="s">
         <v>328</v>
       </c>
-      <c r="C87" s="282"/>
-      <c r="D87" s="282"/>
-      <c r="E87" s="282"/>
-      <c r="F87" s="282"/>
+      <c r="C87" s="251"/>
+      <c r="D87" s="251"/>
+      <c r="E87" s="251"/>
+      <c r="F87" s="251"/>
       <c r="G87" s="120">
         <f>Cálculos!C126</f>
         <v>3.75</v>
@@ -44668,13 +44648,13 @@
       <c r="A88" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="282" t="s">
+      <c r="B88" s="251" t="s">
         <v>329</v>
       </c>
-      <c r="C88" s="282"/>
-      <c r="D88" s="282"/>
-      <c r="E88" s="282"/>
-      <c r="F88" s="282"/>
+      <c r="C88" s="251"/>
+      <c r="D88" s="251"/>
+      <c r="E88" s="251"/>
+      <c r="F88" s="251"/>
       <c r="G88" s="120">
         <f>Cálculos!C127</f>
         <v>4.5</v>
@@ -44701,13 +44681,13 @@
       <c r="A89" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="282" t="s">
+      <c r="B89" s="251" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="282"/>
-      <c r="D89" s="282"/>
-      <c r="E89" s="282"/>
-      <c r="F89" s="282"/>
+      <c r="C89" s="251"/>
+      <c r="D89" s="251"/>
+      <c r="E89" s="251"/>
+      <c r="F89" s="251"/>
       <c r="G89" s="120">
         <f>Cálculos!C128</f>
         <v>4.25</v>
@@ -44734,13 +44714,13 @@
       <c r="A90" s="183" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="282" t="s">
+      <c r="B90" s="251" t="s">
         <v>331</v>
       </c>
-      <c r="C90" s="282"/>
-      <c r="D90" s="282"/>
-      <c r="E90" s="282"/>
-      <c r="F90" s="282"/>
+      <c r="C90" s="251"/>
+      <c r="D90" s="251"/>
+      <c r="E90" s="251"/>
+      <c r="F90" s="251"/>
       <c r="G90" s="120">
         <f>Cálculos!C129</f>
         <v>3.25</v>
@@ -44767,13 +44747,13 @@
       <c r="A91" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="282" t="s">
+      <c r="B91" s="251" t="s">
         <v>332</v>
       </c>
-      <c r="C91" s="282"/>
-      <c r="D91" s="282"/>
-      <c r="E91" s="282"/>
-      <c r="F91" s="282"/>
+      <c r="C91" s="251"/>
+      <c r="D91" s="251"/>
+      <c r="E91" s="251"/>
+      <c r="F91" s="251"/>
       <c r="G91" s="120">
         <f>Cálculos!C130</f>
         <v>3.25</v>
@@ -44800,13 +44780,13 @@
       <c r="A92" s="183" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="282" t="s">
+      <c r="B92" s="251" t="s">
         <v>333</v>
       </c>
-      <c r="C92" s="282"/>
-      <c r="D92" s="282"/>
-      <c r="E92" s="282"/>
-      <c r="F92" s="282"/>
+      <c r="C92" s="251"/>
+      <c r="D92" s="251"/>
+      <c r="E92" s="251"/>
+      <c r="F92" s="251"/>
       <c r="G92" s="120">
         <f>Cálculos!C131</f>
         <v>4.5</v>
@@ -44833,18 +44813,18 @@
       <c r="A93" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="283" t="s">
+      <c r="B93" s="290" t="s">
         <v>546</v>
       </c>
-      <c r="C93" s="284"/>
-      <c r="D93" s="284"/>
-      <c r="E93" s="284"/>
-      <c r="F93" s="284"/>
-      <c r="G93" s="284" t="str">
+      <c r="C93" s="291"/>
+      <c r="D93" s="291"/>
+      <c r="E93" s="291"/>
+      <c r="F93" s="291"/>
+      <c r="G93" s="291" t="str">
         <f>Cálculos!C132</f>
         <v>N/A</v>
       </c>
-      <c r="H93" s="285" t="str">
+      <c r="H93" s="292" t="str">
         <f>Cálculos!D132</f>
         <v>N/A</v>
       </c>
@@ -44863,17 +44843,17 @@
       <c r="U93" s="95"/>
     </row>
     <row r="94" spans="1:21" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="286" t="str">
+      <c r="A94" s="287" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D25:CY25)</f>
         <v>mas larga   //   La duración estuvo bien.</v>
       </c>
-      <c r="B94" s="287"/>
-      <c r="C94" s="287"/>
-      <c r="D94" s="287"/>
-      <c r="E94" s="287"/>
-      <c r="F94" s="287"/>
-      <c r="G94" s="287"/>
-      <c r="H94" s="288"/>
+      <c r="B94" s="288"/>
+      <c r="C94" s="288"/>
+      <c r="D94" s="288"/>
+      <c r="E94" s="288"/>
+      <c r="F94" s="288"/>
+      <c r="G94" s="288"/>
+      <c r="H94" s="289"/>
       <c r="I94" s="95"/>
       <c r="J94" s="95"/>
       <c r="K94" s="95"/>
@@ -44892,13 +44872,13 @@
       <c r="A95" s="183" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="282" t="s">
+      <c r="B95" s="251" t="s">
         <v>334</v>
       </c>
-      <c r="C95" s="282"/>
-      <c r="D95" s="282"/>
-      <c r="E95" s="282"/>
-      <c r="F95" s="282"/>
+      <c r="C95" s="251"/>
+      <c r="D95" s="251"/>
+      <c r="E95" s="251"/>
+      <c r="F95" s="251"/>
       <c r="G95" s="120">
         <f>Cálculos!C133</f>
         <v>4.25</v>
@@ -44925,13 +44905,13 @@
       <c r="A96" s="183" t="s">
         <v>39</v>
       </c>
-      <c r="B96" s="282" t="s">
+      <c r="B96" s="251" t="s">
         <v>335</v>
       </c>
-      <c r="C96" s="282"/>
-      <c r="D96" s="282"/>
-      <c r="E96" s="282"/>
-      <c r="F96" s="282"/>
+      <c r="C96" s="251"/>
+      <c r="D96" s="251"/>
+      <c r="E96" s="251"/>
+      <c r="F96" s="251"/>
       <c r="G96" s="120">
         <f>Cálculos!C134</f>
         <v>4.5</v>
@@ -44958,13 +44938,13 @@
       <c r="A97" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="282" t="s">
+      <c r="B97" s="251" t="s">
         <v>336</v>
       </c>
-      <c r="C97" s="282"/>
-      <c r="D97" s="282"/>
-      <c r="E97" s="282"/>
-      <c r="F97" s="282"/>
+      <c r="C97" s="251"/>
+      <c r="D97" s="251"/>
+      <c r="E97" s="251"/>
+      <c r="F97" s="251"/>
       <c r="G97" s="120">
         <f>Cálculos!C135</f>
         <v>5</v>
@@ -44991,13 +44971,13 @@
       <c r="A98" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="282" t="s">
+      <c r="B98" s="251" t="s">
         <v>337</v>
       </c>
-      <c r="C98" s="282"/>
-      <c r="D98" s="282"/>
-      <c r="E98" s="282"/>
-      <c r="F98" s="282"/>
+      <c r="C98" s="251"/>
+      <c r="D98" s="251"/>
+      <c r="E98" s="251"/>
+      <c r="F98" s="251"/>
       <c r="G98" s="120">
         <f>Cálculos!C136</f>
         <v>4.5</v>
@@ -45024,13 +45004,13 @@
       <c r="A99" s="183" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="282" t="s">
+      <c r="B99" s="251" t="s">
         <v>338</v>
       </c>
-      <c r="C99" s="282"/>
-      <c r="D99" s="282"/>
-      <c r="E99" s="282"/>
-      <c r="F99" s="282"/>
+      <c r="C99" s="251"/>
+      <c r="D99" s="251"/>
+      <c r="E99" s="251"/>
+      <c r="F99" s="251"/>
       <c r="G99" s="120">
         <f>Cálculos!C137</f>
         <v>4</v>
@@ -45057,13 +45037,13 @@
       <c r="A100" s="183" t="s">
         <v>43</v>
       </c>
-      <c r="B100" s="282" t="s">
+      <c r="B100" s="251" t="s">
         <v>339</v>
       </c>
-      <c r="C100" s="282"/>
-      <c r="D100" s="282"/>
-      <c r="E100" s="282"/>
-      <c r="F100" s="282"/>
+      <c r="C100" s="251"/>
+      <c r="D100" s="251"/>
+      <c r="E100" s="251"/>
+      <c r="F100" s="251"/>
       <c r="G100" s="120">
         <f>Cálculos!C138</f>
         <v>4.5</v>
@@ -45090,13 +45070,13 @@
       <c r="A101" s="183" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="282" t="s">
+      <c r="B101" s="251" t="s">
         <v>340</v>
       </c>
-      <c r="C101" s="282"/>
-      <c r="D101" s="282"/>
-      <c r="E101" s="282"/>
-      <c r="F101" s="282"/>
+      <c r="C101" s="251"/>
+      <c r="D101" s="251"/>
+      <c r="E101" s="251"/>
+      <c r="F101" s="251"/>
       <c r="G101" s="120">
         <f>Cálculos!C139</f>
         <v>4.5</v>
@@ -45123,13 +45103,13 @@
       <c r="A102" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="B102" s="282" t="s">
+      <c r="B102" s="251" t="s">
         <v>341</v>
       </c>
-      <c r="C102" s="282"/>
-      <c r="D102" s="282"/>
-      <c r="E102" s="282"/>
-      <c r="F102" s="282"/>
+      <c r="C102" s="251"/>
+      <c r="D102" s="251"/>
+      <c r="E102" s="251"/>
+      <c r="F102" s="251"/>
       <c r="G102" s="120">
         <f>Cálculos!C140</f>
         <v>4.25</v>
@@ -45156,13 +45136,13 @@
       <c r="A103" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="282" t="s">
+      <c r="B103" s="251" t="s">
         <v>342</v>
       </c>
-      <c r="C103" s="282"/>
-      <c r="D103" s="282"/>
-      <c r="E103" s="282"/>
-      <c r="F103" s="282"/>
+      <c r="C103" s="251"/>
+      <c r="D103" s="251"/>
+      <c r="E103" s="251"/>
+      <c r="F103" s="251"/>
       <c r="G103" s="120">
         <f>Cálculos!C141</f>
         <v>4</v>
@@ -45189,13 +45169,13 @@
       <c r="A104" s="183" t="s">
         <v>366</v>
       </c>
-      <c r="B104" s="282" t="s">
+      <c r="B104" s="251" t="s">
         <v>343</v>
       </c>
-      <c r="C104" s="282"/>
-      <c r="D104" s="282"/>
-      <c r="E104" s="282"/>
-      <c r="F104" s="282"/>
+      <c r="C104" s="251"/>
+      <c r="D104" s="251"/>
+      <c r="E104" s="251"/>
+      <c r="F104" s="251"/>
       <c r="G104" s="120">
         <f>Cálculos!C142</f>
         <v>3.25</v>
@@ -45222,13 +45202,13 @@
       <c r="A105" s="183" t="s">
         <v>386</v>
       </c>
-      <c r="B105" s="282" t="s">
+      <c r="B105" s="251" t="s">
         <v>344</v>
       </c>
-      <c r="C105" s="282"/>
-      <c r="D105" s="282"/>
-      <c r="E105" s="282"/>
-      <c r="F105" s="282"/>
+      <c r="C105" s="251"/>
+      <c r="D105" s="251"/>
+      <c r="E105" s="251"/>
+      <c r="F105" s="251"/>
       <c r="G105" s="120">
         <f>Cálculos!C143</f>
         <v>3.75</v>
@@ -45255,13 +45235,13 @@
       <c r="A106" s="183" t="s">
         <v>387</v>
       </c>
-      <c r="B106" s="282" t="s">
+      <c r="B106" s="251" t="s">
         <v>345</v>
       </c>
-      <c r="C106" s="282"/>
-      <c r="D106" s="282"/>
-      <c r="E106" s="282"/>
-      <c r="F106" s="282"/>
+      <c r="C106" s="251"/>
+      <c r="D106" s="251"/>
+      <c r="E106" s="251"/>
+      <c r="F106" s="251"/>
       <c r="G106" s="120">
         <f>Cálculos!C144</f>
         <v>5</v>
@@ -45288,13 +45268,13 @@
       <c r="A107" s="183" t="s">
         <v>499</v>
       </c>
-      <c r="B107" s="282" t="s">
+      <c r="B107" s="251" t="s">
         <v>346</v>
       </c>
-      <c r="C107" s="282"/>
-      <c r="D107" s="282"/>
-      <c r="E107" s="282"/>
-      <c r="F107" s="282"/>
+      <c r="C107" s="251"/>
+      <c r="D107" s="251"/>
+      <c r="E107" s="251"/>
+      <c r="F107" s="251"/>
       <c r="G107" s="120">
         <f>Cálculos!C145</f>
         <v>4.75</v>
@@ -45321,13 +45301,13 @@
       <c r="A108" s="183" t="s">
         <v>500</v>
       </c>
-      <c r="B108" s="282" t="s">
+      <c r="B108" s="251" t="s">
         <v>347</v>
       </c>
-      <c r="C108" s="282"/>
-      <c r="D108" s="282"/>
-      <c r="E108" s="282"/>
-      <c r="F108" s="282"/>
+      <c r="C108" s="251"/>
+      <c r="D108" s="251"/>
+      <c r="E108" s="251"/>
+      <c r="F108" s="251"/>
       <c r="G108" s="120">
         <f>Cálculos!C146</f>
         <v>4.5</v>
@@ -45354,13 +45334,13 @@
       <c r="A109" s="183" t="s">
         <v>501</v>
       </c>
-      <c r="B109" s="282" t="s">
+      <c r="B109" s="251" t="s">
         <v>493</v>
       </c>
-      <c r="C109" s="282"/>
-      <c r="D109" s="282"/>
-      <c r="E109" s="282"/>
-      <c r="F109" s="282"/>
+      <c r="C109" s="251"/>
+      <c r="D109" s="251"/>
+      <c r="E109" s="251"/>
+      <c r="F109" s="251"/>
       <c r="G109" s="120">
         <f>Cálculos!C147</f>
         <v>3.75</v>
@@ -45387,18 +45367,18 @@
       <c r="A110" s="183" t="s">
         <v>502</v>
       </c>
-      <c r="B110" s="283" t="s">
+      <c r="B110" s="290" t="s">
         <v>547</v>
       </c>
-      <c r="C110" s="284"/>
-      <c r="D110" s="284"/>
-      <c r="E110" s="284"/>
-      <c r="F110" s="284"/>
-      <c r="G110" s="284" t="str">
+      <c r="C110" s="291"/>
+      <c r="D110" s="291"/>
+      <c r="E110" s="291"/>
+      <c r="F110" s="291"/>
+      <c r="G110" s="291" t="str">
         <f>Cálculos!C148</f>
         <v>N/A</v>
       </c>
-      <c r="H110" s="285" t="str">
+      <c r="H110" s="292" t="str">
         <f>Cálculos!D148</f>
         <v>N/A</v>
       </c>
@@ -45417,17 +45397,17 @@
       <c r="U110" s="95"/>
     </row>
     <row r="111" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="286" t="str">
+      <c r="A111" s="287" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D41:CY41)</f>
         <v>mas juntas   //   Sesiones más separadas.</v>
       </c>
-      <c r="B111" s="287"/>
-      <c r="C111" s="287"/>
-      <c r="D111" s="287"/>
-      <c r="E111" s="287"/>
-      <c r="F111" s="287"/>
-      <c r="G111" s="287"/>
-      <c r="H111" s="288"/>
+      <c r="B111" s="288"/>
+      <c r="C111" s="288"/>
+      <c r="D111" s="288"/>
+      <c r="E111" s="288"/>
+      <c r="F111" s="288"/>
+      <c r="G111" s="288"/>
+      <c r="H111" s="289"/>
       <c r="I111" s="95"/>
       <c r="J111" s="95"/>
       <c r="K111" s="95"/>
@@ -45446,13 +45426,13 @@
       <c r="A112" s="183" t="s">
         <v>503</v>
       </c>
-      <c r="B112" s="282" t="s">
+      <c r="B112" s="251" t="s">
         <v>494</v>
       </c>
-      <c r="C112" s="282"/>
-      <c r="D112" s="282"/>
-      <c r="E112" s="282"/>
-      <c r="F112" s="282"/>
+      <c r="C112" s="251"/>
+      <c r="D112" s="251"/>
+      <c r="E112" s="251"/>
+      <c r="F112" s="251"/>
       <c r="G112" s="120">
         <f>Cálculos!C149</f>
         <v>4</v>
@@ -45479,18 +45459,18 @@
       <c r="A113" s="183" t="s">
         <v>504</v>
       </c>
-      <c r="B113" s="283" t="s">
+      <c r="B113" s="290" t="s">
         <v>548</v>
       </c>
-      <c r="C113" s="284"/>
-      <c r="D113" s="284"/>
-      <c r="E113" s="284"/>
-      <c r="F113" s="284"/>
-      <c r="G113" s="284" t="str">
+      <c r="C113" s="291"/>
+      <c r="D113" s="291"/>
+      <c r="E113" s="291"/>
+      <c r="F113" s="291"/>
+      <c r="G113" s="291" t="str">
         <f>Cálculos!C150</f>
         <v>N/A</v>
       </c>
-      <c r="H113" s="285" t="str">
+      <c r="H113" s="292" t="str">
         <f>Cálculos!D150</f>
         <v>N/A</v>
       </c>
@@ -45509,17 +45489,17 @@
       <c r="U113" s="95"/>
     </row>
     <row r="114" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="286" t="str">
+      <c r="A114" s="287" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D43:CY43)</f>
         <v>esta bien que sea individual   //   No habia grupos, era individual.</v>
       </c>
-      <c r="B114" s="287"/>
-      <c r="C114" s="287"/>
-      <c r="D114" s="287"/>
-      <c r="E114" s="287"/>
-      <c r="F114" s="287"/>
-      <c r="G114" s="287"/>
-      <c r="H114" s="288"/>
+      <c r="B114" s="288"/>
+      <c r="C114" s="288"/>
+      <c r="D114" s="288"/>
+      <c r="E114" s="288"/>
+      <c r="F114" s="288"/>
+      <c r="G114" s="288"/>
+      <c r="H114" s="289"/>
       <c r="I114" s="95"/>
       <c r="J114" s="95"/>
       <c r="K114" s="95"/>
@@ -45538,13 +45518,13 @@
       <c r="A115" s="183" t="s">
         <v>505</v>
       </c>
-      <c r="B115" s="282" t="s">
+      <c r="B115" s="251" t="s">
         <v>495</v>
       </c>
-      <c r="C115" s="282"/>
-      <c r="D115" s="282"/>
-      <c r="E115" s="282"/>
-      <c r="F115" s="282"/>
+      <c r="C115" s="251"/>
+      <c r="D115" s="251"/>
+      <c r="E115" s="251"/>
+      <c r="F115" s="251"/>
       <c r="G115" s="120">
         <f>Cálculos!C151</f>
         <v>4.75</v>
@@ -45571,13 +45551,13 @@
       <c r="A116" s="183" t="s">
         <v>549</v>
       </c>
-      <c r="B116" s="282" t="s">
+      <c r="B116" s="251" t="s">
         <v>496</v>
       </c>
-      <c r="C116" s="282"/>
-      <c r="D116" s="282"/>
-      <c r="E116" s="282"/>
-      <c r="F116" s="282"/>
+      <c r="C116" s="251"/>
+      <c r="D116" s="251"/>
+      <c r="E116" s="251"/>
+      <c r="F116" s="251"/>
       <c r="G116" s="120">
         <f>Cálculos!C152</f>
         <v>8.3333333333333339</v>
@@ -45604,18 +45584,18 @@
       <c r="A117" s="183" t="s">
         <v>550</v>
       </c>
-      <c r="B117" s="283" t="s">
+      <c r="B117" s="290" t="s">
         <v>497</v>
       </c>
-      <c r="C117" s="284"/>
-      <c r="D117" s="284"/>
-      <c r="E117" s="284"/>
-      <c r="F117" s="284"/>
-      <c r="G117" s="284" t="str">
+      <c r="C117" s="291"/>
+      <c r="D117" s="291"/>
+      <c r="E117" s="291"/>
+      <c r="F117" s="291"/>
+      <c r="G117" s="291" t="str">
         <f>Cálculos!C153</f>
         <v>N/A</v>
       </c>
-      <c r="H117" s="285" t="str">
+      <c r="H117" s="292" t="str">
         <f>Cálculos!D153</f>
         <v>N/A</v>
       </c>
@@ -45634,17 +45614,17 @@
       <c r="U117" s="95"/>
     </row>
     <row r="118" spans="1:21" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="286" t="str">
+      <c r="A118" s="287" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D46:CY46)</f>
         <v>Me ha parecido bastante entretenido y ayuda a hacer las clases más dinámicas   //   productiva y entretenida    //   Experiencia entretenida y ayuda a aprender.   //   Divertida y competitiva.</v>
       </c>
-      <c r="B118" s="287"/>
-      <c r="C118" s="287"/>
-      <c r="D118" s="287"/>
-      <c r="E118" s="287"/>
-      <c r="F118" s="287"/>
-      <c r="G118" s="287"/>
-      <c r="H118" s="288"/>
+      <c r="B118" s="288"/>
+      <c r="C118" s="288"/>
+      <c r="D118" s="288"/>
+      <c r="E118" s="288"/>
+      <c r="F118" s="288"/>
+      <c r="G118" s="288"/>
+      <c r="H118" s="289"/>
       <c r="I118" s="95"/>
       <c r="J118" s="95"/>
       <c r="K118" s="95"/>
@@ -45663,18 +45643,18 @@
       <c r="A119" s="183" t="s">
         <v>511</v>
       </c>
-      <c r="B119" s="283" t="s">
+      <c r="B119" s="290" t="s">
         <v>498</v>
       </c>
-      <c r="C119" s="284"/>
-      <c r="D119" s="284"/>
-      <c r="E119" s="284"/>
-      <c r="F119" s="284"/>
-      <c r="G119" s="284" t="str">
+      <c r="C119" s="291"/>
+      <c r="D119" s="291"/>
+      <c r="E119" s="291"/>
+      <c r="F119" s="291"/>
+      <c r="G119" s="291" t="str">
         <f>Cálculos!C154</f>
         <v>N/A</v>
       </c>
-      <c r="H119" s="285" t="str">
+      <c r="H119" s="292" t="str">
         <f>Cálculos!D154</f>
         <v>N/A</v>
       </c>
@@ -45693,17 +45673,17 @@
       <c r="U119" s="95"/>
     </row>
     <row r="120" spans="1:21" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="286" t="str">
+      <c r="A120" s="287" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D47:CY47)</f>
         <v>Quizas hacerlo también en otras asignaturas   //   es adecuado, le daria más duración    //   Intentaría usarla de vez en cuando sin que fuera diario tampoco.   //   En general no mejoraría nada, los incentivos de conseguir puntos extra para el examen aumentaban la competitividad y hacia que me esforzase más.</v>
       </c>
-      <c r="B120" s="287"/>
-      <c r="C120" s="287"/>
-      <c r="D120" s="287"/>
-      <c r="E120" s="287"/>
-      <c r="F120" s="287"/>
-      <c r="G120" s="287"/>
-      <c r="H120" s="288"/>
+      <c r="B120" s="288"/>
+      <c r="C120" s="288"/>
+      <c r="D120" s="288"/>
+      <c r="E120" s="288"/>
+      <c r="F120" s="288"/>
+      <c r="G120" s="288"/>
+      <c r="H120" s="289"/>
       <c r="I120" s="95"/>
       <c r="J120" s="95"/>
       <c r="K120" s="95"/>
@@ -46240,15 +46220,15 @@
       <c r="A144" s="124" t="s">
         <v>349</v>
       </c>
-      <c r="B144" s="289" t="s">
+      <c r="B144" s="242" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="289"/>
-      <c r="D144" s="289"/>
-      <c r="E144" s="289"/>
-      <c r="F144" s="289"/>
-      <c r="G144" s="289"/>
-      <c r="H144" s="289"/>
+      <c r="C144" s="242"/>
+      <c r="D144" s="242"/>
+      <c r="E144" s="242"/>
+      <c r="F144" s="242"/>
+      <c r="G144" s="242"/>
+      <c r="H144" s="242"/>
       <c r="I144" s="95"/>
       <c r="J144" s="95"/>
       <c r="K144" s="95"/>
@@ -46264,16 +46244,16 @@
       <c r="U144" s="95"/>
     </row>
     <row r="145" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="289" t="e">
+      <c r="B145" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C145" s="289"/>
-      <c r="D145" s="289"/>
-      <c r="E145" s="289"/>
-      <c r="F145" s="289"/>
-      <c r="G145" s="289"/>
-      <c r="H145" s="289"/>
+      <c r="C145" s="242"/>
+      <c r="D145" s="242"/>
+      <c r="E145" s="242"/>
+      <c r="F145" s="242"/>
+      <c r="G145" s="242"/>
+      <c r="H145" s="242"/>
       <c r="I145" s="95"/>
       <c r="J145" s="95"/>
       <c r="K145" s="95"/>
@@ -46292,16 +46272,16 @@
       <c r="A146" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B146" s="289" t="e">
+      <c r="B146" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C146" s="289"/>
-      <c r="D146" s="289"/>
-      <c r="E146" s="289"/>
-      <c r="F146" s="289"/>
-      <c r="G146" s="289"/>
-      <c r="H146" s="289"/>
+      <c r="C146" s="242"/>
+      <c r="D146" s="242"/>
+      <c r="E146" s="242"/>
+      <c r="F146" s="242"/>
+      <c r="G146" s="242"/>
+      <c r="H146" s="242"/>
       <c r="I146" s="95"/>
       <c r="J146" s="95"/>
       <c r="K146" s="95"/>
@@ -46321,16 +46301,16 @@
         <f>Cálculos!D159</f>
         <v>7</v>
       </c>
-      <c r="B147" s="289" t="e">
+      <c r="B147" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C147" s="289"/>
-      <c r="D147" s="289"/>
-      <c r="E147" s="289"/>
-      <c r="F147" s="289"/>
-      <c r="G147" s="289"/>
-      <c r="H147" s="289"/>
+      <c r="C147" s="242"/>
+      <c r="D147" s="242"/>
+      <c r="E147" s="242"/>
+      <c r="F147" s="242"/>
+      <c r="G147" s="242"/>
+      <c r="H147" s="242"/>
       <c r="I147" s="95"/>
       <c r="J147" s="95"/>
       <c r="K147" s="95"/>
@@ -46347,16 +46327,16 @@
     </row>
     <row r="148" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="127"/>
-      <c r="B148" s="289" t="e">
+      <c r="B148" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C148" s="289"/>
-      <c r="D148" s="289"/>
-      <c r="E148" s="289"/>
-      <c r="F148" s="289"/>
-      <c r="G148" s="289"/>
-      <c r="H148" s="289"/>
+      <c r="C148" s="242"/>
+      <c r="D148" s="242"/>
+      <c r="E148" s="242"/>
+      <c r="F148" s="242"/>
+      <c r="G148" s="242"/>
+      <c r="H148" s="242"/>
       <c r="I148" s="95"/>
       <c r="J148" s="95"/>
       <c r="K148" s="95"/>
@@ -46373,16 +46353,16 @@
     </row>
     <row r="149" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="126"/>
-      <c r="B149" s="290" t="e">
+      <c r="B149" s="243" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C149" s="290"/>
-      <c r="D149" s="290"/>
-      <c r="E149" s="290"/>
-      <c r="F149" s="290"/>
-      <c r="G149" s="290"/>
-      <c r="H149" s="290"/>
+      <c r="C149" s="243"/>
+      <c r="D149" s="243"/>
+      <c r="E149" s="243"/>
+      <c r="F149" s="243"/>
+      <c r="G149" s="243"/>
+      <c r="H149" s="243"/>
       <c r="I149" s="95"/>
       <c r="J149" s="95"/>
       <c r="K149" s="95"/>
@@ -46401,15 +46381,15 @@
       <c r="A150" s="127" t="s">
         <v>350</v>
       </c>
-      <c r="B150" s="292" t="s">
+      <c r="B150" s="286" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="292"/>
-      <c r="D150" s="292"/>
-      <c r="E150" s="292"/>
-      <c r="F150" s="292"/>
-      <c r="G150" s="292"/>
-      <c r="H150" s="292"/>
+      <c r="C150" s="286"/>
+      <c r="D150" s="286"/>
+      <c r="E150" s="286"/>
+      <c r="F150" s="286"/>
+      <c r="G150" s="286"/>
+      <c r="H150" s="286"/>
       <c r="I150" s="95"/>
       <c r="J150" s="95"/>
       <c r="K150" s="95"/>
@@ -46425,16 +46405,16 @@
       <c r="U150" s="95"/>
     </row>
     <row r="151" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="289" t="e">
+      <c r="B151" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C151" s="289"/>
-      <c r="D151" s="289"/>
-      <c r="E151" s="289"/>
-      <c r="F151" s="289"/>
-      <c r="G151" s="289"/>
-      <c r="H151" s="289"/>
+      <c r="C151" s="242"/>
+      <c r="D151" s="242"/>
+      <c r="E151" s="242"/>
+      <c r="F151" s="242"/>
+      <c r="G151" s="242"/>
+      <c r="H151" s="242"/>
       <c r="I151" s="95"/>
       <c r="J151" s="95"/>
       <c r="K151" s="95"/>
@@ -46453,16 +46433,16 @@
       <c r="A152" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B152" s="289" t="e">
+      <c r="B152" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C152" s="289"/>
-      <c r="D152" s="289"/>
-      <c r="E152" s="289"/>
-      <c r="F152" s="289"/>
-      <c r="G152" s="289"/>
-      <c r="H152" s="289"/>
+      <c r="C152" s="242"/>
+      <c r="D152" s="242"/>
+      <c r="E152" s="242"/>
+      <c r="F152" s="242"/>
+      <c r="G152" s="242"/>
+      <c r="H152" s="242"/>
       <c r="I152" s="95"/>
       <c r="J152" s="95"/>
       <c r="K152" s="95"/>
@@ -46482,16 +46462,16 @@
         <f>Cálculos!D160</f>
         <v>6</v>
       </c>
-      <c r="B153" s="289" t="e">
+      <c r="B153" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C153" s="289"/>
-      <c r="D153" s="289"/>
-      <c r="E153" s="289"/>
-      <c r="F153" s="289"/>
-      <c r="G153" s="289"/>
-      <c r="H153" s="289"/>
+      <c r="C153" s="242"/>
+      <c r="D153" s="242"/>
+      <c r="E153" s="242"/>
+      <c r="F153" s="242"/>
+      <c r="G153" s="242"/>
+      <c r="H153" s="242"/>
       <c r="I153" s="95"/>
       <c r="J153" s="95"/>
       <c r="K153" s="95"/>
@@ -46508,16 +46488,16 @@
     </row>
     <row r="154" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="127"/>
-      <c r="B154" s="289" t="e">
+      <c r="B154" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C154" s="289"/>
-      <c r="D154" s="289"/>
-      <c r="E154" s="289"/>
-      <c r="F154" s="289"/>
-      <c r="G154" s="289"/>
-      <c r="H154" s="289"/>
+      <c r="C154" s="242"/>
+      <c r="D154" s="242"/>
+      <c r="E154" s="242"/>
+      <c r="F154" s="242"/>
+      <c r="G154" s="242"/>
+      <c r="H154" s="242"/>
       <c r="I154" s="95"/>
       <c r="J154" s="95"/>
       <c r="K154" s="95"/>
@@ -46534,16 +46514,16 @@
     </row>
     <row r="155" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="126"/>
-      <c r="B155" s="290" t="e">
+      <c r="B155" s="243" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C155" s="290"/>
-      <c r="D155" s="290"/>
-      <c r="E155" s="290"/>
-      <c r="F155" s="290"/>
-      <c r="G155" s="290"/>
-      <c r="H155" s="290"/>
+      <c r="C155" s="243"/>
+      <c r="D155" s="243"/>
+      <c r="E155" s="243"/>
+      <c r="F155" s="243"/>
+      <c r="G155" s="243"/>
+      <c r="H155" s="243"/>
       <c r="I155" s="95"/>
       <c r="J155" s="95"/>
       <c r="K155" s="95"/>
@@ -46562,15 +46542,15 @@
       <c r="A156" s="125" t="s">
         <v>351</v>
       </c>
-      <c r="B156" s="292" t="s">
+      <c r="B156" s="286" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="292"/>
-      <c r="D156" s="292"/>
-      <c r="E156" s="292"/>
-      <c r="F156" s="292"/>
-      <c r="G156" s="292"/>
-      <c r="H156" s="292"/>
+      <c r="C156" s="286"/>
+      <c r="D156" s="286"/>
+      <c r="E156" s="286"/>
+      <c r="F156" s="286"/>
+      <c r="G156" s="286"/>
+      <c r="H156" s="286"/>
       <c r="I156" s="95"/>
       <c r="J156" s="95"/>
       <c r="K156" s="95"/>
@@ -46586,16 +46566,16 @@
       <c r="U156" s="95"/>
     </row>
     <row r="157" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="289" t="e">
+      <c r="B157" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C157" s="289"/>
-      <c r="D157" s="289"/>
-      <c r="E157" s="289"/>
-      <c r="F157" s="289"/>
-      <c r="G157" s="289"/>
-      <c r="H157" s="289"/>
+      <c r="C157" s="242"/>
+      <c r="D157" s="242"/>
+      <c r="E157" s="242"/>
+      <c r="F157" s="242"/>
+      <c r="G157" s="242"/>
+      <c r="H157" s="242"/>
       <c r="I157" s="95"/>
       <c r="J157" s="95"/>
       <c r="K157" s="95"/>
@@ -46614,16 +46594,16 @@
       <c r="A158" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B158" s="289" t="e">
+      <c r="B158" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C158" s="289"/>
-      <c r="D158" s="289"/>
-      <c r="E158" s="289"/>
-      <c r="F158" s="289"/>
-      <c r="G158" s="289"/>
-      <c r="H158" s="289"/>
+      <c r="C158" s="242"/>
+      <c r="D158" s="242"/>
+      <c r="E158" s="242"/>
+      <c r="F158" s="242"/>
+      <c r="G158" s="242"/>
+      <c r="H158" s="242"/>
       <c r="I158" s="95"/>
       <c r="J158" s="95"/>
       <c r="K158" s="95"/>
@@ -46643,16 +46623,16 @@
         <f>Cálculos!D161</f>
         <v>7</v>
       </c>
-      <c r="B159" s="289" t="e">
+      <c r="B159" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C159" s="289"/>
-      <c r="D159" s="289"/>
-      <c r="E159" s="289"/>
-      <c r="F159" s="289"/>
-      <c r="G159" s="289"/>
-      <c r="H159" s="289"/>
+      <c r="C159" s="242"/>
+      <c r="D159" s="242"/>
+      <c r="E159" s="242"/>
+      <c r="F159" s="242"/>
+      <c r="G159" s="242"/>
+      <c r="H159" s="242"/>
       <c r="I159" s="95"/>
       <c r="J159" s="95"/>
       <c r="K159" s="95"/>
@@ -46669,16 +46649,16 @@
     </row>
     <row r="160" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="127"/>
-      <c r="B160" s="289" t="e">
+      <c r="B160" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C160" s="289"/>
-      <c r="D160" s="289"/>
-      <c r="E160" s="289"/>
-      <c r="F160" s="289"/>
-      <c r="G160" s="289"/>
-      <c r="H160" s="289"/>
+      <c r="C160" s="242"/>
+      <c r="D160" s="242"/>
+      <c r="E160" s="242"/>
+      <c r="F160" s="242"/>
+      <c r="G160" s="242"/>
+      <c r="H160" s="242"/>
       <c r="I160" s="95"/>
       <c r="J160" s="95"/>
       <c r="K160" s="95"/>
@@ -46695,16 +46675,16 @@
     </row>
     <row r="161" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="126"/>
-      <c r="B161" s="290" t="e">
+      <c r="B161" s="243" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C161" s="290"/>
-      <c r="D161" s="290"/>
-      <c r="E161" s="290"/>
-      <c r="F161" s="290"/>
-      <c r="G161" s="290"/>
-      <c r="H161" s="290"/>
+      <c r="C161" s="243"/>
+      <c r="D161" s="243"/>
+      <c r="E161" s="243"/>
+      <c r="F161" s="243"/>
+      <c r="G161" s="243"/>
+      <c r="H161" s="243"/>
       <c r="I161" s="95"/>
       <c r="J161" s="95"/>
       <c r="K161" s="95"/>
@@ -46723,15 +46703,15 @@
       <c r="A162" s="124" t="s">
         <v>352</v>
       </c>
-      <c r="B162" s="291" t="s">
+      <c r="B162" s="244" t="s">
         <v>125</v>
       </c>
-      <c r="C162" s="291"/>
-      <c r="D162" s="291"/>
-      <c r="E162" s="291"/>
-      <c r="F162" s="291"/>
-      <c r="G162" s="291"/>
-      <c r="H162" s="291"/>
+      <c r="C162" s="244"/>
+      <c r="D162" s="244"/>
+      <c r="E162" s="244"/>
+      <c r="F162" s="244"/>
+      <c r="G162" s="244"/>
+      <c r="H162" s="244"/>
       <c r="I162" s="95"/>
       <c r="J162" s="95"/>
       <c r="K162" s="95"/>
@@ -46747,16 +46727,16 @@
       <c r="U162" s="95"/>
     </row>
     <row r="163" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="289" t="e">
+      <c r="B163" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C163" s="289"/>
-      <c r="D163" s="289"/>
-      <c r="E163" s="289"/>
-      <c r="F163" s="289"/>
-      <c r="G163" s="289"/>
-      <c r="H163" s="289"/>
+      <c r="C163" s="242"/>
+      <c r="D163" s="242"/>
+      <c r="E163" s="242"/>
+      <c r="F163" s="242"/>
+      <c r="G163" s="242"/>
+      <c r="H163" s="242"/>
       <c r="I163" s="95"/>
       <c r="J163" s="95"/>
       <c r="K163" s="95"/>
@@ -46775,16 +46755,16 @@
       <c r="A164" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B164" s="289" t="e">
+      <c r="B164" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C164" s="289"/>
-      <c r="D164" s="289"/>
-      <c r="E164" s="289"/>
-      <c r="F164" s="289"/>
-      <c r="G164" s="289"/>
-      <c r="H164" s="289"/>
+      <c r="C164" s="242"/>
+      <c r="D164" s="242"/>
+      <c r="E164" s="242"/>
+      <c r="F164" s="242"/>
+      <c r="G164" s="242"/>
+      <c r="H164" s="242"/>
       <c r="I164" s="95"/>
       <c r="J164" s="95"/>
       <c r="K164" s="95"/>
@@ -46804,16 +46784,16 @@
         <f>Cálculos!D162</f>
         <v>8</v>
       </c>
-      <c r="B165" s="289" t="e">
+      <c r="B165" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C165" s="289"/>
-      <c r="D165" s="289"/>
-      <c r="E165" s="289"/>
-      <c r="F165" s="289"/>
-      <c r="G165" s="289"/>
-      <c r="H165" s="289"/>
+      <c r="C165" s="242"/>
+      <c r="D165" s="242"/>
+      <c r="E165" s="242"/>
+      <c r="F165" s="242"/>
+      <c r="G165" s="242"/>
+      <c r="H165" s="242"/>
       <c r="I165" s="95"/>
       <c r="J165" s="95"/>
       <c r="K165" s="95"/>
@@ -46830,16 +46810,16 @@
     </row>
     <row r="166" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="127"/>
-      <c r="B166" s="289" t="e">
+      <c r="B166" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C166" s="289"/>
-      <c r="D166" s="289"/>
-      <c r="E166" s="289"/>
-      <c r="F166" s="289"/>
-      <c r="G166" s="289"/>
-      <c r="H166" s="289"/>
+      <c r="C166" s="242"/>
+      <c r="D166" s="242"/>
+      <c r="E166" s="242"/>
+      <c r="F166" s="242"/>
+      <c r="G166" s="242"/>
+      <c r="H166" s="242"/>
       <c r="I166" s="95"/>
       <c r="J166" s="95"/>
       <c r="K166" s="95"/>
@@ -46856,16 +46836,16 @@
     </row>
     <row r="167" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="126"/>
-      <c r="B167" s="289" t="e">
+      <c r="B167" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C167" s="289"/>
-      <c r="D167" s="289"/>
-      <c r="E167" s="289"/>
-      <c r="F167" s="289"/>
-      <c r="G167" s="289"/>
-      <c r="H167" s="289"/>
+      <c r="C167" s="242"/>
+      <c r="D167" s="242"/>
+      <c r="E167" s="242"/>
+      <c r="F167" s="242"/>
+      <c r="G167" s="242"/>
+      <c r="H167" s="242"/>
       <c r="I167" s="95"/>
       <c r="J167" s="95"/>
       <c r="K167" s="95"/>
@@ -46884,15 +46864,15 @@
       <c r="A168" s="126" t="s">
         <v>353</v>
       </c>
-      <c r="B168" s="290" t="s">
+      <c r="B168" s="243" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="290"/>
-      <c r="D168" s="290"/>
-      <c r="E168" s="290"/>
-      <c r="F168" s="290"/>
-      <c r="G168" s="290"/>
-      <c r="H168" s="290"/>
+      <c r="C168" s="243"/>
+      <c r="D168" s="243"/>
+      <c r="E168" s="243"/>
+      <c r="F168" s="243"/>
+      <c r="G168" s="243"/>
+      <c r="H168" s="243"/>
       <c r="I168" s="95"/>
       <c r="J168" s="95"/>
       <c r="K168" s="95"/>
@@ -46908,16 +46888,16 @@
       <c r="U168" s="95"/>
     </row>
     <row r="169" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="289" t="e">
+      <c r="B169" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C169" s="289"/>
-      <c r="D169" s="289"/>
-      <c r="E169" s="289"/>
-      <c r="F169" s="289"/>
-      <c r="G169" s="289"/>
-      <c r="H169" s="289"/>
+      <c r="C169" s="242"/>
+      <c r="D169" s="242"/>
+      <c r="E169" s="242"/>
+      <c r="F169" s="242"/>
+      <c r="G169" s="242"/>
+      <c r="H169" s="242"/>
       <c r="I169" s="95"/>
       <c r="J169" s="95"/>
       <c r="K169" s="95"/>
@@ -46936,16 +46916,16 @@
       <c r="A170" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B170" s="289" t="e">
+      <c r="B170" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C170" s="289"/>
-      <c r="D170" s="289"/>
-      <c r="E170" s="289"/>
-      <c r="F170" s="289"/>
-      <c r="G170" s="289"/>
-      <c r="H170" s="289"/>
+      <c r="C170" s="242"/>
+      <c r="D170" s="242"/>
+      <c r="E170" s="242"/>
+      <c r="F170" s="242"/>
+      <c r="G170" s="242"/>
+      <c r="H170" s="242"/>
       <c r="I170" s="95"/>
       <c r="J170" s="95"/>
       <c r="K170" s="95"/>
@@ -46965,16 +46945,16 @@
         <f>Cálculos!#REF! &amp; " (Copy)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B171" s="289" t="e">
+      <c r="B171" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C171" s="289"/>
-      <c r="D171" s="289"/>
-      <c r="E171" s="289"/>
-      <c r="F171" s="289"/>
-      <c r="G171" s="289"/>
-      <c r="H171" s="289"/>
+      <c r="C171" s="242"/>
+      <c r="D171" s="242"/>
+      <c r="E171" s="242"/>
+      <c r="F171" s="242"/>
+      <c r="G171" s="242"/>
+      <c r="H171" s="242"/>
       <c r="I171" s="95"/>
       <c r="J171" s="95"/>
       <c r="K171" s="95"/>
@@ -46994,16 +46974,16 @@
         <f>Cálculos!#REF!&amp; " (DDHH)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B172" s="289" t="e">
+      <c r="B172" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C172" s="289"/>
-      <c r="D172" s="289"/>
-      <c r="E172" s="289"/>
-      <c r="F172" s="289"/>
-      <c r="G172" s="289"/>
-      <c r="H172" s="289"/>
+      <c r="C172" s="242"/>
+      <c r="D172" s="242"/>
+      <c r="E172" s="242"/>
+      <c r="F172" s="242"/>
+      <c r="G172" s="242"/>
+      <c r="H172" s="242"/>
       <c r="I172" s="95"/>
       <c r="J172" s="95"/>
       <c r="K172" s="95"/>
@@ -47020,16 +47000,16 @@
     </row>
     <row r="173" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="126"/>
-      <c r="B173" s="290" t="e">
+      <c r="B173" s="243" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C173" s="290"/>
-      <c r="D173" s="290"/>
-      <c r="E173" s="290"/>
-      <c r="F173" s="290"/>
-      <c r="G173" s="290"/>
-      <c r="H173" s="290"/>
+      <c r="C173" s="243"/>
+      <c r="D173" s="243"/>
+      <c r="E173" s="243"/>
+      <c r="F173" s="243"/>
+      <c r="G173" s="243"/>
+      <c r="H173" s="243"/>
       <c r="I173" s="95"/>
       <c r="J173" s="95"/>
       <c r="K173" s="95"/>
@@ -47048,15 +47028,15 @@
       <c r="A174" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="B174" s="291" t="s">
+      <c r="B174" s="244" t="s">
         <v>127</v>
       </c>
-      <c r="C174" s="291"/>
-      <c r="D174" s="291"/>
-      <c r="E174" s="291"/>
-      <c r="F174" s="291"/>
-      <c r="G174" s="291"/>
-      <c r="H174" s="291"/>
+      <c r="C174" s="244"/>
+      <c r="D174" s="244"/>
+      <c r="E174" s="244"/>
+      <c r="F174" s="244"/>
+      <c r="G174" s="244"/>
+      <c r="H174" s="244"/>
       <c r="I174" s="95"/>
       <c r="J174" s="95"/>
       <c r="K174" s="95"/>
@@ -47072,16 +47052,16 @@
       <c r="U174" s="95"/>
     </row>
     <row r="175" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="289" t="e">
+      <c r="B175" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C175" s="289"/>
-      <c r="D175" s="289"/>
-      <c r="E175" s="289"/>
-      <c r="F175" s="289"/>
-      <c r="G175" s="289"/>
-      <c r="H175" s="289"/>
+      <c r="C175" s="242"/>
+      <c r="D175" s="242"/>
+      <c r="E175" s="242"/>
+      <c r="F175" s="242"/>
+      <c r="G175" s="242"/>
+      <c r="H175" s="242"/>
       <c r="I175" s="95"/>
       <c r="J175" s="95"/>
       <c r="K175" s="95"/>
@@ -47100,16 +47080,16 @@
       <c r="A176" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B176" s="289" t="e">
+      <c r="B176" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C176" s="289"/>
-      <c r="D176" s="289"/>
-      <c r="E176" s="289"/>
-      <c r="F176" s="289"/>
-      <c r="G176" s="289"/>
-      <c r="H176" s="289"/>
+      <c r="C176" s="242"/>
+      <c r="D176" s="242"/>
+      <c r="E176" s="242"/>
+      <c r="F176" s="242"/>
+      <c r="G176" s="242"/>
+      <c r="H176" s="242"/>
       <c r="I176" s="95"/>
       <c r="J176" s="95"/>
       <c r="K176" s="95"/>
@@ -47129,16 +47109,16 @@
         <f>Cálculos!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B177" s="289" t="e">
+      <c r="B177" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C177" s="289"/>
-      <c r="D177" s="289"/>
-      <c r="E177" s="289"/>
-      <c r="F177" s="289"/>
-      <c r="G177" s="289"/>
-      <c r="H177" s="289"/>
+      <c r="C177" s="242"/>
+      <c r="D177" s="242"/>
+      <c r="E177" s="242"/>
+      <c r="F177" s="242"/>
+      <c r="G177" s="242"/>
+      <c r="H177" s="242"/>
       <c r="I177" s="95"/>
       <c r="J177" s="95"/>
       <c r="K177" s="95"/>
@@ -47155,16 +47135,16 @@
     </row>
     <row r="178" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="127"/>
-      <c r="B178" s="289" t="e">
+      <c r="B178" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C178" s="289"/>
-      <c r="D178" s="289"/>
-      <c r="E178" s="289"/>
-      <c r="F178" s="289"/>
-      <c r="G178" s="289"/>
-      <c r="H178" s="289"/>
+      <c r="C178" s="242"/>
+      <c r="D178" s="242"/>
+      <c r="E178" s="242"/>
+      <c r="F178" s="242"/>
+      <c r="G178" s="242"/>
+      <c r="H178" s="242"/>
       <c r="I178" s="95"/>
       <c r="J178" s="95"/>
       <c r="K178" s="95"/>
@@ -47181,16 +47161,16 @@
     </row>
     <row r="179" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="126"/>
-      <c r="B179" s="290" t="e">
+      <c r="B179" s="243" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C179" s="290"/>
-      <c r="D179" s="290"/>
-      <c r="E179" s="290"/>
-      <c r="F179" s="290"/>
-      <c r="G179" s="290"/>
-      <c r="H179" s="290"/>
+      <c r="C179" s="243"/>
+      <c r="D179" s="243"/>
+      <c r="E179" s="243"/>
+      <c r="F179" s="243"/>
+      <c r="G179" s="243"/>
+      <c r="H179" s="243"/>
       <c r="I179" s="95"/>
       <c r="J179" s="95"/>
       <c r="K179" s="95"/>
@@ -47209,15 +47189,15 @@
       <c r="A180" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="B180" s="291" t="s">
+      <c r="B180" s="244" t="s">
         <v>128</v>
       </c>
-      <c r="C180" s="291"/>
-      <c r="D180" s="291"/>
-      <c r="E180" s="291"/>
-      <c r="F180" s="291"/>
-      <c r="G180" s="291"/>
-      <c r="H180" s="291"/>
+      <c r="C180" s="244"/>
+      <c r="D180" s="244"/>
+      <c r="E180" s="244"/>
+      <c r="F180" s="244"/>
+      <c r="G180" s="244"/>
+      <c r="H180" s="244"/>
       <c r="I180" s="95"/>
       <c r="J180" s="95"/>
       <c r="K180" s="95"/>
@@ -47233,16 +47213,16 @@
       <c r="U180" s="95"/>
     </row>
     <row r="181" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="289" t="e">
+      <c r="B181" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C181" s="289"/>
-      <c r="D181" s="289"/>
-      <c r="E181" s="289"/>
-      <c r="F181" s="289"/>
-      <c r="G181" s="289"/>
-      <c r="H181" s="289"/>
+      <c r="C181" s="242"/>
+      <c r="D181" s="242"/>
+      <c r="E181" s="242"/>
+      <c r="F181" s="242"/>
+      <c r="G181" s="242"/>
+      <c r="H181" s="242"/>
       <c r="I181" s="95"/>
       <c r="J181" s="95"/>
       <c r="K181" s="95"/>
@@ -47261,16 +47241,16 @@
       <c r="A182" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B182" s="289" t="e">
+      <c r="B182" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C182" s="289"/>
-      <c r="D182" s="289"/>
-      <c r="E182" s="289"/>
-      <c r="F182" s="289"/>
-      <c r="G182" s="289"/>
-      <c r="H182" s="289"/>
+      <c r="C182" s="242"/>
+      <c r="D182" s="242"/>
+      <c r="E182" s="242"/>
+      <c r="F182" s="242"/>
+      <c r="G182" s="242"/>
+      <c r="H182" s="242"/>
       <c r="I182" s="95"/>
       <c r="J182" s="95"/>
       <c r="K182" s="95"/>
@@ -47290,16 +47270,16 @@
         <f>Cálculos!D163</f>
         <v>8</v>
       </c>
-      <c r="B183" s="289" t="e">
+      <c r="B183" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C183" s="289"/>
-      <c r="D183" s="289"/>
-      <c r="E183" s="289"/>
-      <c r="F183" s="289"/>
-      <c r="G183" s="289"/>
-      <c r="H183" s="289"/>
+      <c r="C183" s="242"/>
+      <c r="D183" s="242"/>
+      <c r="E183" s="242"/>
+      <c r="F183" s="242"/>
+      <c r="G183" s="242"/>
+      <c r="H183" s="242"/>
       <c r="I183" s="95"/>
       <c r="J183" s="95"/>
       <c r="K183" s="95"/>
@@ -47316,16 +47296,16 @@
     </row>
     <row r="184" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="127"/>
-      <c r="B184" s="289" t="e">
+      <c r="B184" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C184" s="289"/>
-      <c r="D184" s="289"/>
-      <c r="E184" s="289"/>
-      <c r="F184" s="289"/>
-      <c r="G184" s="289"/>
-      <c r="H184" s="289"/>
+      <c r="C184" s="242"/>
+      <c r="D184" s="242"/>
+      <c r="E184" s="242"/>
+      <c r="F184" s="242"/>
+      <c r="G184" s="242"/>
+      <c r="H184" s="242"/>
       <c r="I184" s="95"/>
       <c r="J184" s="95"/>
       <c r="K184" s="95"/>
@@ -47342,16 +47322,16 @@
     </row>
     <row r="185" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="126"/>
-      <c r="B185" s="290" t="e">
+      <c r="B185" s="243" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C185" s="290"/>
-      <c r="D185" s="290"/>
-      <c r="E185" s="290"/>
-      <c r="F185" s="290"/>
-      <c r="G185" s="290"/>
-      <c r="H185" s="290"/>
+      <c r="C185" s="243"/>
+      <c r="D185" s="243"/>
+      <c r="E185" s="243"/>
+      <c r="F185" s="243"/>
+      <c r="G185" s="243"/>
+      <c r="H185" s="243"/>
       <c r="I185" s="95"/>
       <c r="J185" s="95"/>
       <c r="K185" s="95"/>
@@ -47370,15 +47350,15 @@
       <c r="A186" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="B186" s="291" t="s">
+      <c r="B186" s="244" t="s">
         <v>129</v>
       </c>
-      <c r="C186" s="291"/>
-      <c r="D186" s="291"/>
-      <c r="E186" s="291"/>
-      <c r="F186" s="291"/>
-      <c r="G186" s="291"/>
-      <c r="H186" s="291"/>
+      <c r="C186" s="244"/>
+      <c r="D186" s="244"/>
+      <c r="E186" s="244"/>
+      <c r="F186" s="244"/>
+      <c r="G186" s="244"/>
+      <c r="H186" s="244"/>
       <c r="I186" s="95"/>
       <c r="J186" s="95"/>
       <c r="K186" s="95"/>
@@ -47394,16 +47374,16 @@
       <c r="U186" s="95"/>
     </row>
     <row r="187" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="289" t="e">
+      <c r="B187" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C187" s="289"/>
-      <c r="D187" s="289"/>
-      <c r="E187" s="289"/>
-      <c r="F187" s="289"/>
-      <c r="G187" s="289"/>
-      <c r="H187" s="289"/>
+      <c r="C187" s="242"/>
+      <c r="D187" s="242"/>
+      <c r="E187" s="242"/>
+      <c r="F187" s="242"/>
+      <c r="G187" s="242"/>
+      <c r="H187" s="242"/>
       <c r="I187" s="95"/>
       <c r="J187" s="95"/>
       <c r="K187" s="95"/>
@@ -47422,16 +47402,16 @@
       <c r="A188" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B188" s="289" t="e">
+      <c r="B188" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C188" s="289"/>
-      <c r="D188" s="289"/>
-      <c r="E188" s="289"/>
-      <c r="F188" s="289"/>
-      <c r="G188" s="289"/>
-      <c r="H188" s="289"/>
+      <c r="C188" s="242"/>
+      <c r="D188" s="242"/>
+      <c r="E188" s="242"/>
+      <c r="F188" s="242"/>
+      <c r="G188" s="242"/>
+      <c r="H188" s="242"/>
       <c r="I188" s="95"/>
       <c r="J188" s="95"/>
       <c r="K188" s="95"/>
@@ -47451,16 +47431,16 @@
         <f>Cálculos!D164</f>
         <v>9</v>
       </c>
-      <c r="B189" s="289" t="e">
+      <c r="B189" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C189" s="289"/>
-      <c r="D189" s="289"/>
-      <c r="E189" s="289"/>
-      <c r="F189" s="289"/>
-      <c r="G189" s="289"/>
-      <c r="H189" s="289"/>
+      <c r="C189" s="242"/>
+      <c r="D189" s="242"/>
+      <c r="E189" s="242"/>
+      <c r="F189" s="242"/>
+      <c r="G189" s="242"/>
+      <c r="H189" s="242"/>
       <c r="I189" s="95"/>
       <c r="J189" s="95"/>
       <c r="K189" s="95"/>
@@ -47477,16 +47457,16 @@
     </row>
     <row r="190" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="127"/>
-      <c r="B190" s="289" t="e">
+      <c r="B190" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C190" s="289"/>
-      <c r="D190" s="289"/>
-      <c r="E190" s="289"/>
-      <c r="F190" s="289"/>
-      <c r="G190" s="289"/>
-      <c r="H190" s="289"/>
+      <c r="C190" s="242"/>
+      <c r="D190" s="242"/>
+      <c r="E190" s="242"/>
+      <c r="F190" s="242"/>
+      <c r="G190" s="242"/>
+      <c r="H190" s="242"/>
       <c r="I190" s="95"/>
       <c r="J190" s="95"/>
       <c r="K190" s="95"/>
@@ -47503,16 +47483,16 @@
     </row>
     <row r="191" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="126"/>
-      <c r="B191" s="290" t="e">
+      <c r="B191" s="243" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C191" s="290"/>
-      <c r="D191" s="290"/>
-      <c r="E191" s="290"/>
-      <c r="F191" s="290"/>
-      <c r="G191" s="290"/>
-      <c r="H191" s="290"/>
+      <c r="C191" s="243"/>
+      <c r="D191" s="243"/>
+      <c r="E191" s="243"/>
+      <c r="F191" s="243"/>
+      <c r="G191" s="243"/>
+      <c r="H191" s="243"/>
       <c r="I191" s="95"/>
       <c r="J191" s="95"/>
       <c r="K191" s="95"/>
@@ -47531,15 +47511,15 @@
       <c r="A192" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="B192" s="291" t="s">
+      <c r="B192" s="244" t="s">
         <v>130</v>
       </c>
-      <c r="C192" s="291"/>
-      <c r="D192" s="291"/>
-      <c r="E192" s="291"/>
-      <c r="F192" s="291"/>
-      <c r="G192" s="291"/>
-      <c r="H192" s="291"/>
+      <c r="C192" s="244"/>
+      <c r="D192" s="244"/>
+      <c r="E192" s="244"/>
+      <c r="F192" s="244"/>
+      <c r="G192" s="244"/>
+      <c r="H192" s="244"/>
       <c r="I192" s="95"/>
       <c r="J192" s="95"/>
       <c r="K192" s="95"/>
@@ -47555,16 +47535,16 @@
       <c r="U192" s="95"/>
     </row>
     <row r="193" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="289" t="e">
+      <c r="B193" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C193" s="289"/>
-      <c r="D193" s="289"/>
-      <c r="E193" s="289"/>
-      <c r="F193" s="289"/>
-      <c r="G193" s="289"/>
-      <c r="H193" s="289"/>
+      <c r="C193" s="242"/>
+      <c r="D193" s="242"/>
+      <c r="E193" s="242"/>
+      <c r="F193" s="242"/>
+      <c r="G193" s="242"/>
+      <c r="H193" s="242"/>
       <c r="I193" s="95"/>
       <c r="J193" s="95"/>
       <c r="K193" s="95"/>
@@ -47583,16 +47563,16 @@
       <c r="A194" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B194" s="289" t="e">
+      <c r="B194" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C194" s="289"/>
-      <c r="D194" s="289"/>
-      <c r="E194" s="289"/>
-      <c r="F194" s="289"/>
-      <c r="G194" s="289"/>
-      <c r="H194" s="289"/>
+      <c r="C194" s="242"/>
+      <c r="D194" s="242"/>
+      <c r="E194" s="242"/>
+      <c r="F194" s="242"/>
+      <c r="G194" s="242"/>
+      <c r="H194" s="242"/>
       <c r="I194" s="95"/>
       <c r="J194" s="95"/>
       <c r="K194" s="95"/>
@@ -47612,16 +47592,16 @@
         <f>Cálculos!D165</f>
         <v>0</v>
       </c>
-      <c r="B195" s="289" t="e">
+      <c r="B195" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C195" s="289"/>
-      <c r="D195" s="289"/>
-      <c r="E195" s="289"/>
-      <c r="F195" s="289"/>
-      <c r="G195" s="289"/>
-      <c r="H195" s="289"/>
+      <c r="C195" s="242"/>
+      <c r="D195" s="242"/>
+      <c r="E195" s="242"/>
+      <c r="F195" s="242"/>
+      <c r="G195" s="242"/>
+      <c r="H195" s="242"/>
       <c r="I195" s="95"/>
       <c r="J195" s="95"/>
       <c r="K195" s="95"/>
@@ -47638,16 +47618,16 @@
     </row>
     <row r="196" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="127"/>
-      <c r="B196" s="289" t="e">
+      <c r="B196" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C196" s="289"/>
-      <c r="D196" s="289"/>
-      <c r="E196" s="289"/>
-      <c r="F196" s="289"/>
-      <c r="G196" s="289"/>
-      <c r="H196" s="289"/>
+      <c r="C196" s="242"/>
+      <c r="D196" s="242"/>
+      <c r="E196" s="242"/>
+      <c r="F196" s="242"/>
+      <c r="G196" s="242"/>
+      <c r="H196" s="242"/>
       <c r="I196" s="95"/>
       <c r="J196" s="95"/>
       <c r="K196" s="95"/>
@@ -47664,16 +47644,16 @@
     </row>
     <row r="197" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="126"/>
-      <c r="B197" s="289" t="e">
+      <c r="B197" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C197" s="289"/>
-      <c r="D197" s="289"/>
-      <c r="E197" s="289"/>
-      <c r="F197" s="289"/>
-      <c r="G197" s="289"/>
-      <c r="H197" s="289"/>
+      <c r="C197" s="242"/>
+      <c r="D197" s="242"/>
+      <c r="E197" s="242"/>
+      <c r="F197" s="242"/>
+      <c r="G197" s="242"/>
+      <c r="H197" s="242"/>
       <c r="I197" s="95"/>
       <c r="J197" s="95"/>
       <c r="K197" s="95"/>
@@ -47692,15 +47672,15 @@
       <c r="A198" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="B198" s="290" t="s">
+      <c r="B198" s="243" t="s">
         <v>131</v>
       </c>
-      <c r="C198" s="290"/>
-      <c r="D198" s="290"/>
-      <c r="E198" s="290"/>
-      <c r="F198" s="290"/>
-      <c r="G198" s="290"/>
-      <c r="H198" s="290"/>
+      <c r="C198" s="243"/>
+      <c r="D198" s="243"/>
+      <c r="E198" s="243"/>
+      <c r="F198" s="243"/>
+      <c r="G198" s="243"/>
+      <c r="H198" s="243"/>
       <c r="I198" s="95"/>
       <c r="J198" s="95"/>
       <c r="K198" s="95"/>
@@ -47716,16 +47696,16 @@
       <c r="U198" s="95"/>
     </row>
     <row r="199" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="289" t="e">
+      <c r="B199" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C199" s="289"/>
-      <c r="D199" s="289"/>
-      <c r="E199" s="289"/>
-      <c r="F199" s="289"/>
-      <c r="G199" s="289"/>
-      <c r="H199" s="289"/>
+      <c r="C199" s="242"/>
+      <c r="D199" s="242"/>
+      <c r="E199" s="242"/>
+      <c r="F199" s="242"/>
+      <c r="G199" s="242"/>
+      <c r="H199" s="242"/>
       <c r="I199" s="95"/>
       <c r="J199" s="95"/>
       <c r="K199" s="95"/>
@@ -47744,16 +47724,16 @@
       <c r="A200" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B200" s="289" t="e">
+      <c r="B200" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C200" s="289"/>
-      <c r="D200" s="289"/>
-      <c r="E200" s="289"/>
-      <c r="F200" s="289"/>
-      <c r="G200" s="289"/>
-      <c r="H200" s="289"/>
+      <c r="C200" s="242"/>
+      <c r="D200" s="242"/>
+      <c r="E200" s="242"/>
+      <c r="F200" s="242"/>
+      <c r="G200" s="242"/>
+      <c r="H200" s="242"/>
       <c r="I200" s="95"/>
       <c r="J200" s="95"/>
       <c r="K200" s="95"/>
@@ -47773,16 +47753,16 @@
         <f>Cálculos!D166</f>
         <v>5</v>
       </c>
-      <c r="B201" s="289" t="e">
+      <c r="B201" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C201" s="289"/>
-      <c r="D201" s="289"/>
-      <c r="E201" s="289"/>
-      <c r="F201" s="289"/>
-      <c r="G201" s="289"/>
-      <c r="H201" s="289"/>
+      <c r="C201" s="242"/>
+      <c r="D201" s="242"/>
+      <c r="E201" s="242"/>
+      <c r="F201" s="242"/>
+      <c r="G201" s="242"/>
+      <c r="H201" s="242"/>
       <c r="I201" s="95"/>
       <c r="J201" s="95"/>
       <c r="K201" s="95"/>
@@ -47799,16 +47779,16 @@
     </row>
     <row r="202" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="127"/>
-      <c r="B202" s="289" t="e">
+      <c r="B202" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C202" s="289"/>
-      <c r="D202" s="289"/>
-      <c r="E202" s="289"/>
-      <c r="F202" s="289"/>
-      <c r="G202" s="289"/>
-      <c r="H202" s="289"/>
+      <c r="C202" s="242"/>
+      <c r="D202" s="242"/>
+      <c r="E202" s="242"/>
+      <c r="F202" s="242"/>
+      <c r="G202" s="242"/>
+      <c r="H202" s="242"/>
       <c r="I202" s="95"/>
       <c r="J202" s="95"/>
       <c r="K202" s="95"/>
@@ -47825,16 +47805,16 @@
     </row>
     <row r="203" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="126"/>
-      <c r="B203" s="289" t="e">
+      <c r="B203" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C203" s="289"/>
-      <c r="D203" s="289"/>
-      <c r="E203" s="289"/>
-      <c r="F203" s="289"/>
-      <c r="G203" s="289"/>
-      <c r="H203" s="289"/>
+      <c r="C203" s="242"/>
+      <c r="D203" s="242"/>
+      <c r="E203" s="242"/>
+      <c r="F203" s="242"/>
+      <c r="G203" s="242"/>
+      <c r="H203" s="242"/>
       <c r="I203" s="95"/>
       <c r="J203" s="95"/>
       <c r="K203" s="95"/>
@@ -47853,15 +47833,15 @@
       <c r="A204" s="126" t="s">
         <v>359</v>
       </c>
-      <c r="B204" s="290" t="s">
+      <c r="B204" s="243" t="s">
         <v>132</v>
       </c>
-      <c r="C204" s="290"/>
-      <c r="D204" s="290"/>
-      <c r="E204" s="290"/>
-      <c r="F204" s="290"/>
-      <c r="G204" s="290"/>
-      <c r="H204" s="290"/>
+      <c r="C204" s="243"/>
+      <c r="D204" s="243"/>
+      <c r="E204" s="243"/>
+      <c r="F204" s="243"/>
+      <c r="G204" s="243"/>
+      <c r="H204" s="243"/>
       <c r="I204" s="95"/>
       <c r="J204" s="95"/>
       <c r="K204" s="95"/>
@@ -47877,16 +47857,16 @@
       <c r="U204" s="95"/>
     </row>
     <row r="205" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="289" t="e">
+      <c r="B205" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C205" s="289"/>
-      <c r="D205" s="289"/>
-      <c r="E205" s="289"/>
-      <c r="F205" s="289"/>
-      <c r="G205" s="289"/>
-      <c r="H205" s="289"/>
+      <c r="C205" s="242"/>
+      <c r="D205" s="242"/>
+      <c r="E205" s="242"/>
+      <c r="F205" s="242"/>
+      <c r="G205" s="242"/>
+      <c r="H205" s="242"/>
       <c r="I205" s="95"/>
       <c r="J205" s="95"/>
       <c r="K205" s="95"/>
@@ -47905,16 +47885,16 @@
       <c r="A206" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B206" s="289" t="e">
+      <c r="B206" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C206" s="289"/>
-      <c r="D206" s="289"/>
-      <c r="E206" s="289"/>
-      <c r="F206" s="289"/>
-      <c r="G206" s="289"/>
-      <c r="H206" s="289"/>
+      <c r="C206" s="242"/>
+      <c r="D206" s="242"/>
+      <c r="E206" s="242"/>
+      <c r="F206" s="242"/>
+      <c r="G206" s="242"/>
+      <c r="H206" s="242"/>
       <c r="I206" s="95"/>
       <c r="J206" s="95"/>
       <c r="K206" s="95"/>
@@ -47934,16 +47914,16 @@
         <f>Cálculos!D167</f>
         <v>7</v>
       </c>
-      <c r="B207" s="289" t="e">
+      <c r="B207" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C207" s="289"/>
-      <c r="D207" s="289"/>
-      <c r="E207" s="289"/>
-      <c r="F207" s="289"/>
-      <c r="G207" s="289"/>
-      <c r="H207" s="289"/>
+      <c r="C207" s="242"/>
+      <c r="D207" s="242"/>
+      <c r="E207" s="242"/>
+      <c r="F207" s="242"/>
+      <c r="G207" s="242"/>
+      <c r="H207" s="242"/>
       <c r="I207" s="95"/>
       <c r="J207" s="95"/>
       <c r="K207" s="95"/>
@@ -47960,16 +47940,16 @@
     </row>
     <row r="208" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="127"/>
-      <c r="B208" s="289" t="e">
+      <c r="B208" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C208" s="289"/>
-      <c r="D208" s="289"/>
-      <c r="E208" s="289"/>
-      <c r="F208" s="289"/>
-      <c r="G208" s="289"/>
-      <c r="H208" s="289"/>
+      <c r="C208" s="242"/>
+      <c r="D208" s="242"/>
+      <c r="E208" s="242"/>
+      <c r="F208" s="242"/>
+      <c r="G208" s="242"/>
+      <c r="H208" s="242"/>
       <c r="I208" s="95"/>
       <c r="J208" s="95"/>
       <c r="K208" s="95"/>
@@ -47986,16 +47966,16 @@
     </row>
     <row r="209" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="126"/>
-      <c r="B209" s="289" t="e">
+      <c r="B209" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C209" s="289"/>
-      <c r="D209" s="289"/>
-      <c r="E209" s="289"/>
-      <c r="F209" s="289"/>
-      <c r="G209" s="289"/>
-      <c r="H209" s="289"/>
+      <c r="C209" s="242"/>
+      <c r="D209" s="242"/>
+      <c r="E209" s="242"/>
+      <c r="F209" s="242"/>
+      <c r="G209" s="242"/>
+      <c r="H209" s="242"/>
       <c r="I209" s="95"/>
       <c r="J209" s="95"/>
       <c r="K209" s="95"/>
@@ -48014,15 +47994,15 @@
       <c r="A210" s="126" t="s">
         <v>360</v>
       </c>
-      <c r="B210" s="290" t="s">
+      <c r="B210" s="243" t="s">
         <v>133</v>
       </c>
-      <c r="C210" s="290"/>
-      <c r="D210" s="290"/>
-      <c r="E210" s="290"/>
-      <c r="F210" s="290"/>
-      <c r="G210" s="290"/>
-      <c r="H210" s="290"/>
+      <c r="C210" s="243"/>
+      <c r="D210" s="243"/>
+      <c r="E210" s="243"/>
+      <c r="F210" s="243"/>
+      <c r="G210" s="243"/>
+      <c r="H210" s="243"/>
       <c r="I210" s="95"/>
       <c r="J210" s="95"/>
       <c r="K210" s="95"/>
@@ -48038,16 +48018,16 @@
       <c r="U210" s="95"/>
     </row>
     <row r="211" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="289" t="e">
+      <c r="B211" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C211" s="289"/>
-      <c r="D211" s="289"/>
-      <c r="E211" s="289"/>
-      <c r="F211" s="289"/>
-      <c r="G211" s="289"/>
-      <c r="H211" s="289"/>
+      <c r="C211" s="242"/>
+      <c r="D211" s="242"/>
+      <c r="E211" s="242"/>
+      <c r="F211" s="242"/>
+      <c r="G211" s="242"/>
+      <c r="H211" s="242"/>
       <c r="I211" s="95"/>
       <c r="J211" s="95"/>
       <c r="K211" s="95"/>
@@ -48066,16 +48046,16 @@
       <c r="A212" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B212" s="289" t="e">
+      <c r="B212" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C212" s="289"/>
-      <c r="D212" s="289"/>
-      <c r="E212" s="289"/>
-      <c r="F212" s="289"/>
-      <c r="G212" s="289"/>
-      <c r="H212" s="289"/>
+      <c r="C212" s="242"/>
+      <c r="D212" s="242"/>
+      <c r="E212" s="242"/>
+      <c r="F212" s="242"/>
+      <c r="G212" s="242"/>
+      <c r="H212" s="242"/>
       <c r="I212" s="95"/>
       <c r="J212" s="95"/>
       <c r="K212" s="95"/>
@@ -48095,16 +48075,16 @@
         <f>Cálculos!D168</f>
         <v>5</v>
       </c>
-      <c r="B213" s="289" t="e">
+      <c r="B213" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C213" s="289"/>
-      <c r="D213" s="289"/>
-      <c r="E213" s="289"/>
-      <c r="F213" s="289"/>
-      <c r="G213" s="289"/>
-      <c r="H213" s="289"/>
+      <c r="C213" s="242"/>
+      <c r="D213" s="242"/>
+      <c r="E213" s="242"/>
+      <c r="F213" s="242"/>
+      <c r="G213" s="242"/>
+      <c r="H213" s="242"/>
       <c r="I213" s="95"/>
       <c r="J213" s="95"/>
       <c r="K213" s="95"/>
@@ -48121,16 +48101,16 @@
     </row>
     <row r="214" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="127"/>
-      <c r="B214" s="289" t="e">
+      <c r="B214" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C214" s="289"/>
-      <c r="D214" s="289"/>
-      <c r="E214" s="289"/>
-      <c r="F214" s="289"/>
-      <c r="G214" s="289"/>
-      <c r="H214" s="289"/>
+      <c r="C214" s="242"/>
+      <c r="D214" s="242"/>
+      <c r="E214" s="242"/>
+      <c r="F214" s="242"/>
+      <c r="G214" s="242"/>
+      <c r="H214" s="242"/>
       <c r="I214" s="95"/>
       <c r="J214" s="95"/>
       <c r="K214" s="95"/>
@@ -48147,16 +48127,16 @@
     </row>
     <row r="215" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="126"/>
-      <c r="B215" s="289" t="e">
+      <c r="B215" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C215" s="289"/>
-      <c r="D215" s="289"/>
-      <c r="E215" s="289"/>
-      <c r="F215" s="289"/>
-      <c r="G215" s="289"/>
-      <c r="H215" s="289"/>
+      <c r="C215" s="242"/>
+      <c r="D215" s="242"/>
+      <c r="E215" s="242"/>
+      <c r="F215" s="242"/>
+      <c r="G215" s="242"/>
+      <c r="H215" s="242"/>
       <c r="I215" s="95"/>
       <c r="J215" s="95"/>
       <c r="K215" s="95"/>
@@ -48175,15 +48155,15 @@
       <c r="A216" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="B216" s="290" t="s">
+      <c r="B216" s="243" t="s">
         <v>362</v>
       </c>
-      <c r="C216" s="290"/>
-      <c r="D216" s="290"/>
-      <c r="E216" s="290"/>
-      <c r="F216" s="290"/>
-      <c r="G216" s="290"/>
-      <c r="H216" s="290"/>
+      <c r="C216" s="243"/>
+      <c r="D216" s="243"/>
+      <c r="E216" s="243"/>
+      <c r="F216" s="243"/>
+      <c r="G216" s="243"/>
+      <c r="H216" s="243"/>
       <c r="I216" s="95"/>
       <c r="J216" s="95"/>
       <c r="K216" s="95"/>
@@ -48199,16 +48179,16 @@
       <c r="U216" s="95"/>
     </row>
     <row r="217" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="289" t="e">
+      <c r="B217" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C217" s="289"/>
-      <c r="D217" s="289"/>
-      <c r="E217" s="289"/>
-      <c r="F217" s="289"/>
-      <c r="G217" s="289"/>
-      <c r="H217" s="289"/>
+      <c r="C217" s="242"/>
+      <c r="D217" s="242"/>
+      <c r="E217" s="242"/>
+      <c r="F217" s="242"/>
+      <c r="G217" s="242"/>
+      <c r="H217" s="242"/>
       <c r="I217" s="95"/>
       <c r="J217" s="95"/>
       <c r="K217" s="95"/>
@@ -48227,16 +48207,16 @@
       <c r="A218" s="128" t="s">
         <v>363</v>
       </c>
-      <c r="B218" s="289" t="e">
+      <c r="B218" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C218" s="289"/>
-      <c r="D218" s="289"/>
-      <c r="E218" s="289"/>
-      <c r="F218" s="289"/>
-      <c r="G218" s="289"/>
-      <c r="H218" s="289"/>
+      <c r="C218" s="242"/>
+      <c r="D218" s="242"/>
+      <c r="E218" s="242"/>
+      <c r="F218" s="242"/>
+      <c r="G218" s="242"/>
+      <c r="H218" s="242"/>
       <c r="I218" s="95"/>
       <c r="J218" s="95"/>
       <c r="K218" s="95"/>
@@ -48256,16 +48236,16 @@
         <f>Cálculos!D169</f>
         <v>N/A</v>
       </c>
-      <c r="B219" s="289" t="e">
+      <c r="B219" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C219" s="289"/>
-      <c r="D219" s="289"/>
-      <c r="E219" s="289"/>
-      <c r="F219" s="289"/>
-      <c r="G219" s="289"/>
-      <c r="H219" s="289"/>
+      <c r="C219" s="242"/>
+      <c r="D219" s="242"/>
+      <c r="E219" s="242"/>
+      <c r="F219" s="242"/>
+      <c r="G219" s="242"/>
+      <c r="H219" s="242"/>
       <c r="I219" s="95"/>
       <c r="J219" s="95"/>
       <c r="K219" s="95"/>
@@ -48282,16 +48262,16 @@
     </row>
     <row r="220" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="127"/>
-      <c r="B220" s="289" t="e">
+      <c r="B220" s="242" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C220" s="289"/>
-      <c r="D220" s="289"/>
-      <c r="E220" s="289"/>
-      <c r="F220" s="289"/>
-      <c r="G220" s="289"/>
-      <c r="H220" s="289"/>
+      <c r="C220" s="242"/>
+      <c r="D220" s="242"/>
+      <c r="E220" s="242"/>
+      <c r="F220" s="242"/>
+      <c r="G220" s="242"/>
+      <c r="H220" s="242"/>
       <c r="I220" s="95"/>
       <c r="J220" s="95"/>
       <c r="K220" s="95"/>
@@ -48308,16 +48288,16 @@
     </row>
     <row r="221" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="126"/>
-      <c r="B221" s="290" t="e">
+      <c r="B221" s="243" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C221" s="290"/>
-      <c r="D221" s="290"/>
-      <c r="E221" s="290"/>
-      <c r="F221" s="290"/>
-      <c r="G221" s="290"/>
-      <c r="H221" s="290"/>
+      <c r="C221" s="243"/>
+      <c r="D221" s="243"/>
+      <c r="E221" s="243"/>
+      <c r="F221" s="243"/>
+      <c r="G221" s="243"/>
+      <c r="H221" s="243"/>
       <c r="I221" s="95"/>
       <c r="J221" s="95"/>
       <c r="K221" s="95"/>
@@ -48619,17 +48599,17 @@
         <v>552</v>
       </c>
       <c r="B234" s="211"/>
-      <c r="C234" s="276" t="s">
+      <c r="C234" s="294" t="s">
         <v>553</v>
       </c>
-      <c r="D234" s="276"/>
-      <c r="E234" s="276">
+      <c r="D234" s="294"/>
+      <c r="E234" s="294">
         <f>'Resultados Informe Final'!D3</f>
         <v>7</v>
       </c>
-      <c r="F234" s="276"/>
-      <c r="G234" s="276"/>
-      <c r="H234" s="276"/>
+      <c r="F234" s="294"/>
+      <c r="G234" s="294"/>
+      <c r="H234" s="294"/>
       <c r="I234" s="95"/>
       <c r="J234" s="95"/>
       <c r="K234" s="95"/>
@@ -48647,17 +48627,17 @@
     <row r="235" spans="1:21" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="211"/>
       <c r="B235" s="211"/>
-      <c r="C235" s="276" t="s">
+      <c r="C235" s="294" t="s">
         <v>554</v>
       </c>
-      <c r="D235" s="276"/>
-      <c r="E235" s="276" t="str">
+      <c r="D235" s="294"/>
+      <c r="E235" s="294" t="str">
         <f>'Resultados Informe Final'!D4</f>
         <v/>
       </c>
-      <c r="F235" s="276"/>
-      <c r="G235" s="276"/>
-      <c r="H235" s="276"/>
+      <c r="F235" s="294"/>
+      <c r="G235" s="294"/>
+      <c r="H235" s="294"/>
       <c r="I235" s="95"/>
       <c r="J235" s="95"/>
       <c r="K235" s="95"/>
@@ -48677,17 +48657,17 @@
         <v>555</v>
       </c>
       <c r="B236" s="211"/>
-      <c r="C236" s="276" t="s">
+      <c r="C236" s="294" t="s">
         <v>556</v>
       </c>
-      <c r="D236" s="276"/>
-      <c r="E236" s="276">
+      <c r="D236" s="294"/>
+      <c r="E236" s="294">
         <f>'Resultados Informe Final'!D5</f>
         <v>6</v>
       </c>
-      <c r="F236" s="276"/>
-      <c r="G236" s="276"/>
-      <c r="H236" s="276"/>
+      <c r="F236" s="294"/>
+      <c r="G236" s="294"/>
+      <c r="H236" s="294"/>
       <c r="I236" s="95"/>
       <c r="J236" s="95"/>
       <c r="K236" s="95"/>
@@ -48705,17 +48685,17 @@
     <row r="237" spans="1:21" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="211"/>
       <c r="B237" s="211"/>
-      <c r="C237" s="276" t="s">
+      <c r="C237" s="294" t="s">
         <v>557</v>
       </c>
-      <c r="D237" s="276"/>
-      <c r="E237" s="276" t="str">
+      <c r="D237" s="294"/>
+      <c r="E237" s="294" t="str">
         <f>'Resultados Informe Final'!D6</f>
         <v/>
       </c>
-      <c r="F237" s="276"/>
-      <c r="G237" s="276"/>
-      <c r="H237" s="276"/>
+      <c r="F237" s="294"/>
+      <c r="G237" s="294"/>
+      <c r="H237" s="294"/>
       <c r="I237" s="95"/>
       <c r="J237" s="95"/>
       <c r="K237" s="95"/>
@@ -48735,17 +48715,17 @@
         <v>558</v>
       </c>
       <c r="B238" s="211"/>
-      <c r="C238" s="276" t="s">
+      <c r="C238" s="294" t="s">
         <v>559</v>
       </c>
-      <c r="D238" s="276"/>
-      <c r="E238" s="276">
+      <c r="D238" s="294"/>
+      <c r="E238" s="294">
         <f>'Resultados Informe Final'!D7</f>
         <v>7</v>
       </c>
-      <c r="F238" s="276"/>
-      <c r="G238" s="276"/>
-      <c r="H238" s="276"/>
+      <c r="F238" s="294"/>
+      <c r="G238" s="294"/>
+      <c r="H238" s="294"/>
       <c r="I238" s="95"/>
       <c r="J238" s="95"/>
       <c r="K238" s="95"/>
@@ -48763,17 +48743,17 @@
     <row r="239" spans="1:21" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="211"/>
       <c r="B239" s="211"/>
-      <c r="C239" s="276" t="s">
+      <c r="C239" s="294" t="s">
         <v>560</v>
       </c>
-      <c r="D239" s="276"/>
-      <c r="E239" s="276" t="str">
+      <c r="D239" s="294"/>
+      <c r="E239" s="294" t="str">
         <f>'Resultados Informe Final'!D8</f>
         <v/>
       </c>
-      <c r="F239" s="276"/>
-      <c r="G239" s="276"/>
-      <c r="H239" s="276"/>
+      <c r="F239" s="294"/>
+      <c r="G239" s="294"/>
+      <c r="H239" s="294"/>
       <c r="I239" s="95"/>
       <c r="J239" s="95"/>
       <c r="K239" s="95"/>
@@ -48789,21 +48769,21 @@
       <c r="U239" s="95"/>
     </row>
     <row r="240" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="277" t="s">
+      <c r="A240" s="293" t="s">
         <v>561</v>
       </c>
-      <c r="B240" s="277"/>
-      <c r="C240" s="276" t="s">
+      <c r="B240" s="293"/>
+      <c r="C240" s="294" t="s">
         <v>615</v>
       </c>
-      <c r="D240" s="276"/>
-      <c r="E240" s="276">
+      <c r="D240" s="294"/>
+      <c r="E240" s="294">
         <f>'Resultados Informe Final'!D9</f>
         <v>8</v>
       </c>
-      <c r="F240" s="276"/>
-      <c r="G240" s="276"/>
-      <c r="H240" s="276"/>
+      <c r="F240" s="294"/>
+      <c r="G240" s="294"/>
+      <c r="H240" s="294"/>
       <c r="I240" s="95"/>
       <c r="J240" s="95"/>
       <c r="K240" s="95"/>
@@ -48819,19 +48799,19 @@
       <c r="U240" s="95"/>
     </row>
     <row r="241" spans="1:21" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="277"/>
-      <c r="B241" s="277"/>
-      <c r="C241" s="276" t="s">
+      <c r="A241" s="293"/>
+      <c r="B241" s="293"/>
+      <c r="C241" s="294" t="s">
         <v>562</v>
       </c>
-      <c r="D241" s="276"/>
-      <c r="E241" s="276" t="str">
+      <c r="D241" s="294"/>
+      <c r="E241" s="294" t="str">
         <f>'Resultados Informe Final'!D10</f>
         <v/>
       </c>
-      <c r="F241" s="276"/>
-      <c r="G241" s="276"/>
-      <c r="H241" s="276"/>
+      <c r="F241" s="294"/>
+      <c r="G241" s="294"/>
+      <c r="H241" s="294"/>
       <c r="I241" s="95"/>
       <c r="J241" s="95"/>
       <c r="K241" s="95"/>
@@ -48851,17 +48831,17 @@
         <v>563</v>
       </c>
       <c r="B242" s="211"/>
-      <c r="C242" s="276" t="s">
+      <c r="C242" s="294" t="s">
         <v>616</v>
       </c>
-      <c r="D242" s="276"/>
-      <c r="E242" s="276">
+      <c r="D242" s="294"/>
+      <c r="E242" s="294">
         <f>'Resultados Informe Final'!D11</f>
         <v>8</v>
       </c>
-      <c r="F242" s="276"/>
-      <c r="G242" s="276"/>
-      <c r="H242" s="276"/>
+      <c r="F242" s="294"/>
+      <c r="G242" s="294"/>
+      <c r="H242" s="294"/>
       <c r="I242" s="95"/>
       <c r="J242" s="95"/>
       <c r="K242" s="95"/>
@@ -48879,17 +48859,17 @@
     <row r="243" spans="1:21" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="211"/>
       <c r="B243" s="211"/>
-      <c r="C243" s="276" t="s">
+      <c r="C243" s="294" t="s">
         <v>564</v>
       </c>
-      <c r="D243" s="276"/>
-      <c r="E243" s="276" t="str">
+      <c r="D243" s="294"/>
+      <c r="E243" s="294" t="str">
         <f>'Resultados Informe Final'!D12</f>
         <v/>
       </c>
-      <c r="F243" s="276"/>
-      <c r="G243" s="276"/>
-      <c r="H243" s="276"/>
+      <c r="F243" s="294"/>
+      <c r="G243" s="294"/>
+      <c r="H243" s="294"/>
       <c r="I243" s="95"/>
       <c r="J243" s="95"/>
       <c r="K243" s="95"/>
@@ -48909,17 +48889,17 @@
         <v>565</v>
       </c>
       <c r="B244" s="211"/>
-      <c r="C244" s="276" t="s">
+      <c r="C244" s="294" t="s">
         <v>566</v>
       </c>
-      <c r="D244" s="276"/>
-      <c r="E244" s="276">
+      <c r="D244" s="294"/>
+      <c r="E244" s="294">
         <f>'Resultados Informe Final'!D13</f>
         <v>9</v>
       </c>
-      <c r="F244" s="276"/>
-      <c r="G244" s="276"/>
-      <c r="H244" s="276"/>
+      <c r="F244" s="294"/>
+      <c r="G244" s="294"/>
+      <c r="H244" s="294"/>
       <c r="I244" s="95"/>
       <c r="J244" s="95"/>
       <c r="K244" s="95"/>
@@ -48937,17 +48917,17 @@
     <row r="245" spans="1:21" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="211"/>
       <c r="B245" s="211"/>
-      <c r="C245" s="276" t="s">
+      <c r="C245" s="294" t="s">
         <v>567</v>
       </c>
-      <c r="D245" s="276"/>
-      <c r="E245" s="276" t="str">
+      <c r="D245" s="294"/>
+      <c r="E245" s="294" t="str">
         <f>'Resultados Informe Final'!D14</f>
         <v/>
       </c>
-      <c r="F245" s="276"/>
-      <c r="G245" s="276"/>
-      <c r="H245" s="276"/>
+      <c r="F245" s="294"/>
+      <c r="G245" s="294"/>
+      <c r="H245" s="294"/>
       <c r="I245" s="95"/>
       <c r="J245" s="95"/>
       <c r="K245" s="95"/>
@@ -48967,17 +48947,17 @@
         <v>568</v>
       </c>
       <c r="B246" s="211"/>
-      <c r="C246" s="276" t="s">
+      <c r="C246" s="294" t="s">
         <v>569</v>
       </c>
-      <c r="D246" s="276"/>
-      <c r="E246" s="276">
+      <c r="D246" s="294"/>
+      <c r="E246" s="294">
         <f>'Resultados Informe Final'!D15</f>
         <v>0</v>
       </c>
-      <c r="F246" s="276"/>
-      <c r="G246" s="276"/>
-      <c r="H246" s="276"/>
+      <c r="F246" s="294"/>
+      <c r="G246" s="294"/>
+      <c r="H246" s="294"/>
       <c r="I246" s="95"/>
       <c r="J246" s="95"/>
       <c r="K246" s="95"/>
@@ -48995,17 +48975,17 @@
     <row r="247" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="211"/>
       <c r="B247" s="211"/>
-      <c r="C247" s="276" t="s">
+      <c r="C247" s="294" t="s">
         <v>570</v>
       </c>
-      <c r="D247" s="276"/>
-      <c r="E247" s="276" t="str">
+      <c r="D247" s="294"/>
+      <c r="E247" s="294" t="str">
         <f>'Resultados Informe Final'!D16</f>
         <v/>
       </c>
-      <c r="F247" s="276"/>
-      <c r="G247" s="276"/>
-      <c r="H247" s="276"/>
+      <c r="F247" s="294"/>
+      <c r="G247" s="294"/>
+      <c r="H247" s="294"/>
       <c r="I247" s="95"/>
       <c r="J247" s="95"/>
       <c r="K247" s="95"/>
@@ -49025,17 +49005,17 @@
         <v>571</v>
       </c>
       <c r="B248" s="211"/>
-      <c r="C248" s="276" t="s">
+      <c r="C248" s="294" t="s">
         <v>572</v>
       </c>
-      <c r="D248" s="276"/>
-      <c r="E248" s="276">
+      <c r="D248" s="294"/>
+      <c r="E248" s="294">
         <f>'Resultados Informe Final'!D17</f>
         <v>5</v>
       </c>
-      <c r="F248" s="276"/>
-      <c r="G248" s="276"/>
-      <c r="H248" s="276"/>
+      <c r="F248" s="294"/>
+      <c r="G248" s="294"/>
+      <c r="H248" s="294"/>
       <c r="I248" s="95"/>
       <c r="J248" s="95"/>
       <c r="K248" s="95"/>
@@ -49053,17 +49033,17 @@
     <row r="249" spans="1:21" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="211"/>
       <c r="B249" s="211"/>
-      <c r="C249" s="276" t="s">
+      <c r="C249" s="294" t="s">
         <v>573</v>
       </c>
-      <c r="D249" s="276"/>
-      <c r="E249" s="276" t="str">
+      <c r="D249" s="294"/>
+      <c r="E249" s="294" t="str">
         <f>'Resultados Informe Final'!D18</f>
         <v/>
       </c>
-      <c r="F249" s="276"/>
-      <c r="G249" s="276"/>
-      <c r="H249" s="276"/>
+      <c r="F249" s="294"/>
+      <c r="G249" s="294"/>
+      <c r="H249" s="294"/>
       <c r="I249" s="95"/>
       <c r="J249" s="95"/>
       <c r="K249" s="95"/>
@@ -49083,17 +49063,17 @@
         <v>574</v>
       </c>
       <c r="B250" s="211"/>
-      <c r="C250" s="276" t="s">
+      <c r="C250" s="294" t="s">
         <v>575</v>
       </c>
-      <c r="D250" s="276"/>
-      <c r="E250" s="276">
+      <c r="D250" s="294"/>
+      <c r="E250" s="294">
         <f>'Resultados Informe Final'!D19</f>
         <v>7</v>
       </c>
-      <c r="F250" s="276"/>
-      <c r="G250" s="276"/>
-      <c r="H250" s="276"/>
+      <c r="F250" s="294"/>
+      <c r="G250" s="294"/>
+      <c r="H250" s="294"/>
       <c r="I250" s="95"/>
       <c r="J250" s="95"/>
       <c r="K250" s="95"/>
@@ -49111,17 +49091,17 @@
     <row r="251" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="211"/>
       <c r="B251" s="211"/>
-      <c r="C251" s="276" t="s">
+      <c r="C251" s="294" t="s">
         <v>576</v>
       </c>
-      <c r="D251" s="276"/>
-      <c r="E251" s="276" t="str">
+      <c r="D251" s="294"/>
+      <c r="E251" s="294" t="str">
         <f>'Resultados Informe Final'!D20</f>
         <v/>
       </c>
-      <c r="F251" s="276"/>
-      <c r="G251" s="276"/>
-      <c r="H251" s="276"/>
+      <c r="F251" s="294"/>
+      <c r="G251" s="294"/>
+      <c r="H251" s="294"/>
       <c r="I251" s="95"/>
       <c r="J251" s="95"/>
       <c r="K251" s="95"/>
@@ -49141,17 +49121,17 @@
         <v>577</v>
       </c>
       <c r="B252" s="211"/>
-      <c r="C252" s="276" t="s">
+      <c r="C252" s="294" t="s">
         <v>578</v>
       </c>
-      <c r="D252" s="276"/>
-      <c r="E252" s="276">
+      <c r="D252" s="294"/>
+      <c r="E252" s="294">
         <f>'Resultados Informe Final'!D21</f>
         <v>5</v>
       </c>
-      <c r="F252" s="276"/>
-      <c r="G252" s="276"/>
-      <c r="H252" s="276"/>
+      <c r="F252" s="294"/>
+      <c r="G252" s="294"/>
+      <c r="H252" s="294"/>
       <c r="I252" s="95"/>
       <c r="J252" s="95"/>
       <c r="K252" s="95"/>
@@ -49169,17 +49149,17 @@
     <row r="253" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="211"/>
       <c r="B253" s="211"/>
-      <c r="C253" s="276" t="s">
+      <c r="C253" s="294" t="s">
         <v>579</v>
       </c>
-      <c r="D253" s="276"/>
-      <c r="E253" s="276" t="str">
+      <c r="D253" s="294"/>
+      <c r="E253" s="294" t="str">
         <f>'Resultados Informe Final'!D22</f>
         <v/>
       </c>
-      <c r="F253" s="276"/>
-      <c r="G253" s="276"/>
-      <c r="H253" s="276"/>
+      <c r="F253" s="294"/>
+      <c r="G253" s="294"/>
+      <c r="H253" s="294"/>
       <c r="I253" s="95"/>
       <c r="J253" s="95"/>
       <c r="K253" s="95"/>
@@ -49195,21 +49175,21 @@
       <c r="U253" s="95"/>
     </row>
     <row r="254" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="277" t="s">
+      <c r="A254" s="293" t="s">
         <v>580</v>
       </c>
-      <c r="B254" s="277"/>
-      <c r="C254" s="276" t="s">
+      <c r="B254" s="293"/>
+      <c r="C254" s="294" t="s">
         <v>581</v>
       </c>
-      <c r="D254" s="276"/>
-      <c r="E254" s="276" t="str">
+      <c r="D254" s="294"/>
+      <c r="E254" s="294" t="str">
         <f>'Resultados Informe Final'!D23</f>
         <v>N/A</v>
       </c>
-      <c r="F254" s="276"/>
-      <c r="G254" s="276"/>
-      <c r="H254" s="276"/>
+      <c r="F254" s="294"/>
+      <c r="G254" s="294"/>
+      <c r="H254" s="294"/>
       <c r="I254" s="95"/>
       <c r="J254" s="95"/>
       <c r="K254" s="95"/>
@@ -49225,19 +49205,19 @@
       <c r="U254" s="95"/>
     </row>
     <row r="255" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="277"/>
-      <c r="B255" s="277"/>
-      <c r="C255" s="276" t="s">
+      <c r="A255" s="293"/>
+      <c r="B255" s="293"/>
+      <c r="C255" s="294" t="s">
         <v>582</v>
       </c>
-      <c r="D255" s="276"/>
-      <c r="E255" s="276" t="str">
+      <c r="D255" s="294"/>
+      <c r="E255" s="294" t="str">
         <f>'Resultados Informe Final'!D24</f>
         <v/>
       </c>
-      <c r="F255" s="276"/>
-      <c r="G255" s="276"/>
-      <c r="H255" s="276"/>
+      <c r="F255" s="294"/>
+      <c r="G255" s="294"/>
+      <c r="H255" s="294"/>
       <c r="I255" s="95"/>
       <c r="J255" s="95"/>
       <c r="K255" s="95"/>
@@ -49257,17 +49237,17 @@
         <v>583</v>
       </c>
       <c r="B256" s="211"/>
-      <c r="C256" s="276" t="s">
+      <c r="C256" s="294" t="s">
         <v>584</v>
       </c>
-      <c r="D256" s="276"/>
-      <c r="E256" s="276">
+      <c r="D256" s="294"/>
+      <c r="E256" s="294">
         <f>'Resultados Informe Final'!D25</f>
         <v>7</v>
       </c>
-      <c r="F256" s="276"/>
-      <c r="G256" s="276"/>
-      <c r="H256" s="276"/>
+      <c r="F256" s="294"/>
+      <c r="G256" s="294"/>
+      <c r="H256" s="294"/>
       <c r="I256" s="95"/>
       <c r="J256" s="95"/>
       <c r="K256" s="95"/>
@@ -49285,17 +49265,17 @@
     <row r="257" spans="1:21" ht="351.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="211"/>
       <c r="B257" s="211"/>
-      <c r="C257" s="276" t="s">
+      <c r="C257" s="294" t="s">
         <v>585</v>
       </c>
-      <c r="D257" s="276"/>
-      <c r="E257" s="276" t="str">
+      <c r="D257" s="294"/>
+      <c r="E257" s="294" t="str">
         <f>'Resultados Informe Final'!D26</f>
         <v/>
       </c>
-      <c r="F257" s="276"/>
-      <c r="G257" s="276"/>
-      <c r="H257" s="276"/>
+      <c r="F257" s="294"/>
+      <c r="G257" s="294"/>
+      <c r="H257" s="294"/>
       <c r="I257" s="95"/>
       <c r="J257" s="95"/>
       <c r="K257" s="95"/>
@@ -49315,17 +49295,17 @@
         <v>586</v>
       </c>
       <c r="B258" s="211"/>
-      <c r="C258" s="276" t="s">
+      <c r="C258" s="294" t="s">
         <v>587</v>
       </c>
-      <c r="D258" s="276"/>
-      <c r="E258" s="276">
+      <c r="D258" s="294"/>
+      <c r="E258" s="294">
         <f>'Resultados Informe Final'!D27</f>
         <v>8</v>
       </c>
-      <c r="F258" s="276"/>
-      <c r="G258" s="276"/>
-      <c r="H258" s="276"/>
+      <c r="F258" s="294"/>
+      <c r="G258" s="294"/>
+      <c r="H258" s="294"/>
       <c r="I258" s="95"/>
       <c r="J258" s="95"/>
       <c r="K258" s="95"/>
@@ -49343,17 +49323,17 @@
     <row r="259" spans="1:21" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="211"/>
       <c r="B259" s="211"/>
-      <c r="C259" s="276" t="s">
+      <c r="C259" s="294" t="s">
         <v>588</v>
       </c>
-      <c r="D259" s="276"/>
-      <c r="E259" s="276" t="str">
+      <c r="D259" s="294"/>
+      <c r="E259" s="294" t="str">
         <f>'Resultados Informe Final'!D28</f>
         <v/>
       </c>
-      <c r="F259" s="276"/>
-      <c r="G259" s="276"/>
-      <c r="H259" s="276"/>
+      <c r="F259" s="294"/>
+      <c r="G259" s="294"/>
+      <c r="H259" s="294"/>
       <c r="I259" s="95"/>
       <c r="J259" s="95"/>
       <c r="K259" s="95"/>
@@ -49373,17 +49353,17 @@
         <v>589</v>
       </c>
       <c r="B260" s="211"/>
-      <c r="C260" s="276" t="s">
+      <c r="C260" s="294" t="s">
         <v>587</v>
       </c>
-      <c r="D260" s="276"/>
-      <c r="E260" s="276">
+      <c r="D260" s="294"/>
+      <c r="E260" s="294">
         <f>'Resultados Informe Final'!D29</f>
         <v>6</v>
       </c>
-      <c r="F260" s="276"/>
-      <c r="G260" s="276"/>
-      <c r="H260" s="276"/>
+      <c r="F260" s="294"/>
+      <c r="G260" s="294"/>
+      <c r="H260" s="294"/>
       <c r="I260" s="95"/>
       <c r="J260" s="95"/>
       <c r="K260" s="95"/>
@@ -49401,17 +49381,17 @@
     <row r="261" spans="1:21" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="211"/>
       <c r="B261" s="211"/>
-      <c r="C261" s="276" t="s">
+      <c r="C261" s="294" t="s">
         <v>590</v>
       </c>
-      <c r="D261" s="276"/>
-      <c r="E261" s="276" t="str">
+      <c r="D261" s="294"/>
+      <c r="E261" s="294" t="str">
         <f>'Resultados Informe Final'!D30</f>
         <v/>
       </c>
-      <c r="F261" s="276"/>
-      <c r="G261" s="276"/>
-      <c r="H261" s="276"/>
+      <c r="F261" s="294"/>
+      <c r="G261" s="294"/>
+      <c r="H261" s="294"/>
       <c r="I261" s="95"/>
       <c r="J261" s="95"/>
       <c r="K261" s="95"/>
@@ -49431,17 +49411,17 @@
         <v>591</v>
       </c>
       <c r="B262" s="211"/>
-      <c r="C262" s="276" t="s">
+      <c r="C262" s="294" t="s">
         <v>592</v>
       </c>
-      <c r="D262" s="276"/>
-      <c r="E262" s="276">
+      <c r="D262" s="294"/>
+      <c r="E262" s="294">
         <f>'Resultados Informe Final'!D31</f>
         <v>8</v>
       </c>
-      <c r="F262" s="276"/>
-      <c r="G262" s="276"/>
-      <c r="H262" s="276"/>
+      <c r="F262" s="294"/>
+      <c r="G262" s="294"/>
+      <c r="H262" s="294"/>
       <c r="I262" s="95"/>
       <c r="J262" s="95"/>
       <c r="K262" s="95"/>
@@ -49459,17 +49439,17 @@
     <row r="263" spans="1:21" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="211"/>
       <c r="B263" s="211"/>
-      <c r="C263" s="276" t="s">
+      <c r="C263" s="294" t="s">
         <v>560</v>
       </c>
-      <c r="D263" s="276"/>
-      <c r="E263" s="276">
+      <c r="D263" s="294"/>
+      <c r="E263" s="294">
         <f>'Resultados Informe Final'!D32</f>
         <v>0</v>
       </c>
-      <c r="F263" s="276"/>
-      <c r="G263" s="276"/>
-      <c r="H263" s="276"/>
+      <c r="F263" s="294"/>
+      <c r="G263" s="294"/>
+      <c r="H263" s="294"/>
       <c r="I263" s="95"/>
       <c r="J263" s="95"/>
       <c r="K263" s="95"/>
@@ -49927,19 +49907,19 @@
       <c r="U282" s="95"/>
     </row>
     <row r="283" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="267" t="s">
+      <c r="A283" s="304" t="s">
         <v>246</v>
       </c>
-      <c r="B283" s="267"/>
-      <c r="C283" s="267" t="s">
+      <c r="B283" s="304"/>
+      <c r="C283" s="304" t="s">
         <v>248</v>
       </c>
-      <c r="D283" s="267"/>
-      <c r="E283" s="267"/>
-      <c r="F283" s="268" t="s">
+      <c r="D283" s="304"/>
+      <c r="E283" s="304"/>
+      <c r="F283" s="305" t="s">
         <v>363</v>
       </c>
-      <c r="G283" s="268"/>
+      <c r="G283" s="305"/>
       <c r="H283" s="186" t="str">
         <f>Cálculos!I178</f>
         <v>Puntuación del criterio</v>
@@ -49959,21 +49939,21 @@
       <c r="U283" s="95"/>
     </row>
     <row r="284" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="273" t="s">
+      <c r="A284" s="299" t="s">
         <v>250</v>
       </c>
-      <c r="B284" s="273"/>
-      <c r="C284" s="265" t="s">
+      <c r="B284" s="299"/>
+      <c r="C284" s="302" t="s">
         <v>135</v>
       </c>
-      <c r="D284" s="265"/>
-      <c r="E284" s="265"/>
-      <c r="F284" s="261">
+      <c r="D284" s="302"/>
+      <c r="E284" s="302"/>
+      <c r="F284" s="306">
         <f>Cálculos!E179</f>
         <v>4.5</v>
       </c>
-      <c r="G284" s="261"/>
-      <c r="H284" s="269">
+      <c r="G284" s="306"/>
+      <c r="H284" s="295">
         <f>Cálculos!I179</f>
         <v>2.9425901326378163</v>
       </c>
@@ -49992,19 +49972,19 @@
       <c r="U284" s="95"/>
     </row>
     <row r="285" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A285" s="273"/>
-      <c r="B285" s="273"/>
-      <c r="C285" s="266" t="s">
+      <c r="A285" s="299"/>
+      <c r="B285" s="299"/>
+      <c r="C285" s="303" t="s">
         <v>136</v>
       </c>
-      <c r="D285" s="266"/>
-      <c r="E285" s="266"/>
-      <c r="F285" s="262">
+      <c r="D285" s="303"/>
+      <c r="E285" s="303"/>
+      <c r="F285" s="307">
         <f>Cálculos!E180</f>
         <v>0</v>
       </c>
-      <c r="G285" s="262"/>
-      <c r="H285" s="269"/>
+      <c r="G285" s="307"/>
+      <c r="H285" s="295"/>
       <c r="I285" s="95"/>
       <c r="J285" s="95"/>
       <c r="K285" s="95"/>
@@ -50020,19 +50000,19 @@
       <c r="U285" s="95"/>
     </row>
     <row r="286" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A286" s="273"/>
-      <c r="B286" s="273"/>
-      <c r="C286" s="265" t="s">
+      <c r="A286" s="299"/>
+      <c r="B286" s="299"/>
+      <c r="C286" s="302" t="s">
         <v>137</v>
       </c>
-      <c r="D286" s="265"/>
-      <c r="E286" s="265"/>
-      <c r="F286" s="261">
+      <c r="D286" s="302"/>
+      <c r="E286" s="302"/>
+      <c r="F286" s="306">
         <f>Cálculos!E181</f>
         <v>2.5</v>
       </c>
-      <c r="G286" s="261"/>
-      <c r="H286" s="269"/>
+      <c r="G286" s="306"/>
+      <c r="H286" s="295"/>
       <c r="I286" s="95"/>
       <c r="J286" s="95"/>
       <c r="K286" s="95"/>
@@ -50048,19 +50028,19 @@
       <c r="U286" s="95"/>
     </row>
     <row r="287" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A287" s="273"/>
-      <c r="B287" s="273"/>
-      <c r="C287" s="266" t="s">
+      <c r="A287" s="299"/>
+      <c r="B287" s="299"/>
+      <c r="C287" s="303" t="s">
         <v>138</v>
       </c>
-      <c r="D287" s="266"/>
-      <c r="E287" s="266"/>
-      <c r="F287" s="262">
+      <c r="D287" s="303"/>
+      <c r="E287" s="303"/>
+      <c r="F287" s="307">
         <f>Cálculos!E182</f>
         <v>3.5</v>
       </c>
-      <c r="G287" s="262"/>
-      <c r="H287" s="269"/>
+      <c r="G287" s="307"/>
+      <c r="H287" s="295"/>
       <c r="I287" s="95"/>
       <c r="J287" s="95"/>
       <c r="K287" s="95"/>
@@ -50076,19 +50056,19 @@
       <c r="U287" s="95"/>
     </row>
     <row r="288" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A288" s="273"/>
-      <c r="B288" s="273"/>
-      <c r="C288" s="265" t="s">
+      <c r="A288" s="299"/>
+      <c r="B288" s="299"/>
+      <c r="C288" s="302" t="s">
         <v>251</v>
       </c>
-      <c r="D288" s="265"/>
-      <c r="E288" s="265"/>
-      <c r="F288" s="261" t="str">
+      <c r="D288" s="302"/>
+      <c r="E288" s="302"/>
+      <c r="F288" s="306" t="str">
         <f>Cálculos!E183</f>
         <v>N/A</v>
       </c>
-      <c r="G288" s="261"/>
-      <c r="H288" s="269"/>
+      <c r="G288" s="306"/>
+      <c r="H288" s="295"/>
       <c r="I288" s="95"/>
       <c r="J288" s="95"/>
       <c r="K288" s="95"/>
@@ -50108,17 +50088,17 @@
         <v>252</v>
       </c>
       <c r="B289" s="211"/>
-      <c r="C289" s="266" t="s">
+      <c r="C289" s="303" t="s">
         <v>91</v>
       </c>
-      <c r="D289" s="266"/>
-      <c r="E289" s="266"/>
-      <c r="F289" s="262" t="str">
+      <c r="D289" s="303"/>
+      <c r="E289" s="303"/>
+      <c r="F289" s="307" t="str">
         <f>Cálculos!E184</f>
         <v>N/A</v>
       </c>
-      <c r="G289" s="262"/>
-      <c r="H289" s="270" t="str">
+      <c r="G289" s="307"/>
+      <c r="H289" s="296" t="str">
         <f>Cálculos!I184</f>
         <v>N/A</v>
       </c>
@@ -50139,17 +50119,17 @@
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="211"/>
       <c r="B290" s="211"/>
-      <c r="C290" s="265" t="s">
+      <c r="C290" s="302" t="s">
         <v>95</v>
       </c>
-      <c r="D290" s="265"/>
-      <c r="E290" s="265"/>
-      <c r="F290" s="261" t="str">
+      <c r="D290" s="302"/>
+      <c r="E290" s="302"/>
+      <c r="F290" s="306" t="str">
         <f>Cálculos!E185</f>
         <v>N/A</v>
       </c>
-      <c r="G290" s="261"/>
-      <c r="H290" s="270"/>
+      <c r="G290" s="306"/>
+      <c r="H290" s="296"/>
       <c r="I290" s="95"/>
       <c r="J290" s="95"/>
       <c r="K290" s="95"/>
@@ -50165,21 +50145,21 @@
       <c r="U290" s="95"/>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A291" s="273" t="s">
+      <c r="A291" s="299" t="s">
         <v>253</v>
       </c>
-      <c r="B291" s="273"/>
-      <c r="C291" s="266" t="s">
+      <c r="B291" s="299"/>
+      <c r="C291" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="D291" s="266"/>
-      <c r="E291" s="266"/>
-      <c r="F291" s="262">
+      <c r="D291" s="303"/>
+      <c r="E291" s="303"/>
+      <c r="F291" s="307">
         <f>Cálculos!E186</f>
         <v>4.21875</v>
       </c>
-      <c r="G291" s="262"/>
-      <c r="H291" s="271">
+      <c r="G291" s="307"/>
+      <c r="H291" s="297">
         <f>Cálculos!I186</f>
         <v>4.1472331237690421</v>
       </c>
@@ -50198,19 +50178,19 @@
       <c r="U291" s="95"/>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A292" s="273"/>
-      <c r="B292" s="273"/>
-      <c r="C292" s="265" t="s">
+      <c r="A292" s="299"/>
+      <c r="B292" s="299"/>
+      <c r="C292" s="302" t="s">
         <v>107</v>
       </c>
-      <c r="D292" s="265"/>
-      <c r="E292" s="265"/>
-      <c r="F292" s="261">
+      <c r="D292" s="302"/>
+      <c r="E292" s="302"/>
+      <c r="F292" s="306">
         <f>Cálculos!E187</f>
         <v>5</v>
       </c>
-      <c r="G292" s="261"/>
-      <c r="H292" s="271"/>
+      <c r="G292" s="306"/>
+      <c r="H292" s="297"/>
       <c r="I292" s="95"/>
       <c r="J292" s="95"/>
       <c r="K292" s="95"/>
@@ -50226,19 +50206,19 @@
       <c r="U292" s="95"/>
     </row>
     <row r="293" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A293" s="273"/>
-      <c r="B293" s="273"/>
-      <c r="C293" s="266" t="s">
+      <c r="A293" s="299"/>
+      <c r="B293" s="299"/>
+      <c r="C293" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="D293" s="266"/>
-      <c r="E293" s="266"/>
-      <c r="F293" s="262">
+      <c r="D293" s="303"/>
+      <c r="E293" s="303"/>
+      <c r="F293" s="307">
         <f>Cálculos!E188</f>
         <v>4.0625</v>
       </c>
-      <c r="G293" s="262"/>
-      <c r="H293" s="271"/>
+      <c r="G293" s="307"/>
+      <c r="H293" s="297"/>
       <c r="I293" s="95"/>
       <c r="J293" s="95"/>
       <c r="K293" s="95"/>
@@ -50254,19 +50234,19 @@
       <c r="U293" s="95"/>
     </row>
     <row r="294" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A294" s="273"/>
-      <c r="B294" s="273"/>
-      <c r="C294" s="265" t="s">
+      <c r="A294" s="299"/>
+      <c r="B294" s="299"/>
+      <c r="C294" s="302" t="s">
         <v>109</v>
       </c>
-      <c r="D294" s="265"/>
-      <c r="E294" s="265"/>
-      <c r="F294" s="261">
+      <c r="D294" s="302"/>
+      <c r="E294" s="302"/>
+      <c r="F294" s="306">
         <f>Cálculos!E189</f>
         <v>4.375</v>
       </c>
-      <c r="G294" s="261"/>
-      <c r="H294" s="271"/>
+      <c r="G294" s="306"/>
+      <c r="H294" s="297"/>
       <c r="I294" s="95"/>
       <c r="J294" s="95"/>
       <c r="K294" s="95"/>
@@ -50282,19 +50262,19 @@
       <c r="U294" s="95"/>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A295" s="273"/>
-      <c r="B295" s="273"/>
-      <c r="C295" s="266" t="s">
+      <c r="A295" s="299"/>
+      <c r="B295" s="299"/>
+      <c r="C295" s="303" t="s">
         <v>110</v>
       </c>
-      <c r="D295" s="266"/>
-      <c r="E295" s="266"/>
-      <c r="F295" s="262">
+      <c r="D295" s="303"/>
+      <c r="E295" s="303"/>
+      <c r="F295" s="307">
         <f>Cálculos!E190</f>
         <v>4.0625</v>
       </c>
-      <c r="G295" s="262"/>
-      <c r="H295" s="271"/>
+      <c r="G295" s="307"/>
+      <c r="H295" s="297"/>
       <c r="I295" s="95"/>
       <c r="J295" s="95"/>
       <c r="K295" s="95"/>
@@ -50310,19 +50290,19 @@
       <c r="U295" s="95"/>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A296" s="273"/>
-      <c r="B296" s="273"/>
-      <c r="C296" s="265" t="s">
+      <c r="A296" s="299"/>
+      <c r="B296" s="299"/>
+      <c r="C296" s="302" t="s">
         <v>111</v>
       </c>
-      <c r="D296" s="265"/>
-      <c r="E296" s="265"/>
-      <c r="F296" s="261">
+      <c r="D296" s="302"/>
+      <c r="E296" s="302"/>
+      <c r="F296" s="306">
         <f>Cálculos!E191</f>
         <v>3.75</v>
       </c>
-      <c r="G296" s="261"/>
-      <c r="H296" s="271"/>
+      <c r="G296" s="306"/>
+      <c r="H296" s="297"/>
       <c r="I296" s="95"/>
       <c r="J296" s="95"/>
       <c r="K296" s="95"/>
@@ -50338,19 +50318,19 @@
       <c r="U296" s="95"/>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A297" s="273"/>
-      <c r="B297" s="273"/>
-      <c r="C297" s="266" t="s">
+      <c r="A297" s="299"/>
+      <c r="B297" s="299"/>
+      <c r="C297" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="D297" s="266"/>
-      <c r="E297" s="266"/>
-      <c r="F297" s="262">
+      <c r="D297" s="303"/>
+      <c r="E297" s="303"/>
+      <c r="F297" s="307">
         <f>Cálculos!E192</f>
         <v>3.125</v>
       </c>
-      <c r="G297" s="262"/>
-      <c r="H297" s="271"/>
+      <c r="G297" s="307"/>
+      <c r="H297" s="297"/>
       <c r="I297" s="95"/>
       <c r="J297" s="95"/>
       <c r="K297" s="95"/>
@@ -50366,19 +50346,19 @@
       <c r="U297" s="95"/>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A298" s="273"/>
-      <c r="B298" s="273"/>
-      <c r="C298" s="265" t="s">
+      <c r="A298" s="299"/>
+      <c r="B298" s="299"/>
+      <c r="C298" s="302" t="s">
         <v>113</v>
       </c>
-      <c r="D298" s="265"/>
-      <c r="E298" s="265"/>
-      <c r="F298" s="261">
+      <c r="D298" s="302"/>
+      <c r="E298" s="302"/>
+      <c r="F298" s="306">
         <f>Cálculos!E193</f>
         <v>4.84375</v>
       </c>
-      <c r="G298" s="261"/>
-      <c r="H298" s="271"/>
+      <c r="G298" s="306"/>
+      <c r="H298" s="297"/>
       <c r="I298" s="95"/>
       <c r="J298" s="95"/>
       <c r="K298" s="95"/>
@@ -50394,19 +50374,19 @@
       <c r="U298" s="95"/>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A299" s="273"/>
-      <c r="B299" s="273"/>
-      <c r="C299" s="266" t="s">
+      <c r="A299" s="299"/>
+      <c r="B299" s="299"/>
+      <c r="C299" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="D299" s="266"/>
-      <c r="E299" s="266"/>
-      <c r="F299" s="262">
+      <c r="D299" s="303"/>
+      <c r="E299" s="303"/>
+      <c r="F299" s="307">
         <f>Cálculos!E194</f>
         <v>4.375</v>
       </c>
-      <c r="G299" s="262"/>
-      <c r="H299" s="271"/>
+      <c r="G299" s="307"/>
+      <c r="H299" s="297"/>
       <c r="I299" s="95"/>
       <c r="J299" s="95"/>
       <c r="K299" s="95"/>
@@ -50426,17 +50406,17 @@
         <v>367</v>
       </c>
       <c r="B300" s="211"/>
-      <c r="C300" s="265" t="s">
+      <c r="C300" s="302" t="s">
         <v>372</v>
       </c>
-      <c r="D300" s="265"/>
-      <c r="E300" s="265"/>
-      <c r="F300" s="261">
+      <c r="D300" s="302"/>
+      <c r="E300" s="302"/>
+      <c r="F300" s="306">
         <f>Cálculos!E195</f>
         <v>3.5</v>
       </c>
-      <c r="G300" s="261"/>
-      <c r="H300" s="270">
+      <c r="G300" s="306"/>
+      <c r="H300" s="296">
         <f>Cálculos!I195</f>
         <v>3.6678475235760901</v>
       </c>
@@ -50457,17 +50437,17 @@
     <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="211"/>
       <c r="B301" s="211"/>
-      <c r="C301" s="266" t="s">
+      <c r="C301" s="303" t="s">
         <v>373</v>
       </c>
-      <c r="D301" s="266"/>
-      <c r="E301" s="266"/>
-      <c r="F301" s="262">
+      <c r="D301" s="303"/>
+      <c r="E301" s="303"/>
+      <c r="F301" s="307">
         <f>Cálculos!E196</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="G301" s="262"/>
-      <c r="H301" s="270"/>
+      <c r="G301" s="307"/>
+      <c r="H301" s="296"/>
       <c r="I301" s="95"/>
       <c r="J301" s="95"/>
       <c r="K301" s="95"/>
@@ -50485,17 +50465,17 @@
     <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="211"/>
       <c r="B302" s="211"/>
-      <c r="C302" s="265" t="s">
+      <c r="C302" s="302" t="s">
         <v>368</v>
       </c>
-      <c r="D302" s="265"/>
-      <c r="E302" s="265"/>
-      <c r="F302" s="261">
+      <c r="D302" s="302"/>
+      <c r="E302" s="302"/>
+      <c r="F302" s="306">
         <f>Cálculos!E197</f>
         <v>4</v>
       </c>
-      <c r="G302" s="261"/>
-      <c r="H302" s="270"/>
+      <c r="G302" s="306"/>
+      <c r="H302" s="296"/>
       <c r="I302" s="95"/>
       <c r="J302" s="95"/>
       <c r="K302" s="95"/>
@@ -50513,17 +50493,17 @@
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="211"/>
       <c r="B303" s="211"/>
-      <c r="C303" s="266" t="s">
+      <c r="C303" s="303" t="s">
         <v>369</v>
       </c>
-      <c r="D303" s="266"/>
-      <c r="E303" s="266"/>
-      <c r="F303" s="262">
+      <c r="D303" s="303"/>
+      <c r="E303" s="303"/>
+      <c r="F303" s="307">
         <f>Cálculos!E198</f>
         <v>3</v>
       </c>
-      <c r="G303" s="262"/>
-      <c r="H303" s="270"/>
+      <c r="G303" s="307"/>
+      <c r="H303" s="296"/>
       <c r="I303" s="95"/>
       <c r="J303" s="95"/>
       <c r="K303" s="95"/>
@@ -50541,17 +50521,17 @@
     <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="211"/>
       <c r="B304" s="211"/>
-      <c r="C304" s="265" t="s">
+      <c r="C304" s="302" t="s">
         <v>370</v>
       </c>
-      <c r="D304" s="265"/>
-      <c r="E304" s="265"/>
-      <c r="F304" s="261">
+      <c r="D304" s="302"/>
+      <c r="E304" s="302"/>
+      <c r="F304" s="306">
         <f>Cálculos!E199</f>
         <v>4</v>
       </c>
-      <c r="G304" s="261"/>
-      <c r="H304" s="270"/>
+      <c r="G304" s="306"/>
+      <c r="H304" s="296"/>
       <c r="I304" s="95"/>
       <c r="J304" s="95"/>
       <c r="K304" s="95"/>
@@ -50620,19 +50600,19 @@
       <c r="U306" s="95"/>
     </row>
     <row r="307" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="267" t="s">
+      <c r="A307" s="304" t="s">
         <v>246</v>
       </c>
-      <c r="B307" s="267"/>
-      <c r="C307" s="267" t="s">
+      <c r="B307" s="304"/>
+      <c r="C307" s="304" t="s">
         <v>248</v>
       </c>
-      <c r="D307" s="267"/>
-      <c r="E307" s="267"/>
-      <c r="F307" s="263" t="s">
+      <c r="D307" s="304"/>
+      <c r="E307" s="304"/>
+      <c r="F307" s="310" t="s">
         <v>363</v>
       </c>
-      <c r="G307" s="264"/>
+      <c r="G307" s="311"/>
       <c r="H307" s="186" t="s">
         <v>365</v>
       </c>
@@ -50651,21 +50631,21 @@
       <c r="U307" s="95"/>
     </row>
     <row r="308" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A308" s="274" t="s">
+      <c r="A308" s="300" t="s">
         <v>254</v>
       </c>
-      <c r="B308" s="274"/>
-      <c r="C308" s="266" t="s">
+      <c r="B308" s="300"/>
+      <c r="C308" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="D308" s="266"/>
-      <c r="E308" s="266"/>
-      <c r="F308" s="262">
+      <c r="D308" s="303"/>
+      <c r="E308" s="303"/>
+      <c r="F308" s="307">
         <f>Cálculos!E202</f>
         <v>4.21875</v>
       </c>
-      <c r="G308" s="262"/>
-      <c r="H308" s="272">
+      <c r="G308" s="307"/>
+      <c r="H308" s="298">
         <f>Cálculos!I202</f>
         <v>3.9633839834307523</v>
       </c>
@@ -50684,19 +50664,19 @@
       <c r="U308" s="95"/>
     </row>
     <row r="309" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A309" s="275"/>
-      <c r="B309" s="275"/>
-      <c r="C309" s="265" t="s">
+      <c r="A309" s="301"/>
+      <c r="B309" s="301"/>
+      <c r="C309" s="302" t="s">
         <v>103</v>
       </c>
-      <c r="D309" s="265"/>
-      <c r="E309" s="265"/>
-      <c r="F309" s="261">
+      <c r="D309" s="302"/>
+      <c r="E309" s="302"/>
+      <c r="F309" s="306">
         <f>Cálculos!E203</f>
         <v>4.21875</v>
       </c>
-      <c r="G309" s="261"/>
-      <c r="H309" s="271"/>
+      <c r="G309" s="306"/>
+      <c r="H309" s="297"/>
       <c r="I309" s="95"/>
       <c r="J309" s="95"/>
       <c r="K309" s="95"/>
@@ -50712,19 +50692,19 @@
       <c r="U309" s="95"/>
     </row>
     <row r="310" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A310" s="275"/>
-      <c r="B310" s="275"/>
-      <c r="C310" s="266" t="s">
+      <c r="A310" s="301"/>
+      <c r="B310" s="301"/>
+      <c r="C310" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="D310" s="266"/>
-      <c r="E310" s="266"/>
-      <c r="F310" s="262">
+      <c r="D310" s="303"/>
+      <c r="E310" s="303"/>
+      <c r="F310" s="307">
         <f>Cálculos!E204</f>
         <v>4.53125</v>
       </c>
-      <c r="G310" s="262"/>
-      <c r="H310" s="271"/>
+      <c r="G310" s="307"/>
+      <c r="H310" s="297"/>
       <c r="I310" s="95"/>
       <c r="J310" s="95"/>
       <c r="K310" s="95"/>
@@ -50740,19 +50720,19 @@
       <c r="U310" s="95"/>
     </row>
     <row r="311" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A311" s="275"/>
-      <c r="B311" s="275"/>
-      <c r="C311" s="265" t="s">
+      <c r="A311" s="301"/>
+      <c r="B311" s="301"/>
+      <c r="C311" s="302" t="s">
         <v>139</v>
       </c>
-      <c r="D311" s="265"/>
-      <c r="E311" s="265"/>
-      <c r="F311" s="261">
+      <c r="D311" s="302"/>
+      <c r="E311" s="302"/>
+      <c r="F311" s="306">
         <f>Cálculos!E205</f>
         <v>3.5</v>
       </c>
-      <c r="G311" s="261"/>
-      <c r="H311" s="271"/>
+      <c r="G311" s="306"/>
+      <c r="H311" s="297"/>
       <c r="I311" s="95"/>
       <c r="J311" s="95"/>
       <c r="K311" s="95"/>
@@ -50768,19 +50748,19 @@
       <c r="U311" s="95"/>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A312" s="275"/>
-      <c r="B312" s="275"/>
-      <c r="C312" s="266" t="s">
+      <c r="A312" s="301"/>
+      <c r="B312" s="301"/>
+      <c r="C312" s="303" t="s">
         <v>141</v>
       </c>
-      <c r="D312" s="266"/>
-      <c r="E312" s="266"/>
-      <c r="F312" s="262">
+      <c r="D312" s="303"/>
+      <c r="E312" s="303"/>
+      <c r="F312" s="307">
         <f>Cálculos!E206</f>
         <v>2.5</v>
       </c>
-      <c r="G312" s="262"/>
-      <c r="H312" s="271"/>
+      <c r="G312" s="307"/>
+      <c r="H312" s="297"/>
       <c r="I312" s="95"/>
       <c r="J312" s="95"/>
       <c r="K312" s="95"/>
@@ -50796,19 +50776,19 @@
       <c r="U312" s="95"/>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A313" s="275"/>
-      <c r="B313" s="275"/>
-      <c r="C313" s="265" t="s">
+      <c r="A313" s="301"/>
+      <c r="B313" s="301"/>
+      <c r="C313" s="302" t="s">
         <v>142</v>
       </c>
-      <c r="D313" s="265"/>
-      <c r="E313" s="265"/>
-      <c r="F313" s="261">
+      <c r="D313" s="302"/>
+      <c r="E313" s="302"/>
+      <c r="F313" s="306">
         <f>Cálculos!E207</f>
         <v>3.5</v>
       </c>
-      <c r="G313" s="261"/>
-      <c r="H313" s="271"/>
+      <c r="G313" s="306"/>
+      <c r="H313" s="297"/>
       <c r="I313" s="95"/>
       <c r="J313" s="95"/>
       <c r="K313" s="95"/>
@@ -50824,19 +50804,19 @@
       <c r="U313" s="95"/>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A314" s="275"/>
-      <c r="B314" s="275"/>
-      <c r="C314" s="266" t="s">
+      <c r="A314" s="301"/>
+      <c r="B314" s="301"/>
+      <c r="C314" s="303" t="s">
         <v>143</v>
       </c>
-      <c r="D314" s="266"/>
-      <c r="E314" s="266"/>
-      <c r="F314" s="262">
+      <c r="D314" s="303"/>
+      <c r="E314" s="303"/>
+      <c r="F314" s="307">
         <f>Cálculos!E208</f>
         <v>4</v>
       </c>
-      <c r="G314" s="262"/>
-      <c r="H314" s="271"/>
+      <c r="G314" s="307"/>
+      <c r="H314" s="297"/>
       <c r="I314" s="95"/>
       <c r="J314" s="95"/>
       <c r="K314" s="95"/>
@@ -50852,21 +50832,21 @@
       <c r="U314" s="95"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A315" s="222" t="s">
+      <c r="A315" s="223" t="s">
         <v>255</v>
       </c>
-      <c r="B315" s="222"/>
-      <c r="C315" s="265" t="s">
+      <c r="B315" s="223"/>
+      <c r="C315" s="302" t="s">
         <v>115</v>
       </c>
-      <c r="D315" s="265"/>
-      <c r="E315" s="265"/>
-      <c r="F315" s="261">
+      <c r="D315" s="302"/>
+      <c r="E315" s="302"/>
+      <c r="F315" s="306">
         <f>Cálculos!E209</f>
         <v>4.0625</v>
       </c>
-      <c r="G315" s="261"/>
-      <c r="H315" s="270">
+      <c r="G315" s="306"/>
+      <c r="H315" s="296">
         <f>Cálculos!I209</f>
         <v>3.9584200226161048</v>
       </c>
@@ -50885,19 +50865,19 @@
       <c r="U315" s="95"/>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A316" s="222"/>
-      <c r="B316" s="222"/>
-      <c r="C316" s="266" t="s">
+      <c r="A316" s="223"/>
+      <c r="B316" s="223"/>
+      <c r="C316" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="D316" s="266"/>
-      <c r="E316" s="266"/>
-      <c r="F316" s="262">
+      <c r="D316" s="303"/>
+      <c r="E316" s="303"/>
+      <c r="F316" s="307">
         <f>Cálculos!E210</f>
         <v>3.90625</v>
       </c>
-      <c r="G316" s="262"/>
-      <c r="H316" s="270"/>
+      <c r="G316" s="307"/>
+      <c r="H316" s="296"/>
       <c r="I316" s="95"/>
       <c r="J316" s="95"/>
       <c r="K316" s="95"/>
@@ -50913,19 +50893,19 @@
       <c r="U316" s="95"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A317" s="222"/>
-      <c r="B317" s="222"/>
-      <c r="C317" s="265" t="s">
+      <c r="A317" s="223"/>
+      <c r="B317" s="223"/>
+      <c r="C317" s="302" t="s">
         <v>117</v>
       </c>
-      <c r="D317" s="265"/>
-      <c r="E317" s="265"/>
-      <c r="F317" s="261">
+      <c r="D317" s="302"/>
+      <c r="E317" s="302"/>
+      <c r="F317" s="306">
         <f>Cálculos!E211</f>
         <v>4.21875</v>
       </c>
-      <c r="G317" s="261"/>
-      <c r="H317" s="270"/>
+      <c r="G317" s="306"/>
+      <c r="H317" s="296"/>
       <c r="I317" s="95"/>
       <c r="J317" s="95"/>
       <c r="K317" s="95"/>
@@ -50941,19 +50921,19 @@
       <c r="U317" s="95"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A318" s="222"/>
-      <c r="B318" s="222"/>
-      <c r="C318" s="266" t="s">
+      <c r="A318" s="223"/>
+      <c r="B318" s="223"/>
+      <c r="C318" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="D318" s="266"/>
-      <c r="E318" s="266"/>
-      <c r="F318" s="262">
+      <c r="D318" s="303"/>
+      <c r="E318" s="303"/>
+      <c r="F318" s="307">
         <f>Cálculos!E212</f>
         <v>2.8125</v>
       </c>
-      <c r="G318" s="262"/>
-      <c r="H318" s="270"/>
+      <c r="G318" s="307"/>
+      <c r="H318" s="296"/>
       <c r="I318" s="95"/>
       <c r="J318" s="95"/>
       <c r="K318" s="95"/>
@@ -50969,21 +50949,21 @@
       <c r="U318" s="95"/>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A319" s="275" t="s">
+      <c r="A319" s="301" t="s">
         <v>256</v>
       </c>
-      <c r="B319" s="275"/>
-      <c r="C319" s="265" t="s">
+      <c r="B319" s="301"/>
+      <c r="C319" s="302" t="s">
         <v>106</v>
       </c>
-      <c r="D319" s="265"/>
-      <c r="E319" s="265"/>
-      <c r="F319" s="261">
+      <c r="D319" s="302"/>
+      <c r="E319" s="302"/>
+      <c r="F319" s="306">
         <f>Cálculos!E213</f>
         <v>5</v>
       </c>
-      <c r="G319" s="261"/>
-      <c r="H319" s="271">
+      <c r="G319" s="306"/>
+      <c r="H319" s="297">
         <f>Cálculos!I213</f>
         <v>4.0828173380550528</v>
       </c>
@@ -51002,19 +50982,19 @@
       <c r="U319" s="95"/>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A320" s="275"/>
-      <c r="B320" s="275"/>
-      <c r="C320" s="266" t="s">
+      <c r="A320" s="301"/>
+      <c r="B320" s="301"/>
+      <c r="C320" s="303" t="s">
         <v>140</v>
       </c>
-      <c r="D320" s="266"/>
-      <c r="E320" s="266"/>
-      <c r="F320" s="262">
+      <c r="D320" s="303"/>
+      <c r="E320" s="303"/>
+      <c r="F320" s="307">
         <f>Cálculos!E214</f>
         <v>3</v>
       </c>
-      <c r="G320" s="262"/>
-      <c r="H320" s="271"/>
+      <c r="G320" s="307"/>
+      <c r="H320" s="297"/>
       <c r="I320" s="95"/>
       <c r="J320" s="95"/>
       <c r="K320" s="95"/>
@@ -51030,19 +51010,19 @@
       <c r="U320" s="95"/>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A321" s="275"/>
-      <c r="B321" s="275"/>
-      <c r="C321" s="265" t="s">
+      <c r="A321" s="301"/>
+      <c r="B321" s="301"/>
+      <c r="C321" s="302" t="s">
         <v>144</v>
       </c>
-      <c r="D321" s="265"/>
-      <c r="E321" s="265"/>
-      <c r="F321" s="261">
+      <c r="D321" s="302"/>
+      <c r="E321" s="302"/>
+      <c r="F321" s="306">
         <f>Cálculos!E215</f>
         <v>4</v>
       </c>
-      <c r="G321" s="261"/>
-      <c r="H321" s="271"/>
+      <c r="G321" s="306"/>
+      <c r="H321" s="297"/>
       <c r="I321" s="95"/>
       <c r="J321" s="95"/>
       <c r="K321" s="95"/>
@@ -51058,19 +51038,19 @@
       <c r="U321" s="95"/>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A322" s="275"/>
-      <c r="B322" s="275"/>
-      <c r="C322" s="266" t="s">
+      <c r="A322" s="301"/>
+      <c r="B322" s="301"/>
+      <c r="C322" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="D322" s="266"/>
-      <c r="E322" s="266"/>
-      <c r="F322" s="262">
+      <c r="D322" s="303"/>
+      <c r="E322" s="303"/>
+      <c r="F322" s="307">
         <f>Cálculos!E216</f>
         <v>4.375</v>
       </c>
-      <c r="G322" s="262"/>
-      <c r="H322" s="271"/>
+      <c r="G322" s="307"/>
+      <c r="H322" s="297"/>
       <c r="I322" s="95"/>
       <c r="J322" s="95"/>
       <c r="K322" s="95"/>
@@ -51086,19 +51066,19 @@
       <c r="U322" s="95"/>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A323" s="275"/>
-      <c r="B323" s="275"/>
-      <c r="C323" s="265" t="s">
+      <c r="A323" s="301"/>
+      <c r="B323" s="301"/>
+      <c r="C323" s="302" t="s">
         <v>513</v>
       </c>
-      <c r="D323" s="265"/>
-      <c r="E323" s="265"/>
-      <c r="F323" s="261">
+      <c r="D323" s="302"/>
+      <c r="E323" s="302"/>
+      <c r="F323" s="306">
         <f>Cálculos!E217</f>
         <v>3.4375</v>
       </c>
-      <c r="G323" s="261"/>
-      <c r="H323" s="271"/>
+      <c r="G323" s="306"/>
+      <c r="H323" s="297"/>
       <c r="I323" s="95"/>
       <c r="J323" s="95"/>
       <c r="K323" s="95"/>
@@ -51114,19 +51094,19 @@
       <c r="U323" s="95"/>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A324" s="275"/>
-      <c r="B324" s="275"/>
-      <c r="C324" s="266" t="s">
+      <c r="A324" s="301"/>
+      <c r="B324" s="301"/>
+      <c r="C324" s="303" t="s">
         <v>514</v>
       </c>
-      <c r="D324" s="266"/>
-      <c r="E324" s="266"/>
-      <c r="F324" s="262">
+      <c r="D324" s="303"/>
+      <c r="E324" s="303"/>
+      <c r="F324" s="307">
         <f>Cálculos!E218</f>
         <v>3.75</v>
       </c>
-      <c r="G324" s="262"/>
-      <c r="H324" s="271"/>
+      <c r="G324" s="307"/>
+      <c r="H324" s="297"/>
       <c r="I324" s="95"/>
       <c r="J324" s="95"/>
       <c r="K324" s="95"/>
@@ -51142,19 +51122,19 @@
       <c r="U324" s="95"/>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A325" s="275"/>
-      <c r="B325" s="275"/>
-      <c r="C325" s="265" t="s">
+      <c r="A325" s="301"/>
+      <c r="B325" s="301"/>
+      <c r="C325" s="302" t="s">
         <v>515</v>
       </c>
-      <c r="D325" s="265"/>
-      <c r="E325" s="265"/>
-      <c r="F325" s="261">
+      <c r="D325" s="302"/>
+      <c r="E325" s="302"/>
+      <c r="F325" s="306">
         <f>Cálculos!E219</f>
         <v>4.6875</v>
       </c>
-      <c r="G325" s="261"/>
-      <c r="H325" s="271"/>
+      <c r="G325" s="306"/>
+      <c r="H325" s="297"/>
       <c r="I325" s="95"/>
       <c r="J325" s="95"/>
       <c r="K325" s="95"/>
@@ -51273,18 +51253,18 @@
       <c r="U329" s="95"/>
     </row>
     <row r="330" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="259" t="s">
+      <c r="A330" s="312" t="s">
         <v>248</v>
       </c>
-      <c r="B330" s="260"/>
+      <c r="B330" s="313"/>
       <c r="C330" s="193" t="s">
         <v>247</v>
       </c>
       <c r="E330" s="192"/>
-      <c r="F330" s="259" t="s">
+      <c r="F330" s="312" t="s">
         <v>248</v>
       </c>
-      <c r="G330" s="260"/>
+      <c r="G330" s="313"/>
       <c r="H330" s="193" t="s">
         <v>247</v>
       </c>
@@ -51303,19 +51283,19 @@
       <c r="U330" s="95"/>
     </row>
     <row r="331" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="257" t="s">
+      <c r="A331" s="308" t="s">
         <v>135</v>
       </c>
-      <c r="B331" s="258"/>
+      <c r="B331" s="309"/>
       <c r="C331" s="194">
         <f>Cálculos!G179</f>
         <v>5.1071842367718071E-2</v>
       </c>
       <c r="E331" s="95"/>
-      <c r="F331" s="255" t="s">
+      <c r="F331" s="314" t="s">
         <v>102</v>
       </c>
-      <c r="G331" s="256"/>
+      <c r="G331" s="315"/>
       <c r="H331" s="194">
         <f>Cálculos!G202</f>
         <v>4.0039304033037543E-2</v>
@@ -51335,19 +51315,19 @@
       <c r="U331" s="95"/>
     </row>
     <row r="332" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="257" t="s">
+      <c r="A332" s="308" t="s">
         <v>136</v>
       </c>
-      <c r="B332" s="258"/>
+      <c r="B332" s="309"/>
       <c r="C332" s="194">
         <f>Cálculos!G180</f>
         <v>2.837705213724577E-2</v>
       </c>
       <c r="E332" s="95"/>
-      <c r="F332" s="255" t="s">
+      <c r="F332" s="314" t="s">
         <v>103</v>
       </c>
-      <c r="G332" s="256"/>
+      <c r="G332" s="315"/>
       <c r="H332" s="194">
         <f>Cálculos!G203</f>
         <v>5.1770898899226848E-2</v>
@@ -51367,19 +51347,19 @@
       <c r="U332" s="95"/>
     </row>
     <row r="333" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="257" t="s">
+      <c r="A333" s="308" t="s">
         <v>137</v>
       </c>
-      <c r="B333" s="258"/>
+      <c r="B333" s="309"/>
       <c r="C333" s="194">
         <f>Cálculos!G181</f>
         <v>4.7362565681829956E-2</v>
       </c>
       <c r="E333" s="95"/>
-      <c r="F333" s="255" t="s">
+      <c r="F333" s="314" t="s">
         <v>104</v>
       </c>
-      <c r="G333" s="256"/>
+      <c r="G333" s="315"/>
       <c r="H333" s="194">
         <f>Cálculos!G204</f>
         <v>6.4023537314098308E-2</v>
@@ -51399,19 +51379,19 @@
       <c r="U333" s="95"/>
     </row>
     <row r="334" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="257" t="s">
+      <c r="A334" s="308" t="s">
         <v>138</v>
       </c>
-      <c r="B334" s="258"/>
+      <c r="B334" s="309"/>
       <c r="C334" s="194">
         <f>Cálculos!G182</f>
         <v>4.4714756682897983E-2</v>
       </c>
       <c r="E334" s="95"/>
-      <c r="F334" s="255" t="s">
+      <c r="F334" s="314" t="s">
         <v>139</v>
       </c>
-      <c r="G334" s="256"/>
+      <c r="G334" s="315"/>
       <c r="H334" s="194">
         <f>Cálculos!G205</f>
         <v>3.5662159454218488E-2</v>
@@ -51431,19 +51411,19 @@
       <c r="U334" s="95"/>
     </row>
     <row r="335" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="257" t="s">
+      <c r="A335" s="308" t="s">
         <v>251</v>
       </c>
-      <c r="B335" s="258"/>
+      <c r="B335" s="309"/>
       <c r="C335" s="194">
         <f>Cálculos!G183</f>
         <v>0</v>
       </c>
       <c r="E335" s="95"/>
-      <c r="F335" s="255" t="s">
+      <c r="F335" s="314" t="s">
         <v>141</v>
       </c>
-      <c r="G335" s="256"/>
+      <c r="G335" s="315"/>
       <c r="H335" s="194">
         <f>Cálculos!G206</f>
         <v>1.9923081841449874E-2</v>
@@ -51463,19 +51443,19 @@
       <c r="U335" s="95"/>
     </row>
     <row r="336" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="257" t="s">
+      <c r="A336" s="308" t="s">
         <v>91</v>
       </c>
-      <c r="B336" s="258"/>
+      <c r="B336" s="309"/>
       <c r="C336" s="194" t="str">
         <f>Cálculos!G184</f>
         <v>N/A</v>
       </c>
       <c r="E336" s="95"/>
-      <c r="F336" s="255" t="s">
+      <c r="F336" s="314" t="s">
         <v>142</v>
       </c>
-      <c r="G336" s="256"/>
+      <c r="G336" s="315"/>
       <c r="H336" s="194">
         <f>Cálculos!G207</f>
         <v>3.2427733839372461E-2</v>
@@ -51495,19 +51475,19 @@
       <c r="U336" s="95"/>
     </row>
     <row r="337" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="257" t="s">
+      <c r="A337" s="308" t="s">
         <v>95</v>
       </c>
-      <c r="B337" s="258"/>
+      <c r="B337" s="309"/>
       <c r="C337" s="194" t="str">
         <f>Cálculos!G185</f>
         <v>N/A</v>
       </c>
       <c r="E337" s="95"/>
-      <c r="F337" s="255" t="s">
+      <c r="F337" s="314" t="s">
         <v>143</v>
       </c>
-      <c r="G337" s="256"/>
+      <c r="G337" s="315"/>
       <c r="H337" s="194">
         <f>Cálculos!G208</f>
         <v>2.4712899802991864E-2</v>
@@ -51527,19 +51507,19 @@
       <c r="U337" s="95"/>
     </row>
     <row r="338" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="257" t="s">
+      <c r="A338" s="308" t="s">
         <v>105</v>
       </c>
-      <c r="B338" s="258"/>
+      <c r="B338" s="309"/>
       <c r="C338" s="194">
         <f>Cálculos!G186</f>
         <v>7.9603977930424646E-2</v>
       </c>
       <c r="E338" s="95"/>
-      <c r="F338" s="255" t="s">
+      <c r="F338" s="314" t="s">
         <v>115</v>
       </c>
-      <c r="G338" s="256"/>
+      <c r="G338" s="315"/>
       <c r="H338" s="194">
         <f>Cálculos!G209</f>
         <v>0.14309075020879949</v>
@@ -51559,19 +51539,19 @@
       <c r="U338" s="95"/>
     </row>
     <row r="339" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="257" t="s">
+      <c r="A339" s="308" t="s">
         <v>107</v>
       </c>
-      <c r="B339" s="258"/>
+      <c r="B339" s="309"/>
       <c r="C339" s="194">
         <f>Cálculos!G187</f>
         <v>4.6922541345851422E-2</v>
       </c>
       <c r="E339" s="95"/>
-      <c r="F339" s="255" t="s">
+      <c r="F339" s="314" t="s">
         <v>116</v>
       </c>
-      <c r="G339" s="256"/>
+      <c r="G339" s="315"/>
       <c r="H339" s="194">
         <f>Cálculos!G210</f>
         <v>9.7505046036705553E-2</v>
@@ -51591,19 +51571,19 @@
       <c r="U339" s="95"/>
     </row>
     <row r="340" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="257" t="s">
+      <c r="A340" s="308" t="s">
         <v>108</v>
       </c>
-      <c r="B340" s="258"/>
+      <c r="B340" s="309"/>
       <c r="C340" s="194">
         <f>Cálculos!G188</f>
         <v>5.1007179443385522E-2</v>
       </c>
       <c r="E340" s="95"/>
-      <c r="F340" s="255" t="s">
+      <c r="F340" s="314" t="s">
         <v>117</v>
       </c>
-      <c r="G340" s="256"/>
+      <c r="G340" s="315"/>
       <c r="H340" s="194">
         <f>Cálculos!G211</f>
         <v>0.1093282358925427</v>
@@ -51623,19 +51603,19 @@
       <c r="U340" s="95"/>
     </row>
     <row r="341" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="257" t="s">
+      <c r="A341" s="308" t="s">
         <v>109</v>
       </c>
-      <c r="B341" s="258"/>
+      <c r="B341" s="309"/>
       <c r="C341" s="194">
         <f>Cálculos!G189</f>
         <v>6.6679396286224546E-2</v>
       </c>
       <c r="E341" s="95"/>
-      <c r="F341" s="255" t="s">
+      <c r="F341" s="314" t="s">
         <v>118</v>
       </c>
-      <c r="G341" s="256"/>
+      <c r="G341" s="315"/>
       <c r="H341" s="194">
         <f>Cálculos!G212</f>
         <v>3.339452842321429E-2</v>
@@ -51655,19 +51635,19 @@
       <c r="U341" s="95"/>
     </row>
     <row r="342" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="257" t="s">
+      <c r="A342" s="308" t="s">
         <v>110</v>
       </c>
-      <c r="B342" s="258"/>
+      <c r="B342" s="309"/>
       <c r="C342" s="194">
         <f>Cálculos!G190</f>
         <v>0.13853270848429575</v>
       </c>
       <c r="E342" s="95"/>
-      <c r="F342" s="255" t="s">
+      <c r="F342" s="314" t="s">
         <v>106</v>
       </c>
-      <c r="G342" s="256"/>
+      <c r="G342" s="315"/>
       <c r="H342" s="194">
         <f>Cálculos!G213</f>
         <v>9.623867478495586E-2</v>
@@ -51687,19 +51667,19 @@
       <c r="U342" s="95"/>
     </row>
     <row r="343" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="257" t="s">
+      <c r="A343" s="308" t="s">
         <v>111</v>
       </c>
-      <c r="B343" s="258"/>
+      <c r="B343" s="309"/>
       <c r="C343" s="194">
         <f>Cálculos!G191</f>
         <v>0.11138886509907378</v>
       </c>
       <c r="E343" s="95"/>
-      <c r="F343" s="255" t="s">
+      <c r="F343" s="314" t="s">
         <v>140</v>
       </c>
-      <c r="G343" s="256"/>
+      <c r="G343" s="315"/>
       <c r="H343" s="194">
         <f>Cálculos!G214</f>
         <v>6.6083631331290499E-2</v>
@@ -51719,19 +51699,19 @@
       <c r="U343" s="95"/>
     </row>
     <row r="344" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="257" t="s">
+      <c r="A344" s="308" t="s">
         <v>112</v>
       </c>
-      <c r="B344" s="258"/>
+      <c r="B344" s="309"/>
       <c r="C344" s="194">
         <f>Cálculos!G192</f>
         <v>2.427348273109001E-2</v>
       </c>
       <c r="E344" s="95"/>
-      <c r="F344" s="255" t="s">
+      <c r="F344" s="314" t="s">
         <v>144</v>
       </c>
-      <c r="G344" s="256"/>
+      <c r="G344" s="315"/>
       <c r="H344" s="194">
         <f>Cálculos!G215</f>
         <v>4.8238510895504884E-2</v>
@@ -51751,19 +51731,19 @@
       <c r="U344" s="95"/>
     </row>
     <row r="345" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="257" t="s">
+      <c r="A345" s="308" t="s">
         <v>113</v>
       </c>
-      <c r="B345" s="258"/>
+      <c r="B345" s="309"/>
       <c r="C345" s="194">
         <f>Cálculos!G193</f>
         <v>2.5249539782061365E-2</v>
       </c>
       <c r="E345" s="95"/>
-      <c r="F345" s="255" t="s">
+      <c r="F345" s="314" t="s">
         <v>119</v>
       </c>
-      <c r="G345" s="256"/>
+      <c r="G345" s="315"/>
       <c r="H345" s="194">
         <f>Cálculos!G216</f>
         <v>5.3178522196048211E-2</v>
@@ -51783,19 +51763,19 @@
       <c r="U345" s="95"/>
     </row>
     <row r="346" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="257" t="s">
+      <c r="A346" s="308" t="s">
         <v>114</v>
       </c>
-      <c r="B346" s="258"/>
+      <c r="B346" s="309"/>
       <c r="C346" s="194">
         <f>Cálculos!G194</f>
         <v>2.9151326059158596E-2</v>
       </c>
       <c r="E346" s="95"/>
-      <c r="F346" s="255" t="s">
+      <c r="F346" s="314" t="s">
         <v>513</v>
       </c>
-      <c r="G346" s="256"/>
+      <c r="G346" s="315"/>
       <c r="H346" s="194">
         <f>Cálculos!G217</f>
         <v>4.8951053570051056E-2</v>
@@ -51815,19 +51795,19 @@
       <c r="U346" s="95"/>
     </row>
     <row r="347" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="257" t="s">
+      <c r="A347" s="308" t="s">
         <v>372</v>
       </c>
-      <c r="B347" s="258"/>
+      <c r="B347" s="309"/>
       <c r="C347" s="194">
         <f>Cálculos!G195</f>
         <v>7.4305434857698818E-2</v>
       </c>
       <c r="E347" s="95"/>
-      <c r="F347" s="255" t="s">
+      <c r="F347" s="314" t="s">
         <v>514</v>
       </c>
-      <c r="G347" s="256"/>
+      <c r="G347" s="315"/>
       <c r="H347" s="194">
         <f>Cálculos!G218</f>
         <v>1.9296648512538296E-2</v>
@@ -51847,19 +51827,19 @@
       <c r="U347" s="95"/>
     </row>
     <row r="348" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="257" t="s">
+      <c r="A348" s="308" t="s">
         <v>373</v>
       </c>
-      <c r="B348" s="258"/>
+      <c r="B348" s="309"/>
       <c r="C348" s="194">
         <f>Cálculos!G196</f>
         <v>5.3913588391275212E-2</v>
       </c>
       <c r="E348" s="95"/>
-      <c r="F348" s="242" t="s">
+      <c r="F348" s="316" t="s">
         <v>515</v>
       </c>
-      <c r="G348" s="243"/>
+      <c r="G348" s="317"/>
       <c r="H348" s="195">
         <f>Cálculos!G219</f>
         <v>1.6134782963953837E-2</v>
@@ -51879,17 +51859,17 @@
       <c r="U348" s="95"/>
     </row>
     <row r="349" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="257" t="s">
+      <c r="A349" s="308" t="s">
         <v>368</v>
       </c>
-      <c r="B349" s="258"/>
+      <c r="B349" s="309"/>
       <c r="C349" s="194">
         <f>Cálculos!G197</f>
         <v>2.8992890297668921E-2</v>
       </c>
       <c r="E349" s="95"/>
-      <c r="F349" s="244"/>
-      <c r="G349" s="244"/>
+      <c r="F349" s="318"/>
+      <c r="G349" s="318"/>
       <c r="H349" s="197"/>
       <c r="I349" s="95"/>
       <c r="J349" s="95"/>
@@ -51906,17 +51886,17 @@
       <c r="U349" s="95"/>
     </row>
     <row r="350" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="257" t="s">
+      <c r="A350" s="308" t="s">
         <v>369</v>
       </c>
-      <c r="B350" s="258"/>
+      <c r="B350" s="309"/>
       <c r="C350" s="194">
         <f>Cálculos!G198</f>
         <v>5.6752565787220169E-2</v>
       </c>
       <c r="E350" s="95"/>
-      <c r="F350" s="245"/>
-      <c r="G350" s="245"/>
+      <c r="F350" s="319"/>
+      <c r="G350" s="319"/>
       <c r="H350" s="196"/>
       <c r="I350" s="95"/>
       <c r="J350" s="95"/>
@@ -51933,17 +51913,17 @@
       <c r="U350" s="95"/>
     </row>
     <row r="351" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="257" t="s">
+      <c r="A351" s="308" t="s">
         <v>370</v>
       </c>
-      <c r="B351" s="258"/>
+      <c r="B351" s="309"/>
       <c r="C351" s="194">
         <f>Cálculos!G199</f>
         <v>4.1700286634879027E-2</v>
       </c>
       <c r="E351" s="95"/>
-      <c r="F351" s="245"/>
-      <c r="G351" s="245"/>
+      <c r="F351" s="319"/>
+      <c r="G351" s="319"/>
       <c r="H351" s="196"/>
       <c r="I351" s="95"/>
       <c r="J351" s="95"/>
@@ -53879,8 +53859,8 @@
     </row>
     <row r="435" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A435" s="95"/>
-      <c r="B435" s="246" t="s">
-        <v>677</v>
+      <c r="B435" s="320" t="s">
+        <v>673</v>
       </c>
       <c r="C435" s="247"/>
       <c r="D435" s="247"/>
@@ -53904,12 +53884,12 @@
     </row>
     <row r="436" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A436" s="95"/>
-      <c r="B436" s="249"/>
-      <c r="C436" s="250"/>
-      <c r="D436" s="250"/>
-      <c r="E436" s="250"/>
-      <c r="F436" s="250"/>
-      <c r="G436" s="251"/>
+      <c r="B436" s="321"/>
+      <c r="C436" s="281"/>
+      <c r="D436" s="281"/>
+      <c r="E436" s="281"/>
+      <c r="F436" s="281"/>
+      <c r="G436" s="282"/>
       <c r="H436" s="95"/>
       <c r="I436" s="95"/>
       <c r="J436" s="95"/>
@@ -53927,12 +53907,12 @@
     </row>
     <row r="437" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A437" s="95"/>
-      <c r="B437" s="249"/>
-      <c r="C437" s="250"/>
-      <c r="D437" s="250"/>
-      <c r="E437" s="250"/>
-      <c r="F437" s="250"/>
-      <c r="G437" s="251"/>
+      <c r="B437" s="321"/>
+      <c r="C437" s="281"/>
+      <c r="D437" s="281"/>
+      <c r="E437" s="281"/>
+      <c r="F437" s="281"/>
+      <c r="G437" s="282"/>
       <c r="H437" s="95"/>
       <c r="I437" s="95"/>
       <c r="J437" s="95"/>
@@ -53950,12 +53930,12 @@
     </row>
     <row r="438" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A438" s="95"/>
-      <c r="B438" s="249"/>
-      <c r="C438" s="250"/>
-      <c r="D438" s="250"/>
-      <c r="E438" s="250"/>
-      <c r="F438" s="250"/>
-      <c r="G438" s="251"/>
+      <c r="B438" s="321"/>
+      <c r="C438" s="281"/>
+      <c r="D438" s="281"/>
+      <c r="E438" s="281"/>
+      <c r="F438" s="281"/>
+      <c r="G438" s="282"/>
       <c r="H438" s="95"/>
       <c r="I438" s="95"/>
       <c r="J438" s="95"/>
@@ -53973,12 +53953,12 @@
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="95"/>
-      <c r="B439" s="249"/>
-      <c r="C439" s="250"/>
-      <c r="D439" s="250"/>
-      <c r="E439" s="250"/>
-      <c r="F439" s="250"/>
-      <c r="G439" s="251"/>
+      <c r="B439" s="321"/>
+      <c r="C439" s="281"/>
+      <c r="D439" s="281"/>
+      <c r="E439" s="281"/>
+      <c r="F439" s="281"/>
+      <c r="G439" s="282"/>
       <c r="H439" s="95"/>
       <c r="I439" s="95"/>
       <c r="J439" s="95"/>
@@ -53996,12 +53976,12 @@
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="95"/>
-      <c r="B440" s="249"/>
-      <c r="C440" s="250"/>
-      <c r="D440" s="250"/>
-      <c r="E440" s="250"/>
-      <c r="F440" s="250"/>
-      <c r="G440" s="251"/>
+      <c r="B440" s="321"/>
+      <c r="C440" s="281"/>
+      <c r="D440" s="281"/>
+      <c r="E440" s="281"/>
+      <c r="F440" s="281"/>
+      <c r="G440" s="282"/>
       <c r="H440" s="95"/>
       <c r="I440" s="95"/>
       <c r="J440" s="95"/>
@@ -54019,12 +53999,12 @@
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="95"/>
-      <c r="B441" s="249"/>
-      <c r="C441" s="250"/>
-      <c r="D441" s="250"/>
-      <c r="E441" s="250"/>
-      <c r="F441" s="250"/>
-      <c r="G441" s="251"/>
+      <c r="B441" s="321"/>
+      <c r="C441" s="281"/>
+      <c r="D441" s="281"/>
+      <c r="E441" s="281"/>
+      <c r="F441" s="281"/>
+      <c r="G441" s="282"/>
       <c r="H441" s="95"/>
       <c r="I441" s="95"/>
       <c r="J441" s="95"/>
@@ -54042,12 +54022,12 @@
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="95"/>
-      <c r="B442" s="249"/>
-      <c r="C442" s="250"/>
-      <c r="D442" s="250"/>
-      <c r="E442" s="250"/>
-      <c r="F442" s="250"/>
-      <c r="G442" s="251"/>
+      <c r="B442" s="321"/>
+      <c r="C442" s="281"/>
+      <c r="D442" s="281"/>
+      <c r="E442" s="281"/>
+      <c r="F442" s="281"/>
+      <c r="G442" s="282"/>
       <c r="H442" s="95"/>
       <c r="I442" s="95"/>
       <c r="J442" s="95"/>
@@ -54065,12 +54045,12 @@
     </row>
     <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="95"/>
-      <c r="B443" s="249"/>
-      <c r="C443" s="250"/>
-      <c r="D443" s="250"/>
-      <c r="E443" s="250"/>
-      <c r="F443" s="250"/>
-      <c r="G443" s="251"/>
+      <c r="B443" s="321"/>
+      <c r="C443" s="281"/>
+      <c r="D443" s="281"/>
+      <c r="E443" s="281"/>
+      <c r="F443" s="281"/>
+      <c r="G443" s="282"/>
       <c r="H443" s="95"/>
       <c r="I443" s="95"/>
       <c r="J443" s="95"/>
@@ -54088,12 +54068,12 @@
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="95"/>
-      <c r="B444" s="249"/>
-      <c r="C444" s="250"/>
-      <c r="D444" s="250"/>
-      <c r="E444" s="250"/>
-      <c r="F444" s="250"/>
-      <c r="G444" s="251"/>
+      <c r="B444" s="321"/>
+      <c r="C444" s="281"/>
+      <c r="D444" s="281"/>
+      <c r="E444" s="281"/>
+      <c r="F444" s="281"/>
+      <c r="G444" s="282"/>
       <c r="H444" s="95"/>
       <c r="I444" s="95"/>
       <c r="J444" s="95"/>
@@ -54111,12 +54091,12 @@
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="95"/>
-      <c r="B445" s="249"/>
-      <c r="C445" s="250"/>
-      <c r="D445" s="250"/>
-      <c r="E445" s="250"/>
-      <c r="F445" s="250"/>
-      <c r="G445" s="251"/>
+      <c r="B445" s="321"/>
+      <c r="C445" s="281"/>
+      <c r="D445" s="281"/>
+      <c r="E445" s="281"/>
+      <c r="F445" s="281"/>
+      <c r="G445" s="282"/>
       <c r="H445" s="95"/>
       <c r="I445" s="95"/>
       <c r="J445" s="95"/>
@@ -54134,12 +54114,12 @@
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="95"/>
-      <c r="B446" s="249"/>
-      <c r="C446" s="250"/>
-      <c r="D446" s="250"/>
-      <c r="E446" s="250"/>
-      <c r="F446" s="250"/>
-      <c r="G446" s="251"/>
+      <c r="B446" s="321"/>
+      <c r="C446" s="281"/>
+      <c r="D446" s="281"/>
+      <c r="E446" s="281"/>
+      <c r="F446" s="281"/>
+      <c r="G446" s="282"/>
       <c r="H446" s="95"/>
       <c r="I446" s="95"/>
       <c r="J446" s="95"/>
@@ -54157,12 +54137,12 @@
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="95"/>
-      <c r="B447" s="249"/>
-      <c r="C447" s="250"/>
-      <c r="D447" s="250"/>
-      <c r="E447" s="250"/>
-      <c r="F447" s="250"/>
-      <c r="G447" s="251"/>
+      <c r="B447" s="321"/>
+      <c r="C447" s="281"/>
+      <c r="D447" s="281"/>
+      <c r="E447" s="281"/>
+      <c r="F447" s="281"/>
+      <c r="G447" s="282"/>
       <c r="H447" s="95"/>
       <c r="I447" s="95"/>
       <c r="J447" s="95"/>
@@ -54180,12 +54160,12 @@
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="95"/>
-      <c r="B448" s="249"/>
-      <c r="C448" s="250"/>
-      <c r="D448" s="250"/>
-      <c r="E448" s="250"/>
-      <c r="F448" s="250"/>
-      <c r="G448" s="251"/>
+      <c r="B448" s="321"/>
+      <c r="C448" s="281"/>
+      <c r="D448" s="281"/>
+      <c r="E448" s="281"/>
+      <c r="F448" s="281"/>
+      <c r="G448" s="282"/>
       <c r="H448" s="95"/>
       <c r="I448" s="95"/>
       <c r="J448" s="95"/>
@@ -54203,12 +54183,12 @@
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="95"/>
-      <c r="B449" s="252"/>
-      <c r="C449" s="253"/>
-      <c r="D449" s="253"/>
-      <c r="E449" s="253"/>
-      <c r="F449" s="253"/>
-      <c r="G449" s="254"/>
+      <c r="B449" s="322"/>
+      <c r="C449" s="269"/>
+      <c r="D449" s="269"/>
+      <c r="E449" s="269"/>
+      <c r="F449" s="269"/>
+      <c r="G449" s="270"/>
       <c r="H449" s="95"/>
       <c r="I449" s="95"/>
       <c r="J449" s="95"/>
@@ -63909,43 +63889,345 @@
     </row>
   </sheetData>
   <mergeCells count="400">
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="B160:H160"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="B174:H174"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B172:H172"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="F348:G348"/>
+    <mergeCell ref="F349:G349"/>
+    <mergeCell ref="F350:G350"/>
+    <mergeCell ref="F351:G351"/>
+    <mergeCell ref="B435:G449"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="F342:G342"/>
+    <mergeCell ref="F343:G343"/>
+    <mergeCell ref="F344:G344"/>
+    <mergeCell ref="F345:G345"/>
+    <mergeCell ref="F346:G346"/>
+    <mergeCell ref="F347:G347"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A340:B340"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A343:B343"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="F332:G332"/>
+    <mergeCell ref="F333:G333"/>
+    <mergeCell ref="F334:G334"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="F338:G338"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A331:B331"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A349:B349"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="F324:G324"/>
+    <mergeCell ref="F325:G325"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="F314:G314"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="F316:G316"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="C323:E323"/>
+    <mergeCell ref="C324:E324"/>
+    <mergeCell ref="C325:E325"/>
+    <mergeCell ref="C314:E314"/>
+    <mergeCell ref="C315:E315"/>
+    <mergeCell ref="C316:E316"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="F310:G310"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="C283:E283"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="C293:E293"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C295:E295"/>
+    <mergeCell ref="C321:E321"/>
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="C302:E302"/>
+    <mergeCell ref="C303:E303"/>
+    <mergeCell ref="C304:E304"/>
+    <mergeCell ref="C308:E308"/>
+    <mergeCell ref="C309:E309"/>
+    <mergeCell ref="C310:E310"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="C312:E312"/>
+    <mergeCell ref="C313:E313"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="C290:E290"/>
+    <mergeCell ref="C291:E291"/>
+    <mergeCell ref="C292:E292"/>
+    <mergeCell ref="C317:E317"/>
+    <mergeCell ref="C318:E318"/>
+    <mergeCell ref="C319:E319"/>
+    <mergeCell ref="C320:E320"/>
+    <mergeCell ref="H284:H288"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="H291:H299"/>
+    <mergeCell ref="H300:H304"/>
+    <mergeCell ref="H308:H314"/>
+    <mergeCell ref="H315:H318"/>
+    <mergeCell ref="H319:H325"/>
+    <mergeCell ref="A284:B288"/>
+    <mergeCell ref="A289:B290"/>
+    <mergeCell ref="A291:B299"/>
+    <mergeCell ref="A300:B304"/>
+    <mergeCell ref="A308:B314"/>
+    <mergeCell ref="A315:B318"/>
+    <mergeCell ref="A319:B325"/>
+    <mergeCell ref="C296:E296"/>
+    <mergeCell ref="C297:E297"/>
+    <mergeCell ref="C298:E298"/>
+    <mergeCell ref="C299:E299"/>
+    <mergeCell ref="C300:E300"/>
+    <mergeCell ref="C301:E301"/>
+    <mergeCell ref="C284:E284"/>
+    <mergeCell ref="C285:E285"/>
+    <mergeCell ref="C286:E286"/>
+    <mergeCell ref="C287:E287"/>
+    <mergeCell ref="E255:H255"/>
+    <mergeCell ref="E256:H256"/>
+    <mergeCell ref="E257:H257"/>
+    <mergeCell ref="E258:H258"/>
+    <mergeCell ref="E259:H259"/>
+    <mergeCell ref="E260:H260"/>
+    <mergeCell ref="E261:H261"/>
+    <mergeCell ref="E262:H262"/>
+    <mergeCell ref="E263:H263"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="E234:H234"/>
+    <mergeCell ref="E235:H235"/>
+    <mergeCell ref="E236:H236"/>
+    <mergeCell ref="E237:H237"/>
+    <mergeCell ref="E238:H238"/>
+    <mergeCell ref="E239:H239"/>
+    <mergeCell ref="E240:H240"/>
+    <mergeCell ref="E241:H241"/>
+    <mergeCell ref="E242:H242"/>
+    <mergeCell ref="E243:H243"/>
+    <mergeCell ref="E244:H244"/>
+    <mergeCell ref="E245:H245"/>
+    <mergeCell ref="E246:H246"/>
+    <mergeCell ref="E247:H247"/>
+    <mergeCell ref="E248:H248"/>
+    <mergeCell ref="E249:H249"/>
+    <mergeCell ref="E250:H250"/>
+    <mergeCell ref="E251:H251"/>
+    <mergeCell ref="E252:H252"/>
+    <mergeCell ref="E253:H253"/>
+    <mergeCell ref="E254:H254"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="A234:B235"/>
+    <mergeCell ref="A236:B237"/>
+    <mergeCell ref="A238:B239"/>
+    <mergeCell ref="A240:B241"/>
+    <mergeCell ref="A242:B243"/>
+    <mergeCell ref="A244:B245"/>
+    <mergeCell ref="A246:B247"/>
+    <mergeCell ref="A248:B249"/>
+    <mergeCell ref="A250:B251"/>
+    <mergeCell ref="A252:B253"/>
+    <mergeCell ref="A254:B255"/>
+    <mergeCell ref="A256:B257"/>
+    <mergeCell ref="A258:B259"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="A262:B263"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B220:H220"/>
+    <mergeCell ref="B221:H221"/>
+    <mergeCell ref="B214:H214"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B217:H217"/>
+    <mergeCell ref="B218:H218"/>
+    <mergeCell ref="B219:H219"/>
+    <mergeCell ref="B216:H216"/>
+    <mergeCell ref="B208:H208"/>
+    <mergeCell ref="B209:H209"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="B212:H212"/>
+    <mergeCell ref="B213:H213"/>
+    <mergeCell ref="B202:H202"/>
+    <mergeCell ref="B203:H203"/>
+    <mergeCell ref="B205:H205"/>
+    <mergeCell ref="B206:H206"/>
+    <mergeCell ref="B207:H207"/>
+    <mergeCell ref="B204:H204"/>
+    <mergeCell ref="B210:H210"/>
+    <mergeCell ref="B196:H196"/>
+    <mergeCell ref="B197:H197"/>
+    <mergeCell ref="B199:H199"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B201:H201"/>
+    <mergeCell ref="B191:H191"/>
+    <mergeCell ref="B193:H193"/>
+    <mergeCell ref="B194:H194"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="B192:H192"/>
+    <mergeCell ref="B198:H198"/>
+    <mergeCell ref="B189:H189"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B190:H190"/>
+    <mergeCell ref="B179:H179"/>
+    <mergeCell ref="B181:H181"/>
+    <mergeCell ref="B182:H182"/>
+    <mergeCell ref="B183:H183"/>
+    <mergeCell ref="B184:H184"/>
+    <mergeCell ref="B180:H180"/>
+    <mergeCell ref="B186:H186"/>
+    <mergeCell ref="B185:H185"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B188:H188"/>
+    <mergeCell ref="B173:H173"/>
+    <mergeCell ref="B175:H175"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="B178:H178"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D4:H4"/>
@@ -63970,345 +64252,43 @@
     <mergeCell ref="B77:F77"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:H28"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B191:H191"/>
-    <mergeCell ref="B193:H193"/>
-    <mergeCell ref="B194:H194"/>
-    <mergeCell ref="B195:H195"/>
-    <mergeCell ref="B192:H192"/>
-    <mergeCell ref="B198:H198"/>
-    <mergeCell ref="B189:H189"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B190:H190"/>
-    <mergeCell ref="B179:H179"/>
-    <mergeCell ref="B181:H181"/>
-    <mergeCell ref="B182:H182"/>
-    <mergeCell ref="B183:H183"/>
-    <mergeCell ref="B184:H184"/>
-    <mergeCell ref="B180:H180"/>
-    <mergeCell ref="B186:H186"/>
-    <mergeCell ref="B185:H185"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B188:H188"/>
-    <mergeCell ref="B173:H173"/>
-    <mergeCell ref="B175:H175"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="B177:H177"/>
-    <mergeCell ref="B178:H178"/>
-    <mergeCell ref="B202:H202"/>
-    <mergeCell ref="B203:H203"/>
-    <mergeCell ref="B205:H205"/>
-    <mergeCell ref="B206:H206"/>
-    <mergeCell ref="B207:H207"/>
-    <mergeCell ref="B204:H204"/>
-    <mergeCell ref="B210:H210"/>
-    <mergeCell ref="B196:H196"/>
-    <mergeCell ref="B197:H197"/>
-    <mergeCell ref="B199:H199"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B201:H201"/>
-    <mergeCell ref="B221:H221"/>
-    <mergeCell ref="B214:H214"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B217:H217"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B219:H219"/>
-    <mergeCell ref="B216:H216"/>
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="B209:H209"/>
-    <mergeCell ref="B211:H211"/>
-    <mergeCell ref="B212:H212"/>
-    <mergeCell ref="B213:H213"/>
-    <mergeCell ref="A252:B253"/>
-    <mergeCell ref="A254:B255"/>
-    <mergeCell ref="A256:B257"/>
-    <mergeCell ref="A258:B259"/>
-    <mergeCell ref="A260:B261"/>
-    <mergeCell ref="A262:B263"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B220:H220"/>
-    <mergeCell ref="A234:B235"/>
-    <mergeCell ref="A236:B237"/>
-    <mergeCell ref="A238:B239"/>
-    <mergeCell ref="A240:B241"/>
-    <mergeCell ref="A242:B243"/>
-    <mergeCell ref="A244:B245"/>
-    <mergeCell ref="A246:B247"/>
-    <mergeCell ref="A248:B249"/>
-    <mergeCell ref="A250:B251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C262:D262"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="E234:H234"/>
-    <mergeCell ref="E235:H235"/>
-    <mergeCell ref="E236:H236"/>
-    <mergeCell ref="E237:H237"/>
-    <mergeCell ref="E238:H238"/>
-    <mergeCell ref="E239:H239"/>
-    <mergeCell ref="E240:H240"/>
-    <mergeCell ref="E241:H241"/>
-    <mergeCell ref="E242:H242"/>
-    <mergeCell ref="E243:H243"/>
-    <mergeCell ref="E244:H244"/>
-    <mergeCell ref="E245:H245"/>
-    <mergeCell ref="E246:H246"/>
-    <mergeCell ref="E247:H247"/>
-    <mergeCell ref="E248:H248"/>
-    <mergeCell ref="E249:H249"/>
-    <mergeCell ref="E250:H250"/>
-    <mergeCell ref="E251:H251"/>
-    <mergeCell ref="E252:H252"/>
-    <mergeCell ref="E253:H253"/>
-    <mergeCell ref="E254:H254"/>
-    <mergeCell ref="E255:H255"/>
-    <mergeCell ref="E256:H256"/>
-    <mergeCell ref="E257:H257"/>
-    <mergeCell ref="E258:H258"/>
-    <mergeCell ref="E259:H259"/>
-    <mergeCell ref="E260:H260"/>
-    <mergeCell ref="E261:H261"/>
-    <mergeCell ref="E262:H262"/>
-    <mergeCell ref="E263:H263"/>
-    <mergeCell ref="H284:H288"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="H291:H299"/>
-    <mergeCell ref="H300:H304"/>
-    <mergeCell ref="H308:H314"/>
-    <mergeCell ref="H315:H318"/>
-    <mergeCell ref="H319:H325"/>
-    <mergeCell ref="A284:B288"/>
-    <mergeCell ref="A289:B290"/>
-    <mergeCell ref="A291:B299"/>
-    <mergeCell ref="A300:B304"/>
-    <mergeCell ref="A308:B314"/>
-    <mergeCell ref="A315:B318"/>
-    <mergeCell ref="A319:B325"/>
-    <mergeCell ref="C296:E296"/>
-    <mergeCell ref="C297:E297"/>
-    <mergeCell ref="C298:E298"/>
-    <mergeCell ref="C299:E299"/>
-    <mergeCell ref="C300:E300"/>
-    <mergeCell ref="C301:E301"/>
-    <mergeCell ref="C284:E284"/>
-    <mergeCell ref="C285:E285"/>
-    <mergeCell ref="C286:E286"/>
-    <mergeCell ref="C287:E287"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="C290:E290"/>
-    <mergeCell ref="C291:E291"/>
-    <mergeCell ref="C292:E292"/>
-    <mergeCell ref="C317:E317"/>
-    <mergeCell ref="C318:E318"/>
-    <mergeCell ref="C319:E319"/>
-    <mergeCell ref="C320:E320"/>
-    <mergeCell ref="C321:E321"/>
-    <mergeCell ref="C322:E322"/>
-    <mergeCell ref="C302:E302"/>
-    <mergeCell ref="C303:E303"/>
-    <mergeCell ref="C304:E304"/>
-    <mergeCell ref="C308:E308"/>
-    <mergeCell ref="C309:E309"/>
-    <mergeCell ref="C310:E310"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="C312:E312"/>
-    <mergeCell ref="C313:E313"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="C283:E283"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="C307:E307"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="F287:G287"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="F294:G294"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="C293:E293"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C295:E295"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="F301:G301"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="F310:G310"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="A349:B349"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="F323:G323"/>
-    <mergeCell ref="F324:G324"/>
-    <mergeCell ref="F325:G325"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="F313:G313"/>
-    <mergeCell ref="F314:G314"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="F316:G316"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="F319:G319"/>
-    <mergeCell ref="F320:G320"/>
-    <mergeCell ref="C323:E323"/>
-    <mergeCell ref="C324:E324"/>
-    <mergeCell ref="C325:E325"/>
-    <mergeCell ref="C314:E314"/>
-    <mergeCell ref="C315:E315"/>
-    <mergeCell ref="C316:E316"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="A331:B331"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="F332:G332"/>
-    <mergeCell ref="F333:G333"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="F336:G336"/>
-    <mergeCell ref="F337:G337"/>
-    <mergeCell ref="F338:G338"/>
-    <mergeCell ref="F348:G348"/>
-    <mergeCell ref="F349:G349"/>
-    <mergeCell ref="F350:G350"/>
-    <mergeCell ref="F351:G351"/>
-    <mergeCell ref="B435:G449"/>
-    <mergeCell ref="F339:G339"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="F341:G341"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="F343:G343"/>
-    <mergeCell ref="F344:G344"/>
-    <mergeCell ref="F345:G345"/>
-    <mergeCell ref="F346:G346"/>
-    <mergeCell ref="F347:G347"/>
-    <mergeCell ref="A339:B339"/>
-    <mergeCell ref="A340:B340"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A343:B343"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A345:B345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B174:H174"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="B172:H172"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B157:H157"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
